--- a/Eksperimen 6/ADMR/training_results_with_epoch.xlsx
+++ b/Eksperimen 6/ADMR/training_results_with_epoch.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="46">
   <si>
     <t>Ticker</t>
   </si>
@@ -47,10 +47,40 @@
     <t>ADMR</t>
   </si>
   <si>
+    <t>Open_LAG</t>
+  </si>
+  <si>
+    <t>High_LAG</t>
+  </si>
+  <si>
+    <t>Low_LAG</t>
+  </si>
+  <si>
+    <t>Volume_LAG</t>
+  </si>
+  <si>
+    <t>Close_LAG</t>
+  </si>
+  <si>
+    <t>Open_High_LAG</t>
+  </si>
+  <si>
+    <t>Open_Low_LAG</t>
+  </si>
+  <si>
+    <t>Open_Volume_LAG</t>
+  </si>
+  <si>
+    <t>High_Low_LAG</t>
+  </si>
+  <si>
     <t>High_Volume_LAG</t>
   </si>
   <si>
     <t>Low_Volume_LAG</t>
+  </si>
+  <si>
+    <t>Open_High_Low_LAG</t>
   </si>
   <si>
     <t>Open_High_Volume_LAG</t>
@@ -480,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:I146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,19 +559,19 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>661877.875</v>
+        <v>879904.75</v>
       </c>
       <c r="F2">
-        <v>793.6826782226562</v>
+        <v>904.4273071289062</v>
       </c>
       <c r="G2">
-        <v>0.5438782535535291</v>
+        <v>0.6212520295976385</v>
       </c>
       <c r="H2">
-        <v>807.2562132092434</v>
+        <v>932.398645281944</v>
       </c>
       <c r="I2">
-        <v>-33.16376446134274</v>
+        <v>-44.51151808108139</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -555,22 +585,22 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E3">
-        <v>1236998.5</v>
+        <v>1354713.125</v>
       </c>
       <c r="F3">
-        <v>1037.09130859375</v>
+        <v>1151.699584960938</v>
       </c>
       <c r="G3">
-        <v>0.8834588264851306</v>
+        <v>0.9995399199488648</v>
       </c>
       <c r="H3">
-        <v>1108.661458739094</v>
+        <v>1160.889120867877</v>
       </c>
       <c r="I3">
-        <v>-62.34466214780737</v>
+        <v>-68.87412729021267</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -584,22 +614,22 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="E4">
-        <v>7490.94287109375</v>
+        <v>34687.859375</v>
       </c>
       <c r="F4">
-        <v>73.67472839355469</v>
+        <v>165.8987274169922</v>
       </c>
       <c r="G4">
-        <v>0.0527246576862387</v>
+        <v>0.1159119875079234</v>
       </c>
       <c r="H4">
-        <v>85.38575124311859</v>
+        <v>180.7779937542386</v>
       </c>
       <c r="I4">
-        <v>-0.5381148077060679</v>
+        <v>-6.087107191829193</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -613,22 +643,22 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E5">
-        <v>2076.7119140625</v>
+        <v>1742.762329101562</v>
       </c>
       <c r="F5">
-        <v>36.11266708374024</v>
+        <v>33.7850341796875</v>
       </c>
       <c r="G5">
-        <v>0.0274776252051585</v>
+        <v>0.0256635375762734</v>
       </c>
       <c r="H5">
-        <v>43.17631703346122</v>
+        <v>40.59198018226814</v>
       </c>
       <c r="I5">
-        <v>-1.053753317143043</v>
+        <v>-0.7671252983791276</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -642,22 +672,22 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6">
-        <v>16241.1474609375</v>
+        <v>14896.5166015625</v>
       </c>
       <c r="F6">
-        <v>102.1026916503906</v>
+        <v>94.10942840576172</v>
       </c>
       <c r="G6">
-        <v>0.1031024952906926</v>
+        <v>0.0977565069814369</v>
       </c>
       <c r="H6">
-        <v>123.9207567222907</v>
+        <v>119.9176922356446</v>
       </c>
       <c r="I6">
-        <v>-0.7236409412738055</v>
+        <v>-0.5715841981591908</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -674,19 +704,19 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>761684.5</v>
+        <v>891885.125</v>
       </c>
       <c r="F7">
-        <v>853.5244140625</v>
+        <v>929.58544921875</v>
       </c>
       <c r="G7">
-        <v>0.5854680032248923</v>
+        <v>0.6403541358251723</v>
       </c>
       <c r="H7">
-        <v>866.1533863701144</v>
+        <v>941.020512801635</v>
       </c>
       <c r="I7">
-        <v>-38.61495866949949</v>
+        <v>-44.56769243135543</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -700,22 +730,22 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E8">
-        <v>765271.375</v>
+        <v>1354720.375</v>
       </c>
       <c r="F8">
-        <v>636.4122924804688</v>
+        <v>1151.703979492188</v>
       </c>
       <c r="G8">
-        <v>0.5035635785856307</v>
+        <v>0.99954513889292</v>
       </c>
       <c r="H8">
-        <v>871.8595535306481</v>
+        <v>1160.893718583087</v>
       </c>
       <c r="I8">
-        <v>-37.93166737192147</v>
+        <v>-68.87600651796362</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -729,22 +759,22 @@
         <v>3</v>
       </c>
       <c r="D9">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E9">
-        <v>7721.3291015625</v>
+        <v>7293.42626953125</v>
       </c>
       <c r="F9">
-        <v>73.77202606201172</v>
+        <v>71.39772796630859</v>
       </c>
       <c r="G9">
-        <v>0.052387721480435</v>
+        <v>0.0501076056708661</v>
       </c>
       <c r="H9">
-        <v>85.24151588278417</v>
+        <v>83.56663743393268</v>
       </c>
       <c r="I9">
-        <v>-0.5808418383326989</v>
+        <v>-0.4308562622341126</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -758,22 +788,22 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E10">
-        <v>1305.447998046875</v>
+        <v>1188.962036132812</v>
       </c>
       <c r="F10">
-        <v>28.98831939697266</v>
+        <v>27.42567253112793</v>
       </c>
       <c r="G10">
-        <v>0.0220460688754803</v>
+        <v>0.0208418022391899</v>
       </c>
       <c r="H10">
-        <v>35.71497235782716</v>
+        <v>34.05900739966488</v>
       </c>
       <c r="I10">
-        <v>-0.3150934984058994</v>
+        <v>-0.2091571903731188</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -790,19 +820,19 @@
         <v>31</v>
       </c>
       <c r="E11">
-        <v>13941.4697265625</v>
+        <v>14366.8125</v>
       </c>
       <c r="F11">
-        <v>92.41612243652344</v>
+        <v>96.39735412597656</v>
       </c>
       <c r="G11">
-        <v>0.0953353304079641</v>
+        <v>0.0966406230506025</v>
       </c>
       <c r="H11">
-        <v>116.2616022397618</v>
+        <v>117.9546034696487</v>
       </c>
       <c r="I11">
-        <v>-0.4659434036487683</v>
+        <v>-0.5166777058921563</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -819,19 +849,19 @@
         <v>100</v>
       </c>
       <c r="E12">
-        <v>731524.3125</v>
+        <v>846020.0625</v>
       </c>
       <c r="F12">
-        <v>836.0648803710938</v>
+        <v>903.6458129882812</v>
       </c>
       <c r="G12">
-        <v>0.5732284065197278</v>
+        <v>0.6216703560798514</v>
       </c>
       <c r="H12">
-        <v>848.9479922410861</v>
+        <v>915.4656639395604</v>
       </c>
       <c r="I12">
-        <v>-36.81199078471303</v>
+        <v>-42.48620661619482</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -845,22 +875,22 @@
         <v>2</v>
       </c>
       <c r="D13">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E13">
-        <v>638364.6875</v>
+        <v>1354706.875</v>
       </c>
       <c r="F13">
-        <v>543.8628540039062</v>
+        <v>1151.6982421875</v>
       </c>
       <c r="G13">
-        <v>0.4254989173149317</v>
+        <v>0.9995400268634806</v>
       </c>
       <c r="H13">
-        <v>796.4629987637497</v>
+        <v>1160.887934414587</v>
       </c>
       <c r="I13">
-        <v>-31.53166830049132</v>
+        <v>-68.8748881589747</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -874,22 +904,22 @@
         <v>3</v>
       </c>
       <c r="D14">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E14">
-        <v>7184.154296875</v>
+        <v>7108.88232421875</v>
       </c>
       <c r="F14">
-        <v>70.85166168212891</v>
+        <v>72.89147186279297</v>
       </c>
       <c r="G14">
-        <v>0.0499741813706215</v>
+        <v>0.0517608314277006</v>
       </c>
       <c r="H14">
-        <v>83.13345316410008</v>
+        <v>83.77216913186308</v>
       </c>
       <c r="I14">
-        <v>-0.4281414569272005</v>
+        <v>-0.4812478358330301</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -903,22 +933,22 @@
         <v>4</v>
       </c>
       <c r="D15">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="E15">
-        <v>1259.363647460938</v>
+        <v>3542.773193359375</v>
       </c>
       <c r="F15">
-        <v>26.47322845458984</v>
+        <v>48.01456832885742</v>
       </c>
       <c r="G15">
-        <v>0.0200529920478462</v>
+        <v>0.0359870261600229</v>
       </c>
       <c r="H15">
-        <v>35.1472383473137</v>
+        <v>54.03562635773154</v>
       </c>
       <c r="I15">
-        <v>-0.2787510921483089</v>
+        <v>-2.423544441212453</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -935,19 +965,19 @@
         <v>32</v>
       </c>
       <c r="E16">
-        <v>14231.505859375</v>
+        <v>15623.09375</v>
       </c>
       <c r="F16">
-        <v>97.29791259765624</v>
+        <v>101.119499206543</v>
       </c>
       <c r="G16">
-        <v>0.0976166528126465</v>
+        <v>0.1014613892669142</v>
       </c>
       <c r="H16">
-        <v>117.8998190526968</v>
+        <v>123.0580243430961</v>
       </c>
       <c r="I16">
-        <v>-0.5217516864126264</v>
+        <v>-0.6995815453886864</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -964,19 +994,19 @@
         <v>100</v>
       </c>
       <c r="E17">
-        <v>880286.375</v>
+        <v>802540.6875</v>
       </c>
       <c r="F17">
-        <v>921.3851928710938</v>
+        <v>877.0704345703125</v>
       </c>
       <c r="G17">
-        <v>0.6337035923786334</v>
+        <v>0.6019995672480234</v>
       </c>
       <c r="H17">
-        <v>933.01547237923</v>
+        <v>889.3528406419717</v>
       </c>
       <c r="I17">
-        <v>-44.49060394540331</v>
+        <v>-40.57142417734647</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -990,22 +1020,22 @@
         <v>2</v>
       </c>
       <c r="D18">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E18">
-        <v>1325631.75</v>
+        <v>1354721.625</v>
       </c>
       <c r="F18">
-        <v>1123.51806640625</v>
+        <v>1151.704223632812</v>
       </c>
       <c r="G18">
-        <v>0.9709288961251908</v>
+        <v>0.9995450626693938</v>
       </c>
       <c r="H18">
-        <v>1148.219791480766</v>
+        <v>1160.893827295144</v>
       </c>
       <c r="I18">
-        <v>-67.26486425749762</v>
+        <v>-68.87600697760553</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1019,22 +1049,22 @@
         <v>3</v>
       </c>
       <c r="D19">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="E19">
-        <v>6477.69873046875</v>
+        <v>6995.3837890625</v>
       </c>
       <c r="F19">
-        <v>68.29975128173828</v>
+        <v>71.25823974609375</v>
       </c>
       <c r="G19">
-        <v>0.0484087693120477</v>
+        <v>0.0507686492174014</v>
       </c>
       <c r="H19">
-        <v>79.62081441392709</v>
+        <v>82.80659136506749</v>
       </c>
       <c r="I19">
-        <v>-0.302867872429879</v>
+        <v>-0.4485719122258743</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1048,22 +1078,22 @@
         <v>4</v>
       </c>
       <c r="D20">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E20">
-        <v>1371.245239257812</v>
+        <v>1609.181030273438</v>
       </c>
       <c r="F20">
-        <v>29.43545341491699</v>
+        <v>32.52344512939453</v>
       </c>
       <c r="G20">
-        <v>0.0224200159616497</v>
+        <v>0.024813402059425</v>
       </c>
       <c r="H20">
-        <v>36.45843681944168</v>
+        <v>39.03641504072145</v>
       </c>
       <c r="I20">
-        <v>-0.3764266062663681</v>
+        <v>-0.6497193114086398</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1077,22 +1107,22 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E21">
-        <v>15304.61328125</v>
+        <v>15651.123046875</v>
       </c>
       <c r="F21">
-        <v>97.33477020263672</v>
+        <v>100.5129089355469</v>
       </c>
       <c r="G21">
-        <v>0.0980937790792451</v>
+        <v>0.1013437592398791</v>
       </c>
       <c r="H21">
-        <v>121.0162657731286</v>
+        <v>123.0700069409357</v>
       </c>
       <c r="I21">
-        <v>-0.6219790989193256</v>
+        <v>-0.6869898136713647</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1109,19 +1139,19 @@
         <v>100</v>
       </c>
       <c r="E22">
-        <v>970148</v>
+        <v>751064.4375</v>
       </c>
       <c r="F22">
-        <v>970.6143188476562</v>
+        <v>848.7429809570312</v>
       </c>
       <c r="G22">
-        <v>0.6692091112791466</v>
+        <v>0.5826893442391033</v>
       </c>
       <c r="H22">
-        <v>981.5588795867156</v>
+        <v>861.3679092895155</v>
       </c>
       <c r="I22">
-        <v>-48.39052164577599</v>
+        <v>-37.7980997377052</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1135,22 +1165,22 @@
         <v>2</v>
       </c>
       <c r="D23">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="E23">
-        <v>1115469.125</v>
+        <v>1354672.375</v>
       </c>
       <c r="F23">
-        <v>922.455810546875</v>
+        <v>1151.684204101562</v>
       </c>
       <c r="G23">
-        <v>0.7689650855969234</v>
+        <v>0.9995283368112148</v>
       </c>
       <c r="H23">
-        <v>1052.375656750388</v>
+        <v>1160.873973557053</v>
       </c>
       <c r="I23">
-        <v>-55.8003053661751</v>
+        <v>-68.87342285518834</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1164,22 +1194,22 @@
         <v>3</v>
       </c>
       <c r="D24">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E24">
-        <v>8126.57958984375</v>
+        <v>37551.6953125</v>
       </c>
       <c r="F24">
-        <v>75.51586151123047</v>
+        <v>165.0695343017578</v>
       </c>
       <c r="G24">
-        <v>0.0531637506976847</v>
+        <v>0.1165466192314074</v>
       </c>
       <c r="H24">
-        <v>87.52730390149397</v>
+        <v>191.1316209782528</v>
       </c>
       <c r="I24">
-        <v>-0.6808973776496413</v>
+        <v>-6.757948694988354</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1193,22 +1223,22 @@
         <v>4</v>
       </c>
       <c r="D25">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E25">
-        <v>1004.91015625</v>
+        <v>941.2077026367188</v>
       </c>
       <c r="F25">
-        <v>23.89373016357422</v>
+        <v>24.16853332519531</v>
       </c>
       <c r="G25">
-        <v>0.0182425807123955</v>
+        <v>0.0184110725712925</v>
       </c>
       <c r="H25">
-        <v>31.48846296765458</v>
+        <v>30.41795475841861</v>
       </c>
       <c r="I25">
-        <v>-0.0542790540871472</v>
+        <v>0.0393050696659082</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1222,22 +1252,22 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E26">
-        <v>13457.1474609375</v>
+        <v>16579.96484375</v>
       </c>
       <c r="F26">
-        <v>91.21670532226562</v>
+        <v>104.7834014892578</v>
       </c>
       <c r="G26">
-        <v>0.09442543004840979</v>
+        <v>0.1078446987869466</v>
       </c>
       <c r="H26">
-        <v>114.236989739305</v>
+        <v>127.182589720354</v>
       </c>
       <c r="I26">
-        <v>-0.4196609573814372</v>
+        <v>-0.7334576953408835</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1251,22 +1281,22 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E27">
-        <v>29899.4765625</v>
+        <v>765530.6875</v>
       </c>
       <c r="F27">
-        <v>136.0596160888672</v>
+        <v>858.3088989257812</v>
       </c>
       <c r="G27">
-        <v>0.0983965106082343</v>
+        <v>0.5899213952499142</v>
       </c>
       <c r="H27">
-        <v>170.1228273376569</v>
+        <v>870.7308783457134</v>
       </c>
       <c r="I27">
-        <v>-0.4441024736935446</v>
+        <v>-38.1721981257078</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1280,22 +1310,22 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="E28">
-        <v>596061.875</v>
+        <v>1355681.375</v>
       </c>
       <c r="F28">
-        <v>512.645263671875</v>
+        <v>1152.120361328125</v>
       </c>
       <c r="G28">
-        <v>0.3993715007978713</v>
+        <v>0.9999134419004096</v>
       </c>
       <c r="H28">
-        <v>769.6297790162683</v>
+        <v>1161.306957753543</v>
       </c>
       <c r="I28">
-        <v>-29.41734534728757</v>
+        <v>-68.92723302939646</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1309,22 +1339,22 @@
         <v>3</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E29">
-        <v>6308.32421875</v>
+        <v>9029.75390625</v>
       </c>
       <c r="F29">
-        <v>66.95841217041016</v>
+        <v>78.62372589111328</v>
       </c>
       <c r="G29">
-        <v>0.0476145819258708</v>
+        <v>0.0548294340893723</v>
       </c>
       <c r="H29">
-        <v>78.51384246769589</v>
+        <v>91.3973007319662</v>
       </c>
       <c r="I29">
-        <v>-0.2590121647868381</v>
+        <v>-0.8340109291942404</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1338,22 +1368,22 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="E30">
-        <v>4169.966796875</v>
+        <v>1049.8203125</v>
       </c>
       <c r="F30">
-        <v>51.42121505737305</v>
+        <v>24.77370262145996</v>
       </c>
       <c r="G30">
-        <v>0.0391766768727065</v>
+        <v>0.0188723110087828</v>
       </c>
       <c r="H30">
-        <v>57.98300847755358</v>
+        <v>32.33391559393923</v>
       </c>
       <c r="I30">
-        <v>-3.278527522814289</v>
+        <v>-0.0810778953782884</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1367,22 +1397,22 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E31">
-        <v>14472.13671875</v>
+        <v>13494.6435546875</v>
       </c>
       <c r="F31">
-        <v>94.04991149902344</v>
+        <v>89.65480804443359</v>
       </c>
       <c r="G31">
-        <v>0.0964738255335308</v>
+        <v>0.09252483877414799</v>
       </c>
       <c r="H31">
-        <v>118.5026086265642</v>
+        <v>114.7271323721201</v>
       </c>
       <c r="I31">
-        <v>-0.5665516076111484</v>
+        <v>-0.4233030054911299</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1396,22 +1426,22 @@
         <v>1</v>
       </c>
       <c r="D32">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E32">
-        <v>31025.66796875</v>
+        <v>800952.5</v>
       </c>
       <c r="F32">
-        <v>140.2247619628906</v>
+        <v>877.7149658203125</v>
       </c>
       <c r="G32">
-        <v>0.1010582758553009</v>
+        <v>0.6031667894882362</v>
       </c>
       <c r="H32">
-        <v>173.9331961829037</v>
+        <v>889.9124672555571</v>
       </c>
       <c r="I32">
-        <v>-0.5450412731321193</v>
+        <v>-40.22292751540451</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1425,22 +1455,22 @@
         <v>2</v>
       </c>
       <c r="D33">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="E33">
-        <v>180226.53125</v>
+        <v>1355731.625</v>
       </c>
       <c r="F33">
-        <v>256.3724365234375</v>
+        <v>1152.142578125</v>
       </c>
       <c r="G33">
-        <v>0.2104406487912481</v>
+        <v>0.9999334826889394</v>
       </c>
       <c r="H33">
-        <v>423.0926192331796</v>
+        <v>1161.329055689784</v>
       </c>
       <c r="I33">
-        <v>-8.216832835999416</v>
+        <v>-68.92977956140591</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1454,22 +1484,22 @@
         <v>3</v>
       </c>
       <c r="D34">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="E34">
-        <v>6866.76123046875</v>
+        <v>7796.28662109375</v>
       </c>
       <c r="F34">
-        <v>70.64498138427734</v>
+        <v>73.75961303710938</v>
       </c>
       <c r="G34">
-        <v>0.0505066958983364</v>
+        <v>0.0520354835419035</v>
       </c>
       <c r="H34">
-        <v>81.92725464419217</v>
+        <v>84.73939837031713</v>
       </c>
       <c r="I34">
-        <v>-0.3957016916921284</v>
+        <v>-0.5796436497747967</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1483,22 +1513,22 @@
         <v>4</v>
       </c>
       <c r="D35">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="E35">
-        <v>2469.447265625</v>
+        <v>1026.681640625</v>
       </c>
       <c r="F35">
-        <v>39.10672378540039</v>
+        <v>24.83317184448243</v>
       </c>
       <c r="G35">
-        <v>0.0298098509358767</v>
+        <v>0.0189724633003955</v>
       </c>
       <c r="H35">
-        <v>46.58014661080659</v>
+        <v>31.91653044730009</v>
       </c>
       <c r="I35">
-        <v>-1.626828681053647</v>
+        <v>-0.053306256847883</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1512,22 +1542,22 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="E36">
-        <v>15423.7001953125</v>
+        <v>14334.611328125</v>
       </c>
       <c r="F36">
-        <v>100.1826553344727</v>
+        <v>93.57286834716795</v>
       </c>
       <c r="G36">
-        <v>0.1002250843232491</v>
+        <v>0.0969513831555239</v>
       </c>
       <c r="H36">
-        <v>121.2403222384077</v>
+        <v>117.935538571818</v>
       </c>
       <c r="I36">
-        <v>-0.6720570854130483</v>
+        <v>-0.502513067914869</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1541,22 +1571,22 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E37">
-        <v>35574.3984375</v>
+        <v>774718.25</v>
       </c>
       <c r="F37">
-        <v>147.5206756591797</v>
+        <v>862.2145385742188</v>
       </c>
       <c r="G37">
-        <v>0.1074001450398937</v>
+        <v>0.5919536363196007</v>
       </c>
       <c r="H37">
-        <v>184.6878149722748</v>
+        <v>874.6599371759414</v>
       </c>
       <c r="I37">
-        <v>-0.7079211428198238</v>
+        <v>-38.95426691328975</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1570,22 +1600,22 @@
         <v>2</v>
       </c>
       <c r="D38">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E38">
-        <v>880521.5</v>
+        <v>1354698</v>
       </c>
       <c r="F38">
-        <v>722.6551513671875</v>
+        <v>1151.69384765625</v>
       </c>
       <c r="G38">
-        <v>0.5793264084884111</v>
+        <v>0.999535774971066</v>
       </c>
       <c r="H38">
-        <v>934.942431585962</v>
+        <v>1160.883696110715</v>
       </c>
       <c r="I38">
-        <v>-43.69455799590597</v>
+        <v>-68.87520712482655</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1599,22 +1629,22 @@
         <v>3</v>
       </c>
       <c r="D39">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="E39">
-        <v>7478.72021484375</v>
+        <v>7340.19189453125</v>
       </c>
       <c r="F39">
-        <v>73.13412475585938</v>
+        <v>72.65438842773438</v>
       </c>
       <c r="G39">
-        <v>0.051954329954453</v>
+        <v>0.0516303153834829</v>
       </c>
       <c r="H39">
-        <v>85.178422994743</v>
+        <v>84.15328875436909</v>
       </c>
       <c r="I39">
-        <v>-0.5308670072534131</v>
+        <v>-0.4640618682305996</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1628,22 +1658,22 @@
         <v>4</v>
       </c>
       <c r="D40">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="E40">
-        <v>2813.86328125</v>
+        <v>1142.924560546875</v>
       </c>
       <c r="F40">
-        <v>43.11941528320312</v>
+        <v>26.19949913024902</v>
       </c>
       <c r="G40">
-        <v>0.0326953460828901</v>
+        <v>0.0200140296361504</v>
       </c>
       <c r="H40">
-        <v>49.68204590194443</v>
+        <v>33.22661822579542</v>
       </c>
       <c r="I40">
-        <v>-1.848047037155897</v>
+        <v>-0.1636484120255197</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1657,22 +1687,22 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E41">
-        <v>14103.86328125</v>
+        <v>32501.61328125</v>
       </c>
       <c r="F41">
-        <v>96.93373107910156</v>
+        <v>151.9137115478516</v>
       </c>
       <c r="G41">
-        <v>0.0973915288943928</v>
+        <v>0.1455843098037864</v>
       </c>
       <c r="H41">
-        <v>117.3715542445723</v>
+        <v>177.5384194219357</v>
       </c>
       <c r="I41">
-        <v>-0.5003061633913494</v>
+        <v>-2.492818605376037</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1686,22 +1716,22 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>30546.328125</v>
+        <v>2072357.875</v>
       </c>
       <c r="F42">
-        <v>139.2768402099609</v>
+        <v>1429.268188476562</v>
       </c>
       <c r="G42">
-        <v>0.1002237113790105</v>
+        <v>0.991684649961418</v>
       </c>
       <c r="H42">
-        <v>172.9891280072958</v>
+        <v>1436.609200513602</v>
       </c>
       <c r="I42">
-        <v>-0.5053670896280669</v>
+        <v>-104.3187990232564</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1715,22 +1745,22 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E43">
-        <v>1177924.375</v>
+        <v>1354675.5</v>
       </c>
       <c r="F43">
-        <v>981.7603149414062</v>
+        <v>1151.6845703125</v>
       </c>
       <c r="G43">
-        <v>0.8276931289097346</v>
+        <v>0.9995277524818608</v>
       </c>
       <c r="H43">
-        <v>1081.615986845864</v>
+        <v>1160.874394056863</v>
       </c>
       <c r="I43">
-        <v>-59.14110371062102</v>
+        <v>-68.87323551868889</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1744,22 +1774,22 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E44">
-        <v>6654.66748046875</v>
+        <v>9163.4892578125</v>
       </c>
       <c r="F44">
-        <v>69.00933837890625</v>
+        <v>79.4654541015625</v>
       </c>
       <c r="G44">
-        <v>0.0496597683448921</v>
+        <v>0.0557196497778966</v>
       </c>
       <c r="H44">
-        <v>80.93550260933382</v>
+        <v>92.63624209193364</v>
       </c>
       <c r="I44">
-        <v>-0.3690664470521224</v>
+        <v>-0.8170862252537204</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1773,22 +1803,22 @@
         <v>4</v>
       </c>
       <c r="D45">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E45">
-        <v>2625.994140625</v>
+        <v>1317.301879882812</v>
       </c>
       <c r="F45">
-        <v>41.51750183105469</v>
+        <v>28.53409767150879</v>
       </c>
       <c r="G45">
-        <v>0.0317794236010925</v>
+        <v>0.0216120845919357</v>
       </c>
       <c r="H45">
-        <v>48.50849617537906</v>
+        <v>35.6714849266982</v>
       </c>
       <c r="I45">
-        <v>-1.833621595992717</v>
+        <v>-0.3576506614018173</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1802,22 +1832,22 @@
         <v>5</v>
       </c>
       <c r="D46">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="E46">
-        <v>16294.9091796875</v>
+        <v>14172.953125</v>
       </c>
       <c r="F46">
-        <v>103.2745819091797</v>
+        <v>94.6109619140625</v>
       </c>
       <c r="G46">
-        <v>0.1044808121654253</v>
+        <v>0.09633757170392521</v>
       </c>
       <c r="H46">
-        <v>125.240954000671</v>
+        <v>117.3962273365781</v>
       </c>
       <c r="I46">
-        <v>-0.7462202045204885</v>
+        <v>-0.5061913063776516</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1831,22 +1861,22 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E47">
-        <v>30533.15234375</v>
+        <v>725440.25</v>
       </c>
       <c r="F47">
-        <v>137.9164276123047</v>
+        <v>833.8057861328125</v>
       </c>
       <c r="G47">
-        <v>0.0999748834489014</v>
+        <v>0.5723073469194565</v>
       </c>
       <c r="H47">
-        <v>172.7520709517494</v>
+        <v>846.6449828789059</v>
       </c>
       <c r="I47">
-        <v>-0.5014255992549925</v>
+        <v>-36.23391684337639</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1860,22 +1890,22 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E48">
-        <v>33377.9765625</v>
+        <v>1354646.375</v>
       </c>
       <c r="F48">
-        <v>154.4375152587891</v>
+        <v>1151.670288085938</v>
       </c>
       <c r="G48">
-        <v>0.1343955346018469</v>
+        <v>0.9995141312305028</v>
       </c>
       <c r="H48">
-        <v>176.14952301232</v>
+        <v>1160.86032095732</v>
       </c>
       <c r="I48">
-        <v>-0.5517650879099463</v>
+        <v>-68.87158557633425</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1889,22 +1919,22 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="E49">
-        <v>7485.79931640625</v>
+        <v>6910.53466796875</v>
       </c>
       <c r="F49">
-        <v>73.81493377685547</v>
+        <v>70.92422485351562</v>
       </c>
       <c r="G49">
-        <v>0.0526098775644787</v>
+        <v>0.0506728222873465</v>
       </c>
       <c r="H49">
-        <v>85.57812668932822</v>
+        <v>82.30058189412752</v>
       </c>
       <c r="I49">
-        <v>-0.5281432571136851</v>
+        <v>-0.4373836611452418</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1918,22 +1948,22 @@
         <v>4</v>
       </c>
       <c r="D50">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="E50">
-        <v>2596.2138671875</v>
+        <v>2047.919921875</v>
       </c>
       <c r="F50">
-        <v>41.06904220581055</v>
+        <v>36.81857681274414</v>
       </c>
       <c r="G50">
-        <v>0.0312465882632216</v>
+        <v>0.0280752253966853</v>
       </c>
       <c r="H50">
-        <v>48.13966007533654</v>
+        <v>43.66115281163297</v>
       </c>
       <c r="I50">
-        <v>-1.591559438329161</v>
+        <v>-1.169189963749806</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1947,22 +1977,22 @@
         <v>5</v>
       </c>
       <c r="D51">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E51">
-        <v>13497.6064453125</v>
+        <v>13416.4658203125</v>
       </c>
       <c r="F51">
-        <v>91.15333557128906</v>
+        <v>90.57376861572266</v>
       </c>
       <c r="G51">
-        <v>0.0942126873706369</v>
+        <v>0.09326624684702629</v>
       </c>
       <c r="H51">
-        <v>114.5527431363722</v>
+        <v>114.8849303336312</v>
       </c>
       <c r="I51">
-        <v>-0.4261289585661035</v>
+        <v>-0.4117094310895322</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -1976,22 +2006,22 @@
         <v>1</v>
       </c>
       <c r="D52">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E52">
-        <v>33764.296875</v>
+        <v>698821.375</v>
       </c>
       <c r="F52">
-        <v>144.8370666503906</v>
+        <v>818.7391967773438</v>
       </c>
       <c r="G52">
-        <v>0.1044745211135588</v>
+        <v>0.5621080833170501</v>
       </c>
       <c r="H52">
-        <v>181.6509712025533</v>
+        <v>831.7752130503166</v>
       </c>
       <c r="I52">
-        <v>-0.6754342770754911</v>
+        <v>-34.87275251837902</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2005,22 +2035,22 @@
         <v>2</v>
       </c>
       <c r="D53">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E53">
-        <v>31200.955078125</v>
+        <v>1354634</v>
       </c>
       <c r="F53">
-        <v>152.1542053222656</v>
+        <v>1151.665405273438</v>
       </c>
       <c r="G53">
-        <v>0.1321260952890954</v>
+        <v>0.9995097622894188</v>
       </c>
       <c r="H53">
-        <v>172.9068621383081</v>
+        <v>1160.855220779175</v>
       </c>
       <c r="I53">
-        <v>-0.5444734609725634</v>
+        <v>-68.87026840045246</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2034,22 +2064,22 @@
         <v>3</v>
       </c>
       <c r="D54">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="E54">
-        <v>7931.09619140625</v>
+        <v>8549.4189453125</v>
       </c>
       <c r="F54">
-        <v>74.68878936767578</v>
+        <v>77.24308776855469</v>
       </c>
       <c r="G54">
-        <v>0.0535027048332804</v>
+        <v>0.0541099533222366</v>
       </c>
       <c r="H54">
-        <v>87.86303745823162</v>
+        <v>89.53637736485173</v>
       </c>
       <c r="I54">
-        <v>-0.6372601379486782</v>
+        <v>-0.7571317205293154</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2063,22 +2093,22 @@
         <v>4</v>
       </c>
       <c r="D55">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="E55">
-        <v>3312.825439453125</v>
+        <v>989.9315185546876</v>
       </c>
       <c r="F55">
-        <v>45.48360443115234</v>
+        <v>24.32243919372558</v>
       </c>
       <c r="G55">
-        <v>0.0347809490810919</v>
+        <v>0.0186260014438578</v>
       </c>
       <c r="H55">
-        <v>52.65316844076539</v>
+        <v>31.32866914910254</v>
       </c>
       <c r="I55">
-        <v>-2.315126686401973</v>
+        <v>0.0021408667576937</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2092,22 +2122,22 @@
         <v>5</v>
       </c>
       <c r="D56">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E56">
-        <v>14723.5654296875</v>
+        <v>15517.9541015625</v>
       </c>
       <c r="F56">
-        <v>94.11705780029295</v>
+        <v>97.87831115722656</v>
       </c>
       <c r="G56">
-        <v>0.0978764189964158</v>
+        <v>0.1016378958027832</v>
       </c>
       <c r="H56">
-        <v>118.5239843544132</v>
+        <v>122.4429295938377</v>
       </c>
       <c r="I56">
-        <v>-0.5358056030680624</v>
+        <v>-0.6388872536879725</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2121,22 +2151,22 @@
         <v>1</v>
       </c>
       <c r="D57">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E57">
-        <v>30770.015625</v>
+        <v>702073</v>
       </c>
       <c r="F57">
-        <v>138.7866668701172</v>
+        <v>819.9559326171875</v>
       </c>
       <c r="G57">
-        <v>0.100917869711204</v>
+        <v>0.5626400197406661</v>
       </c>
       <c r="H57">
-        <v>172.3176509127425</v>
+        <v>833.0012296742057</v>
       </c>
       <c r="I57">
-        <v>-0.4792285321472908</v>
+        <v>-35.09291224344886</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2150,22 +2180,22 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>49</v>
+        <v>2</v>
       </c>
       <c r="E58">
-        <v>32506.916015625</v>
+        <v>1355784.125</v>
       </c>
       <c r="F58">
-        <v>154.8905792236328</v>
+        <v>1152.16650390625</v>
       </c>
       <c r="G58">
-        <v>0.1370404109278817</v>
+        <v>0.9999555533807022</v>
       </c>
       <c r="H58">
-        <v>177.1456282033158</v>
+        <v>1161.35286933805</v>
       </c>
       <c r="I58">
-        <v>-0.617469612962476</v>
+        <v>-68.93388434695808</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2179,22 +2209,22 @@
         <v>3</v>
       </c>
       <c r="D59">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="E59">
-        <v>6862.1796875</v>
+        <v>1530032.375</v>
       </c>
       <c r="F59">
-        <v>70.90488433837891</v>
+        <v>1234.566162109375</v>
       </c>
       <c r="G59">
-        <v>0.050844460701936</v>
+        <v>0.8767295786745116</v>
       </c>
       <c r="H59">
-        <v>82.07641823989762</v>
+        <v>1236.590775597087</v>
       </c>
       <c r="I59">
-        <v>-0.4348088850187845</v>
+        <v>-315.6302306474797</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2208,22 +2238,22 @@
         <v>4</v>
       </c>
       <c r="D60">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="E60">
-        <v>2051.1845703125</v>
+        <v>1079.973754882812</v>
       </c>
       <c r="F60">
-        <v>36.03989410400391</v>
+        <v>25.31052398681641</v>
       </c>
       <c r="G60">
-        <v>0.0274659109096333</v>
+        <v>0.0193514497065441</v>
       </c>
       <c r="H60">
-        <v>43.10448907276518</v>
+        <v>32.63877490783667</v>
       </c>
       <c r="I60">
-        <v>-1.05178028384654</v>
+        <v>-0.1057441808957116</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2237,22 +2267,22 @@
         <v>5</v>
       </c>
       <c r="D61">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E61">
-        <v>14355.1875</v>
+        <v>12782.6953125</v>
       </c>
       <c r="F61">
-        <v>97.67239379882812</v>
+        <v>87.47930145263672</v>
       </c>
       <c r="G61">
-        <v>0.09829062001134981</v>
+        <v>0.0908470442431524</v>
       </c>
       <c r="H61">
-        <v>117.5793120026844</v>
+        <v>111.7272798224957</v>
       </c>
       <c r="I61">
-        <v>-0.5387471339996034</v>
+        <v>-0.3359733328539752</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2269,19 +2299,19 @@
         <v>100</v>
       </c>
       <c r="E62">
-        <v>39315.859375</v>
+        <v>695846.4375</v>
       </c>
       <c r="F62">
-        <v>163.8340911865234</v>
+        <v>815.323486328125</v>
       </c>
       <c r="G62">
-        <v>0.1125409740094406</v>
+        <v>0.5589706486881244</v>
       </c>
       <c r="H62">
-        <v>193.8858196910252</v>
+        <v>828.5044608484478</v>
       </c>
       <c r="I62">
-        <v>-1.062862312998372</v>
+        <v>-35.14988870430774</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2295,22 +2325,22 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E63">
-        <v>31907.8984375</v>
+        <v>1354676.875</v>
       </c>
       <c r="F63">
-        <v>154.0214996337891</v>
+        <v>1151.684936523438</v>
       </c>
       <c r="G63">
-        <v>0.1340474458948868</v>
+        <v>0.9995281378017778</v>
       </c>
       <c r="H63">
-        <v>175.3918801869376</v>
+        <v>1160.874817909307</v>
       </c>
       <c r="I63">
-        <v>-0.6138363688219269</v>
+        <v>-68.87344013024966</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2324,22 +2354,22 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="E64">
-        <v>7040.8203125</v>
+        <v>7533.779296875</v>
       </c>
       <c r="F64">
-        <v>70.69329071044922</v>
+        <v>73.58852386474609</v>
       </c>
       <c r="G64">
-        <v>0.0502787954547477</v>
+        <v>0.0521707725047967</v>
       </c>
       <c r="H64">
-        <v>82.43376232042954</v>
+        <v>85.45894714269777</v>
       </c>
       <c r="I64">
-        <v>-0.4183138516492924</v>
+        <v>-0.5486210968199995</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2353,22 +2383,22 @@
         <v>4</v>
       </c>
       <c r="D65">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="E65">
-        <v>2778.355712890625</v>
+        <v>1610.034790039062</v>
       </c>
       <c r="F65">
-        <v>42.75711441040039</v>
+        <v>32.58957672119141</v>
       </c>
       <c r="G65">
-        <v>0.0326939389882164</v>
+        <v>0.0248523511040247</v>
       </c>
       <c r="H65">
-        <v>50.21835691372651</v>
+        <v>39.08455177569024</v>
       </c>
       <c r="I65">
-        <v>-1.839720278825666</v>
+        <v>-0.6372844397937226</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2382,22 +2412,22 @@
         <v>5</v>
       </c>
       <c r="D66">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="E66">
-        <v>13159.650390625</v>
+        <v>13305.4775390625</v>
       </c>
       <c r="F66">
-        <v>92.12525939941406</v>
+        <v>92.36708068847656</v>
       </c>
       <c r="G66">
-        <v>0.0936354794714705</v>
+        <v>0.0932060932220648</v>
       </c>
       <c r="H66">
-        <v>113.0751541994594</v>
+        <v>114.1843688623736</v>
       </c>
       <c r="I66">
-        <v>-0.379874990704391</v>
+        <v>-0.4192770466050192</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2411,22 +2441,22 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E67">
-        <v>28405.962890625</v>
+        <v>769624.25</v>
       </c>
       <c r="F67">
-        <v>132.7856903076172</v>
+        <v>859.9478149414062</v>
       </c>
       <c r="G67">
-        <v>0.09639693637968649</v>
+        <v>0.5906867174922223</v>
       </c>
       <c r="H67">
-        <v>166.8440795389965</v>
+        <v>872.3842305995288</v>
       </c>
       <c r="I67">
-        <v>-0.3727658369297257</v>
+        <v>-38.4994649948145</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2440,22 +2470,22 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="E68">
-        <v>500318.1875</v>
+        <v>1355505.375</v>
       </c>
       <c r="F68">
-        <v>449.6446838378906</v>
+        <v>1152.046630859375</v>
       </c>
       <c r="G68">
-        <v>0.3508740816536391</v>
+        <v>0.9998504719314424</v>
       </c>
       <c r="H68">
-        <v>705.3247703477749</v>
+        <v>1161.23447571286</v>
       </c>
       <c r="I68">
-        <v>-24.610039755315</v>
+        <v>-68.92048622099513</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2469,22 +2499,22 @@
         <v>3</v>
       </c>
       <c r="D69">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="E69">
-        <v>8280.2841796875</v>
+        <v>8597.6416015625</v>
       </c>
       <c r="F69">
-        <v>77.24616241455078</v>
+        <v>76.58948516845703</v>
       </c>
       <c r="G69">
-        <v>0.0551406639491308</v>
+        <v>0.0533333032808659</v>
       </c>
       <c r="H69">
-        <v>89.71629042511978</v>
+        <v>90.13989510363588</v>
       </c>
       <c r="I69">
-        <v>-0.694814203409662</v>
+        <v>-0.7194677919015917</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2498,22 +2528,22 @@
         <v>4</v>
       </c>
       <c r="D70">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E70">
-        <v>2467.89208984375</v>
+        <v>1267.162719726562</v>
       </c>
       <c r="F70">
-        <v>39.13005828857422</v>
+        <v>28.16470718383789</v>
       </c>
       <c r="G70">
-        <v>0.0296571478489698</v>
+        <v>0.0213554579048404</v>
       </c>
       <c r="H70">
-        <v>45.91751168489618</v>
+        <v>35.19258106144873</v>
       </c>
       <c r="I70">
-        <v>-1.44978946244203</v>
+        <v>-0.2884605302701624</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2527,22 +2557,22 @@
         <v>5</v>
       </c>
       <c r="D71">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E71">
-        <v>18558.041015625</v>
+        <v>14499.6923828125</v>
       </c>
       <c r="F71">
-        <v>105.6138381958008</v>
+        <v>94.15183258056641</v>
       </c>
       <c r="G71">
-        <v>0.1106886808399852</v>
+        <v>0.0968777958595181</v>
       </c>
       <c r="H71">
-        <v>130.2809390999705</v>
+        <v>118.5885098958782</v>
       </c>
       <c r="I71">
-        <v>-0.966556359170758</v>
+        <v>-0.5264303844547812</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2556,22 +2586,22 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E72">
-        <v>27097.1328125</v>
+        <v>702239.0625</v>
       </c>
       <c r="F72">
-        <v>130.8091888427734</v>
+        <v>820.5365600585938</v>
       </c>
       <c r="G72">
-        <v>0.09460592619446551</v>
+        <v>0.5633255784154348</v>
       </c>
       <c r="H72">
-        <v>162.7645126150725</v>
+        <v>833.5458617104952</v>
       </c>
       <c r="I72">
-        <v>-0.3339952113646784</v>
+        <v>-34.95236849324503</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2585,22 +2615,22 @@
         <v>2</v>
       </c>
       <c r="D73">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E73">
-        <v>32947.4765625</v>
+        <v>1354682</v>
       </c>
       <c r="F73">
-        <v>154.0690460205078</v>
+        <v>1151.685546875</v>
       </c>
       <c r="G73">
-        <v>0.1338546667774735</v>
+        <v>0.9995272453629872</v>
       </c>
       <c r="H73">
-        <v>177.3437330722141</v>
+        <v>1160.875481928559</v>
       </c>
       <c r="I73">
-        <v>-0.6986957849908715</v>
+        <v>-68.87249077365705</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2614,22 +2644,22 @@
         <v>3</v>
       </c>
       <c r="D74">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="E74">
-        <v>6922.76708984375</v>
+        <v>837100.75</v>
       </c>
       <c r="F74">
-        <v>70.27524566650391</v>
+        <v>907.8629150390624</v>
       </c>
       <c r="G74">
-        <v>0.0503370759566028</v>
+        <v>0.6429850016951183</v>
       </c>
       <c r="H74">
-        <v>82.08479886884624</v>
+        <v>914.1991130401524</v>
       </c>
       <c r="I74">
-        <v>-0.392786498829756</v>
+        <v>-170.7727778295799</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2643,22 +2673,22 @@
         <v>4</v>
       </c>
       <c r="D75">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="E75">
-        <v>2313.165771484375</v>
+        <v>957.2661743164062</v>
       </c>
       <c r="F75">
-        <v>38.63784790039063</v>
+        <v>23.3688850402832</v>
       </c>
       <c r="G75">
-        <v>0.0294319180164613</v>
+        <v>0.0178422397162025</v>
       </c>
       <c r="H75">
-        <v>45.85278556962989</v>
+        <v>30.89282107404091</v>
       </c>
       <c r="I75">
-        <v>-1.289112833451182</v>
+        <v>0.0189587305999572</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2672,22 +2702,22 @@
         <v>5</v>
       </c>
       <c r="D76">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E76">
-        <v>13491.30859375</v>
+        <v>14871.421875</v>
       </c>
       <c r="F76">
-        <v>92.33962249755859</v>
+        <v>97.69393157958984</v>
       </c>
       <c r="G76">
-        <v>0.0945151028329009</v>
+        <v>0.0992508706676808</v>
       </c>
       <c r="H76">
-        <v>115.0279974857224</v>
+        <v>120.6219441085429</v>
       </c>
       <c r="I76">
-        <v>-0.4164603077821686</v>
+        <v>-0.5746166683039547</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2701,22 +2731,22 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E77">
-        <v>31804.7421875</v>
+        <v>28184.26171875</v>
       </c>
       <c r="F77">
-        <v>138.6851501464844</v>
+        <v>134.3177032470703</v>
       </c>
       <c r="G77">
-        <v>0.1010840935903495</v>
+        <v>0.0968933969933459</v>
       </c>
       <c r="H77">
-        <v>176.5365254457584</v>
+        <v>165.5986869428943</v>
       </c>
       <c r="I77">
-        <v>-0.5427907500292648</v>
+        <v>-0.3762210383474436</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2730,22 +2760,22 @@
         <v>2</v>
       </c>
       <c r="D78">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="E78">
-        <v>28307.271484375</v>
+        <v>1355265.5</v>
       </c>
       <c r="F78">
-        <v>146.0706939697266</v>
+        <v>1151.940185546875</v>
       </c>
       <c r="G78">
-        <v>0.1273055651822046</v>
+        <v>0.9997540733280804</v>
       </c>
       <c r="H78">
-        <v>166.2921287872058</v>
+        <v>1161.128144100968</v>
       </c>
       <c r="I78">
-        <v>-0.4023310015299941</v>
+        <v>-68.9054773888639</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2759,22 +2789,22 @@
         <v>3</v>
       </c>
       <c r="D79">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E79">
-        <v>6926.32666015625</v>
+        <v>6524.92919921875</v>
       </c>
       <c r="F79">
-        <v>69.87004089355469</v>
+        <v>65.43672180175781</v>
       </c>
       <c r="G79">
-        <v>0.0500109451035306</v>
+        <v>0.0475984033896574</v>
       </c>
       <c r="H79">
-        <v>82.01111385258858</v>
+        <v>79.03862159112303</v>
       </c>
       <c r="I79">
-        <v>-0.4127429088097472</v>
+        <v>-0.4291334825101037</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2788,22 +2818,22 @@
         <v>4</v>
       </c>
       <c r="D80">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E80">
-        <v>1857.997436523437</v>
+        <v>872.1038818359375</v>
       </c>
       <c r="F80">
-        <v>34.0372428894043</v>
+        <v>21.83354949951172</v>
       </c>
       <c r="G80">
-        <v>0.0258620028716769</v>
+        <v>0.0168081055366274</v>
       </c>
       <c r="H80">
-        <v>40.63884544782899</v>
+        <v>29.47799294254048</v>
       </c>
       <c r="I80">
-        <v>-0.8397301505295304</v>
+        <v>0.1031795257488577</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2817,22 +2847,22 @@
         <v>5</v>
       </c>
       <c r="D81">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E81">
-        <v>14247.876953125</v>
+        <v>16393.07421875</v>
       </c>
       <c r="F81">
-        <v>97.54352569580078</v>
+        <v>99.52799224853516</v>
       </c>
       <c r="G81">
-        <v>0.0974938848113398</v>
+        <v>0.1047283787279577</v>
       </c>
       <c r="H81">
-        <v>118.3559331836959</v>
+        <v>123.6890661661836</v>
       </c>
       <c r="I81">
-        <v>-0.5151916961897695</v>
+        <v>-0.7201616416208357</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2846,22 +2876,22 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E82">
-        <v>29586.912109375</v>
+        <v>29724.041015625</v>
       </c>
       <c r="F82">
-        <v>136.0552215576172</v>
+        <v>137.9402313232422</v>
       </c>
       <c r="G82">
-        <v>0.0988282193016851</v>
+        <v>0.09985869010536499</v>
       </c>
       <c r="H82">
-        <v>169.6765267756578</v>
+        <v>168.4150044924943</v>
       </c>
       <c r="I82">
-        <v>-0.4470093110470168</v>
+        <v>-0.5023868919604837</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2875,22 +2905,22 @@
         <v>2</v>
       </c>
       <c r="D83">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="E83">
-        <v>32838.140625</v>
+        <v>1355252.625</v>
       </c>
       <c r="F83">
-        <v>156.3909759521484</v>
+        <v>1151.93310546875</v>
       </c>
       <c r="G83">
-        <v>0.1388151740960918</v>
+        <v>0.9997463696993696</v>
       </c>
       <c r="H83">
-        <v>178.5205776578971</v>
+        <v>1161.120870794818</v>
       </c>
       <c r="I83">
-        <v>-0.7116565760369068</v>
+        <v>-68.902997887857</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2904,22 +2934,22 @@
         <v>3</v>
       </c>
       <c r="D84">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E84">
-        <v>6781.6884765625</v>
+        <v>7120.78515625</v>
       </c>
       <c r="F84">
-        <v>69.13685607910156</v>
+        <v>71.21916198730469</v>
       </c>
       <c r="G84">
-        <v>0.0494218489615054</v>
+        <v>0.0509434598157938</v>
       </c>
       <c r="H84">
-        <v>81.33208122069919</v>
+        <v>82.89550765513415</v>
       </c>
       <c r="I84">
-        <v>-0.3663080059083866</v>
+        <v>-0.4382987975742894</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2933,22 +2963,22 @@
         <v>4</v>
       </c>
       <c r="D85">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="E85">
-        <v>2329.98046875</v>
+        <v>887.4073486328125</v>
       </c>
       <c r="F85">
-        <v>38.41191101074219</v>
+        <v>22.50413131713867</v>
       </c>
       <c r="G85">
-        <v>0.0291597361352649</v>
+        <v>0.01717487021635</v>
       </c>
       <c r="H85">
-        <v>45.56046304890245</v>
+        <v>29.76446499258359</v>
       </c>
       <c r="I85">
-        <v>-1.295457902683788</v>
+        <v>0.0958401249625645</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -2962,22 +2992,22 @@
         <v>5</v>
       </c>
       <c r="D86">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E86">
-        <v>14989.95703125</v>
+        <v>13451.1953125</v>
       </c>
       <c r="F86">
-        <v>101.3450317382812</v>
+        <v>94.14328002929688</v>
       </c>
       <c r="G86">
-        <v>0.1010856986238623</v>
+        <v>0.0956129752296988</v>
       </c>
       <c r="H86">
-        <v>121.0759156286847</v>
+        <v>114.8684154993381</v>
       </c>
       <c r="I86">
-        <v>-0.6123165119378724</v>
+        <v>-0.4479270718309242</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -2991,22 +3021,22 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E87">
-        <v>33114.578125</v>
+        <v>32425.916015625</v>
       </c>
       <c r="F87">
-        <v>143.1197967529297</v>
+        <v>141.3389282226562</v>
       </c>
       <c r="G87">
-        <v>0.1033927738729759</v>
+        <v>0.1023934840889525</v>
       </c>
       <c r="H87">
-        <v>179.4196625588802</v>
+        <v>177.928603034223</v>
       </c>
       <c r="I87">
-        <v>-0.6065628887376112</v>
+        <v>-0.5792877347012785</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3020,22 +3050,22 @@
         <v>2</v>
       </c>
       <c r="D88">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="E88">
-        <v>31704.052734375</v>
+        <v>1355269.5</v>
       </c>
       <c r="F88">
-        <v>153.7186431884766</v>
+        <v>1151.941528320312</v>
       </c>
       <c r="G88">
-        <v>0.1337313522327897</v>
+        <v>0.9997549078085592</v>
       </c>
       <c r="H88">
-        <v>175.1903672818973</v>
+        <v>1161.129464682188</v>
       </c>
       <c r="I88">
-        <v>-0.5358161232743287</v>
+        <v>-68.90470420725866</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3049,22 +3079,22 @@
         <v>3</v>
       </c>
       <c r="D89">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E89">
-        <v>6732.2099609375</v>
+        <v>7476.30419921875</v>
       </c>
       <c r="F89">
-        <v>69.99495697021484</v>
+        <v>72.94799041748047</v>
       </c>
       <c r="G89">
-        <v>0.0498441153972537</v>
+        <v>0.0523881992457286</v>
       </c>
       <c r="H89">
-        <v>81.2604631368154</v>
+        <v>85.23631828086879</v>
       </c>
       <c r="I89">
-        <v>-0.365227809564675</v>
+        <v>-0.5869120373608733</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3081,19 +3111,19 @@
         <v>27</v>
       </c>
       <c r="E90">
-        <v>1646.283081054688</v>
+        <v>2063.064453125</v>
       </c>
       <c r="F90">
-        <v>32.65594100952148</v>
+        <v>36.02706527709961</v>
       </c>
       <c r="G90">
-        <v>0.0249466438765601</v>
+        <v>0.02745752937965</v>
       </c>
       <c r="H90">
-        <v>39.32987507556556</v>
+        <v>42.7798316854316</v>
       </c>
       <c r="I90">
-        <v>-0.7694657590035018</v>
+        <v>-1.159135398849288</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3110,19 +3140,19 @@
         <v>17</v>
       </c>
       <c r="E91">
-        <v>16470.869140625</v>
+        <v>14899.234375</v>
       </c>
       <c r="F91">
-        <v>102.6349716186523</v>
+        <v>97.9393310546875</v>
       </c>
       <c r="G91">
-        <v>0.1036619198685907</v>
+        <v>0.0991289994762368</v>
       </c>
       <c r="H91">
-        <v>124.3522254736604</v>
+        <v>119.7760560855004</v>
       </c>
       <c r="I91">
-        <v>-0.8105350032552672</v>
+        <v>-0.6055282413312791</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3136,22 +3166,22 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="E92">
-        <v>30768.19140625</v>
+        <v>29277.544921875</v>
       </c>
       <c r="F92">
-        <v>138.3488006591797</v>
+        <v>134.9521789550781</v>
       </c>
       <c r="G92">
-        <v>0.1005828467539346</v>
+        <v>0.09776823611328191</v>
       </c>
       <c r="H92">
-        <v>172.2617930319919</v>
+        <v>168.4362606964118</v>
       </c>
       <c r="I92">
-        <v>-0.4888035120630931</v>
+        <v>-0.392127939551926</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3165,22 +3195,22 @@
         <v>2</v>
       </c>
       <c r="D93">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>32470.943359375</v>
+        <v>1355790.75</v>
       </c>
       <c r="F93">
-        <v>153.7096405029297</v>
+        <v>1152.167358398438</v>
       </c>
       <c r="G93">
-        <v>0.1326424301548499</v>
+        <v>0.9999546777950576</v>
       </c>
       <c r="H93">
-        <v>175.6844018330442</v>
+        <v>1161.353417231854</v>
       </c>
       <c r="I93">
-        <v>-0.5399672208645441</v>
+        <v>-68.93082889382956</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3194,22 +3224,22 @@
         <v>3</v>
       </c>
       <c r="D94">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E94">
-        <v>7878.35107421875</v>
+        <v>7834.34228515625</v>
       </c>
       <c r="F94">
-        <v>74.89316558837891</v>
+        <v>73.73485565185547</v>
       </c>
       <c r="G94">
-        <v>0.053432335022639</v>
+        <v>0.0526906721761891</v>
       </c>
       <c r="H94">
-        <v>87.01786906023442</v>
+        <v>87.45652225962546</v>
       </c>
       <c r="I94">
-        <v>-0.633555440647131</v>
+        <v>-0.6321937421572358</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3223,22 +3253,22 @@
         <v>4</v>
       </c>
       <c r="D95">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="E95">
-        <v>2750.854736328125</v>
+        <v>921.409912109375</v>
       </c>
       <c r="F95">
-        <v>43.00136947631836</v>
+        <v>23.13956069946289</v>
       </c>
       <c r="G95">
-        <v>0.0326900950089169</v>
+        <v>0.0176237688324876</v>
       </c>
       <c r="H95">
-        <v>50.58248705184267</v>
+        <v>30.33222738749416</v>
       </c>
       <c r="I95">
-        <v>-1.738485338134073</v>
+        <v>0.0616987386862486</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3252,22 +3282,1472 @@
         <v>5</v>
       </c>
       <c r="D96">
+        <v>17</v>
+      </c>
+      <c r="E96">
+        <v>14775.248046875</v>
+      </c>
+      <c r="F96">
+        <v>93.52101898193359</v>
+      </c>
+      <c r="G96">
+        <v>0.09815386063058471</v>
+      </c>
+      <c r="H96">
+        <v>119.6621230589634</v>
+      </c>
+      <c r="I96">
+        <v>-0.5474402559065678</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>100</v>
+      </c>
+      <c r="E97">
+        <v>36096.8671875</v>
+      </c>
+      <c r="F97">
+        <v>154.192626953125</v>
+      </c>
+      <c r="G97">
+        <v>0.1079526671561928</v>
+      </c>
+      <c r="H97">
+        <v>187.7035746126755</v>
+      </c>
+      <c r="I97">
+        <v>-0.8941964171351227</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>9</v>
+      </c>
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>1355915.75</v>
+      </c>
+      <c r="F98">
+        <v>1152.226806640625</v>
+      </c>
+      <c r="G98">
+        <v>1.000011623450831</v>
+      </c>
+      <c r="H98">
+        <v>1161.411925888038</v>
+      </c>
+      <c r="I98">
+        <v>-68.94469634952129</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>9</v>
+      </c>
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99">
+        <v>40</v>
+      </c>
+      <c r="E99">
+        <v>6837.73486328125</v>
+      </c>
+      <c r="F99">
+        <v>69.88927459716797</v>
+      </c>
+      <c r="G99">
+        <v>0.0500889534798119</v>
+      </c>
+      <c r="H99">
+        <v>82.11762599408416</v>
+      </c>
+      <c r="I99">
+        <v>-0.4123551944779194</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <v>63</v>
+      </c>
+      <c r="E100">
+        <v>896.849853515625</v>
+      </c>
+      <c r="F100">
+        <v>22.6485710144043</v>
+      </c>
+      <c r="G100">
+        <v>0.0171850607541261</v>
+      </c>
+      <c r="H100">
+        <v>29.88856465097232</v>
+      </c>
+      <c r="I100">
+        <v>0.0808283755672205</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>9</v>
+      </c>
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101">
+        <v>5</v>
+      </c>
+      <c r="D101">
+        <v>19</v>
+      </c>
+      <c r="E101">
+        <v>16205.6591796875</v>
+      </c>
+      <c r="F101">
+        <v>99.12809753417967</v>
+      </c>
+      <c r="G101">
+        <v>0.1036287764794938</v>
+      </c>
+      <c r="H101">
+        <v>124.3511626798667</v>
+      </c>
+      <c r="I101">
+        <v>-0.7088213326070685</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102" t="s">
+        <v>30</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="D102">
+        <v>100</v>
+      </c>
+      <c r="E102">
+        <v>34305.125</v>
+      </c>
+      <c r="F102">
+        <v>151.7294158935547</v>
+      </c>
+      <c r="G102">
+        <v>0.1054403824510443</v>
+      </c>
+      <c r="H102">
+        <v>182.282771468392</v>
+      </c>
+      <c r="I102">
+        <v>-0.8058172766560414</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>9</v>
+      </c>
+      <c r="B103" t="s">
+        <v>30</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+      <c r="D103">
+        <v>100</v>
+      </c>
+      <c r="E103">
+        <v>1355244.625</v>
+      </c>
+      <c r="F103">
+        <v>1151.93310546875</v>
+      </c>
+      <c r="G103">
+        <v>0.9997494738207078</v>
+      </c>
+      <c r="H103">
+        <v>1161.121174906401</v>
+      </c>
+      <c r="I103">
+        <v>-68.90512469418697</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <v>38</v>
+      </c>
+      <c r="E104">
+        <v>6950.56005859375</v>
+      </c>
+      <c r="F104">
+        <v>71.1937255859375</v>
+      </c>
+      <c r="G104">
+        <v>0.0507103908732245</v>
+      </c>
+      <c r="H104">
+        <v>82.19907157681767</v>
+      </c>
+      <c r="I104">
+        <v>-0.4031410630300368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105">
+        <v>4</v>
+      </c>
+      <c r="D105">
+        <v>28</v>
+      </c>
+      <c r="E105">
+        <v>1684.415283203125</v>
+      </c>
+      <c r="F105">
+        <v>33.38700103759766</v>
+      </c>
+      <c r="G105">
+        <v>0.0252432183752083</v>
+      </c>
+      <c r="H105">
+        <v>39.94526280780482</v>
+      </c>
+      <c r="I105">
+        <v>-0.6742508036921712</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>9</v>
+      </c>
+      <c r="B106" t="s">
+        <v>30</v>
+      </c>
+      <c r="C106">
+        <v>5</v>
+      </c>
+      <c r="D106">
+        <v>17</v>
+      </c>
+      <c r="E106">
+        <v>17468.5703125</v>
+      </c>
+      <c r="F106">
+        <v>108.8760986328125</v>
+      </c>
+      <c r="G106">
+        <v>0.1080106605645219</v>
+      </c>
+      <c r="H106">
+        <v>129.9377946102967</v>
+      </c>
+      <c r="I106">
+        <v>-0.927436476372372</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>9</v>
+      </c>
+      <c r="B107" t="s">
+        <v>31</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>96</v>
+      </c>
+      <c r="E107">
+        <v>31649.0078125</v>
+      </c>
+      <c r="F107">
+        <v>140.5760955810547</v>
+      </c>
+      <c r="G107">
+        <v>0.1022886980121755</v>
+      </c>
+      <c r="H107">
+        <v>174.7494802049679</v>
+      </c>
+      <c r="I107">
+        <v>-0.5733704839693572</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>1355974.75</v>
+      </c>
+      <c r="F108">
+        <v>1152.245361328125</v>
+      </c>
+      <c r="G108">
+        <v>1.000022368975268</v>
+      </c>
+      <c r="H108">
+        <v>1161.430393500278</v>
+      </c>
+      <c r="I108">
+        <v>-68.93955469406528</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>9</v>
+      </c>
+      <c r="B109" t="s">
+        <v>31</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109">
+        <v>49</v>
+      </c>
+      <c r="E109">
+        <v>7843.55419921875</v>
+      </c>
+      <c r="F109">
+        <v>75.51409912109375</v>
+      </c>
+      <c r="G109">
+        <v>0.0545302473135623</v>
+      </c>
+      <c r="H109">
+        <v>87.62605009732319</v>
+      </c>
+      <c r="I109">
+        <v>-0.672522214650965</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110">
+        <v>4</v>
+      </c>
+      <c r="D110">
+        <v>27</v>
+      </c>
+      <c r="E110">
+        <v>3145.705810546875</v>
+      </c>
+      <c r="F110">
+        <v>44.84101867675781</v>
+      </c>
+      <c r="G110">
+        <v>0.034186971941835</v>
+      </c>
+      <c r="H110">
+        <v>51.5280868096884</v>
+      </c>
+      <c r="I110">
+        <v>-2.215627504829129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>9</v>
+      </c>
+      <c r="B111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C111">
+        <v>5</v>
+      </c>
+      <c r="D111">
+        <v>17</v>
+      </c>
+      <c r="E111">
+        <v>15323.6103515625</v>
+      </c>
+      <c r="F111">
+        <v>96.5489501953125</v>
+      </c>
+      <c r="G111">
+        <v>0.1004325788617444</v>
+      </c>
+      <c r="H111">
+        <v>121.5062727170013</v>
+      </c>
+      <c r="I111">
+        <v>-0.607853232624935</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>9</v>
+      </c>
+      <c r="B112" t="s">
+        <v>32</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112">
+        <v>95</v>
+      </c>
+      <c r="E112">
+        <v>32058.72265625</v>
+      </c>
+      <c r="F112">
+        <v>142.4305419921875</v>
+      </c>
+      <c r="G112">
+        <v>0.1032662558815512</v>
+      </c>
+      <c r="H112">
+        <v>176.4756028011297</v>
+      </c>
+      <c r="I112">
+        <v>-0.5557662372646225</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>9</v>
+      </c>
+      <c r="B113" t="s">
+        <v>32</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113">
+        <v>100</v>
+      </c>
+      <c r="E113">
+        <v>1355259.625</v>
+      </c>
+      <c r="F113">
+        <v>1151.941528320312</v>
+      </c>
+      <c r="G113">
+        <v>0.999758226263961</v>
+      </c>
+      <c r="H113">
+        <v>1161.129473910173</v>
+      </c>
+      <c r="I113">
+        <v>-68.90540605117208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>9</v>
+      </c>
+      <c r="B114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+      <c r="D114">
+        <v>36</v>
+      </c>
+      <c r="E114">
+        <v>7096.27392578125</v>
+      </c>
+      <c r="F114">
+        <v>71.23035430908203</v>
+      </c>
+      <c r="G114">
+        <v>0.0505906426497613</v>
+      </c>
+      <c r="H114">
+        <v>82.79664754815238</v>
+      </c>
+      <c r="I114">
+        <v>-0.447321737425752</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>9</v>
+      </c>
+      <c r="B115" t="s">
+        <v>32</v>
+      </c>
+      <c r="C115">
+        <v>4</v>
+      </c>
+      <c r="D115">
+        <v>26</v>
+      </c>
+      <c r="E115">
+        <v>2144.72412109375</v>
+      </c>
+      <c r="F115">
+        <v>36.51226425170898</v>
+      </c>
+      <c r="G115">
+        <v>0.0276613352994964</v>
+      </c>
+      <c r="H115">
+        <v>43.52544766779545</v>
+      </c>
+      <c r="I115">
+        <v>-1.124832207434804</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>9</v>
+      </c>
+      <c r="B116" t="s">
+        <v>32</v>
+      </c>
+      <c r="C116">
+        <v>5</v>
+      </c>
+      <c r="D116">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>15789.427734375</v>
+      </c>
+      <c r="F116">
+        <v>98.05291748046876</v>
+      </c>
+      <c r="G116">
+        <v>0.1014929854096238</v>
+      </c>
+      <c r="H116">
+        <v>123.4066009283385</v>
+      </c>
+      <c r="I116">
+        <v>-0.6570834904101641</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117">
+        <v>96</v>
+      </c>
+      <c r="E117">
+        <v>31379.306640625</v>
+      </c>
+      <c r="F117">
+        <v>139.8035125732422</v>
+      </c>
+      <c r="G117">
+        <v>0.101510361237784</v>
+      </c>
+      <c r="H117">
+        <v>173.6413411676469</v>
+      </c>
+      <c r="I117">
+        <v>-0.5428849580995242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>9</v>
+      </c>
+      <c r="B118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1355794.875</v>
+      </c>
+      <c r="F118">
+        <v>1152.172485351562</v>
+      </c>
+      <c r="G118">
+        <v>0.9999616986052842</v>
+      </c>
+      <c r="H118">
+        <v>1161.357889336623</v>
+      </c>
+      <c r="I118">
+        <v>-68.9344645861197</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>9</v>
+      </c>
+      <c r="B119" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119">
+        <v>3</v>
+      </c>
+      <c r="D119">
+        <v>38</v>
+      </c>
+      <c r="E119">
+        <v>8401.09375</v>
+      </c>
+      <c r="F119">
+        <v>77.33336639404297</v>
+      </c>
+      <c r="G119">
+        <v>0.055287237653016</v>
+      </c>
+      <c r="H119">
+        <v>89.35803709199806</v>
+      </c>
+      <c r="I119">
+        <v>-0.7599970823481095</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120">
+        <v>4</v>
+      </c>
+      <c r="D120">
+        <v>27</v>
+      </c>
+      <c r="E120">
+        <v>2417.11083984375</v>
+      </c>
+      <c r="F120">
+        <v>39.9549560546875</v>
+      </c>
+      <c r="G120">
+        <v>0.0304725115619004</v>
+      </c>
+      <c r="H120">
+        <v>46.71518344001103</v>
+      </c>
+      <c r="I120">
+        <v>-1.478485013633379</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>9</v>
+      </c>
+      <c r="B121" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121">
+        <v>5</v>
+      </c>
+      <c r="D121">
         <v>18</v>
       </c>
-      <c r="E96">
-        <v>15505.197265625</v>
-      </c>
-      <c r="F96">
-        <v>96.63126373291016</v>
-      </c>
-      <c r="G96">
-        <v>0.1010453356855625</v>
-      </c>
-      <c r="H96">
-        <v>121.9918280796724</v>
-      </c>
-      <c r="I96">
-        <v>-0.6212813551770076</v>
+      <c r="E121">
+        <v>13824.884765625</v>
+      </c>
+      <c r="F121">
+        <v>96.26004791259766</v>
+      </c>
+      <c r="G121">
+        <v>0.09658953327257851</v>
+      </c>
+      <c r="H121">
+        <v>115.9342177918989</v>
+      </c>
+      <c r="I121">
+        <v>-0.4885646566697392</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>9</v>
+      </c>
+      <c r="B122" t="s">
+        <v>34</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122">
+        <v>100</v>
+      </c>
+      <c r="E122">
+        <v>33681.5078125</v>
+      </c>
+      <c r="F122">
+        <v>145.2256164550781</v>
+      </c>
+      <c r="G122">
+        <v>0.1047478220744884</v>
+      </c>
+      <c r="H122">
+        <v>181.390460046465</v>
+      </c>
+      <c r="I122">
+        <v>-0.6921682775781922</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>9</v>
+      </c>
+      <c r="B123" t="s">
+        <v>34</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123">
+        <v>1355858.25</v>
+      </c>
+      <c r="F123">
+        <v>1152.203002929688</v>
+      </c>
+      <c r="G123">
+        <v>0.9999915035670588</v>
+      </c>
+      <c r="H123">
+        <v>1161.389147807584</v>
+      </c>
+      <c r="I123">
+        <v>-68.94039211361802</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>9</v>
+      </c>
+      <c r="B124" t="s">
+        <v>34</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124">
+        <v>40</v>
+      </c>
+      <c r="E124">
+        <v>8529.294921875</v>
+      </c>
+      <c r="F124">
+        <v>77.43646240234375</v>
+      </c>
+      <c r="G124">
+        <v>0.0552732154397744</v>
+      </c>
+      <c r="H124">
+        <v>90.28199921032768</v>
+      </c>
+      <c r="I124">
+        <v>-0.7969457321703769</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>9</v>
+      </c>
+      <c r="B125" t="s">
+        <v>34</v>
+      </c>
+      <c r="C125">
+        <v>4</v>
+      </c>
+      <c r="D125">
+        <v>50</v>
+      </c>
+      <c r="E125">
+        <v>1068.029296875</v>
+      </c>
+      <c r="F125">
+        <v>24.87616729736328</v>
+      </c>
+      <c r="G125">
+        <v>0.0189032362818346</v>
+      </c>
+      <c r="H125">
+        <v>32.61282960836687</v>
+      </c>
+      <c r="I125">
+        <v>-0.1058812189731373</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>34</v>
+      </c>
+      <c r="C126">
+        <v>5</v>
+      </c>
+      <c r="D126">
+        <v>17</v>
+      </c>
+      <c r="E126">
+        <v>17220.123046875</v>
+      </c>
+      <c r="F126">
+        <v>102.4577865600586</v>
+      </c>
+      <c r="G126">
+        <v>0.1057024421909723</v>
+      </c>
+      <c r="H126">
+        <v>128.1299972170566</v>
+      </c>
+      <c r="I126">
+        <v>-0.823535827947983</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>35</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="D127">
+        <v>93</v>
+      </c>
+      <c r="E127">
+        <v>31461.09375</v>
+      </c>
+      <c r="F127">
+        <v>139.6455535888672</v>
+      </c>
+      <c r="G127">
+        <v>0.1008873053700764</v>
+      </c>
+      <c r="H127">
+        <v>174.2715452020549</v>
+      </c>
+      <c r="I127">
+        <v>-0.5426401268480368</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>9</v>
+      </c>
+      <c r="B128" t="s">
+        <v>35</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128">
+        <v>41</v>
+      </c>
+      <c r="E128">
+        <v>1147204.75</v>
+      </c>
+      <c r="F128">
+        <v>950.8814086914062</v>
+      </c>
+      <c r="G128">
+        <v>0.7970180041007443</v>
+      </c>
+      <c r="H128">
+        <v>1067.312761110605</v>
+      </c>
+      <c r="I128">
+        <v>-57.48319085210089</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>9</v>
+      </c>
+      <c r="B129" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129">
+        <v>3</v>
+      </c>
+      <c r="D129">
+        <v>38</v>
+      </c>
+      <c r="E129">
+        <v>7586.0078125</v>
+      </c>
+      <c r="F129">
+        <v>72.87825012207031</v>
+      </c>
+      <c r="G129">
+        <v>0.0519652401733725</v>
+      </c>
+      <c r="H129">
+        <v>85.72884810217997</v>
+      </c>
+      <c r="I129">
+        <v>-0.525579940283846</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
+        <v>35</v>
+      </c>
+      <c r="C130">
+        <v>4</v>
+      </c>
+      <c r="D130">
+        <v>25</v>
+      </c>
+      <c r="E130">
+        <v>2388.959228515625</v>
+      </c>
+      <c r="F130">
+        <v>39.48907470703125</v>
+      </c>
+      <c r="G130">
+        <v>0.0299584727447361</v>
+      </c>
+      <c r="H130">
+        <v>46.6570890185534</v>
+      </c>
+      <c r="I130">
+        <v>-1.399208614466576</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131">
+        <v>5</v>
+      </c>
+      <c r="D131">
+        <v>17</v>
+      </c>
+      <c r="E131">
+        <v>16524.037109375</v>
+      </c>
+      <c r="F131">
+        <v>105.0835647583008</v>
+      </c>
+      <c r="G131">
+        <v>0.1044651897278545</v>
+      </c>
+      <c r="H131">
+        <v>125.9967168974812</v>
+      </c>
+      <c r="I131">
+        <v>-0.7552203221540253</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132">
+        <v>97</v>
+      </c>
+      <c r="E132">
+        <v>33372.71484375</v>
+      </c>
+      <c r="F132">
+        <v>143.9585266113281</v>
+      </c>
+      <c r="G132">
+        <v>0.10451966681419</v>
+      </c>
+      <c r="H132">
+        <v>179.9343481054668</v>
+      </c>
+      <c r="I132">
+        <v>-0.627613918088773</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>9</v>
+      </c>
+      <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133">
+        <v>43</v>
+      </c>
+      <c r="E133">
+        <v>1267036.875</v>
+      </c>
+      <c r="F133">
+        <v>1067.687866210938</v>
+      </c>
+      <c r="G133">
+        <v>0.9144696122044536</v>
+      </c>
+      <c r="H133">
+        <v>1122.205734619899</v>
+      </c>
+      <c r="I133">
+        <v>-63.99648155520786</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>9</v>
+      </c>
+      <c r="B134" t="s">
+        <v>36</v>
+      </c>
+      <c r="C134">
+        <v>3</v>
+      </c>
+      <c r="D134">
+        <v>39</v>
+      </c>
+      <c r="E134">
+        <v>7589.54296875</v>
+      </c>
+      <c r="F134">
+        <v>73.32498931884766</v>
+      </c>
+      <c r="G134">
+        <v>0.0524862779612187</v>
+      </c>
+      <c r="H134">
+        <v>85.71456100968928</v>
+      </c>
+      <c r="I134">
+        <v>-0.5763720498760196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>9</v>
+      </c>
+      <c r="B135" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135">
+        <v>4</v>
+      </c>
+      <c r="D135">
+        <v>25</v>
+      </c>
+      <c r="E135">
+        <v>2849.918701171875</v>
+      </c>
+      <c r="F135">
+        <v>42.65061950683594</v>
+      </c>
+      <c r="G135">
+        <v>0.0324575541606923</v>
+      </c>
+      <c r="H135">
+        <v>49.46567164387707</v>
+      </c>
+      <c r="I135">
+        <v>-1.858048958933232</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>9</v>
+      </c>
+      <c r="B136" t="s">
+        <v>36</v>
+      </c>
+      <c r="C136">
+        <v>5</v>
+      </c>
+      <c r="D136">
+        <v>17</v>
+      </c>
+      <c r="E136">
+        <v>16237.0849609375</v>
+      </c>
+      <c r="F136">
+        <v>104.005500793457</v>
+      </c>
+      <c r="G136">
+        <v>0.104567977302254</v>
+      </c>
+      <c r="H136">
+        <v>125.2664111557621</v>
+      </c>
+      <c r="I136">
+        <v>-0.7501289655040739</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>9</v>
+      </c>
+      <c r="B137" t="s">
+        <v>37</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="D137">
+        <v>96</v>
+      </c>
+      <c r="E137">
+        <v>29823.259765625</v>
+      </c>
+      <c r="F137">
+        <v>137.0608367919922</v>
+      </c>
+      <c r="G137">
+        <v>0.0988608547391448</v>
+      </c>
+      <c r="H137">
+        <v>170.874171841855</v>
+      </c>
+      <c r="I137">
+        <v>-0.485465805161126</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>9</v>
+      </c>
+      <c r="B138" t="s">
+        <v>37</v>
+      </c>
+      <c r="C138">
+        <v>2</v>
+      </c>
+      <c r="D138">
+        <v>43</v>
+      </c>
+      <c r="E138">
+        <v>1147213.25</v>
+      </c>
+      <c r="F138">
+        <v>951.3861083984376</v>
+      </c>
+      <c r="G138">
+        <v>0.7975060382908565</v>
+      </c>
+      <c r="H138">
+        <v>1067.318455599959</v>
+      </c>
+      <c r="I138">
+        <v>-57.48691575146486</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>9</v>
+      </c>
+      <c r="B139" t="s">
+        <v>37</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139">
+        <v>37</v>
+      </c>
+      <c r="E139">
+        <v>6750.88671875</v>
+      </c>
+      <c r="F139">
+        <v>69.24362945556641</v>
+      </c>
+      <c r="G139">
+        <v>0.0497021855592766</v>
+      </c>
+      <c r="H139">
+        <v>81.01757804845364</v>
+      </c>
+      <c r="I139">
+        <v>-0.3850859226848024</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>9</v>
+      </c>
+      <c r="B140" t="s">
+        <v>37</v>
+      </c>
+      <c r="C140">
+        <v>4</v>
+      </c>
+      <c r="D140">
+        <v>27</v>
+      </c>
+      <c r="E140">
+        <v>2179.08642578125</v>
+      </c>
+      <c r="F140">
+        <v>37.76519775390625</v>
+      </c>
+      <c r="G140">
+        <v>0.0286179452666375</v>
+      </c>
+      <c r="H140">
+        <v>44.87857228778748</v>
+      </c>
+      <c r="I140">
+        <v>-1.185030573840573</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>9</v>
+      </c>
+      <c r="B141" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141">
+        <v>5</v>
+      </c>
+      <c r="D141">
+        <v>17</v>
+      </c>
+      <c r="E141">
+        <v>18960.939453125</v>
+      </c>
+      <c r="F141">
+        <v>110.166130065918</v>
+      </c>
+      <c r="G141">
+        <v>0.1117451716055032</v>
+      </c>
+      <c r="H141">
+        <v>134.6190726864165</v>
+      </c>
+      <c r="I141">
+        <v>-1.05174806176683</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="D142">
+        <v>93</v>
+      </c>
+      <c r="E142">
+        <v>30373.03515625</v>
+      </c>
+      <c r="F142">
+        <v>137.5078125</v>
+      </c>
+      <c r="G142">
+        <v>0.0992413025318159</v>
+      </c>
+      <c r="H142">
+        <v>172.3836696259109</v>
+      </c>
+      <c r="I142">
+        <v>-0.4841574477293799</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>9</v>
+      </c>
+      <c r="B143" t="s">
+        <v>38</v>
+      </c>
+      <c r="C143">
+        <v>2</v>
+      </c>
+      <c r="D143">
+        <v>41</v>
+      </c>
+      <c r="E143">
+        <v>1147067.375</v>
+      </c>
+      <c r="F143">
+        <v>951.0097045898438</v>
+      </c>
+      <c r="G143">
+        <v>0.7971315583789789</v>
+      </c>
+      <c r="H143">
+        <v>1067.249979661192</v>
+      </c>
+      <c r="I143">
+        <v>-57.48209192178408</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>9</v>
+      </c>
+      <c r="B144" t="s">
+        <v>38</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144">
+        <v>37</v>
+      </c>
+      <c r="E144">
+        <v>7684.8798828125</v>
+      </c>
+      <c r="F144">
+        <v>73.82876586914062</v>
+      </c>
+      <c r="G144">
+        <v>0.0526067476523147</v>
+      </c>
+      <c r="H144">
+        <v>86.4840029449834</v>
+      </c>
+      <c r="I144">
+        <v>-0.5883213522749265</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>9</v>
+      </c>
+      <c r="B145" t="s">
+        <v>38</v>
+      </c>
+      <c r="C145">
+        <v>4</v>
+      </c>
+      <c r="D145">
+        <v>26</v>
+      </c>
+      <c r="E145">
+        <v>2434.24072265625</v>
+      </c>
+      <c r="F145">
+        <v>40.22628784179688</v>
+      </c>
+      <c r="G145">
+        <v>0.0307438588604525</v>
+      </c>
+      <c r="H145">
+        <v>47.03366207906939</v>
+      </c>
+      <c r="I145">
+        <v>-1.648945875507116</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>9</v>
+      </c>
+      <c r="B146" t="s">
+        <v>38</v>
+      </c>
+      <c r="C146">
+        <v>5</v>
+      </c>
+      <c r="D146">
+        <v>16</v>
+      </c>
+      <c r="E146">
+        <v>16500.326171875</v>
+      </c>
+      <c r="F146">
+        <v>105.7804260253906</v>
+      </c>
+      <c r="G146">
+        <v>0.1042909276292462</v>
+      </c>
+      <c r="H146">
+        <v>124.6521551339218</v>
+      </c>
+      <c r="I146">
+        <v>-0.7955359272335042</v>
       </c>
     </row>
   </sheetData>
@@ -3277,7 +4757,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3306,25 +4786,25 @@
         <v>8</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -3332,43 +4812,43 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>445814.3364501953</v>
+        <v>432161.9360717774</v>
       </c>
       <c r="D2">
-        <v>447.9946468353272</v>
+        <v>458.8897308349609</v>
       </c>
       <c r="E2">
-        <v>0.3547110105713533</v>
+        <v>0.365004014327993</v>
       </c>
       <c r="F2">
-        <v>463.6661561732986</v>
+        <v>474.1948096607188</v>
       </c>
       <c r="G2">
-        <v>-22.6113483561033</v>
+        <v>-22.82472478271137</v>
       </c>
       <c r="H2">
-        <v>67.8</v>
+        <v>76.8</v>
       </c>
       <c r="I2">
-        <v>620227.699675309</v>
+        <v>605619.7752810338</v>
       </c>
       <c r="J2">
-        <v>529.8001653102524</v>
+        <v>508.0978888849352</v>
       </c>
       <c r="K2">
         <v>4</v>
       </c>
       <c r="L2">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M2">
-        <v>1371.245239257812</v>
+        <v>941.2077026367188</v>
       </c>
       <c r="N2">
-        <v>29.43545341491699</v>
+        <v>24.16853332519531</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -3376,43 +4856,43 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3">
-        <v>384937.0354492188</v>
+        <v>453890.9401611328</v>
       </c>
       <c r="D3">
-        <v>408.5328147888184</v>
+        <v>455.3020366668701</v>
       </c>
       <c r="E3">
-        <v>0.3221283716441499</v>
+        <v>0.3614978611357501</v>
       </c>
       <c r="F3">
-        <v>433.6800993894415</v>
+        <v>467.4988959375937</v>
       </c>
       <c r="G3">
-        <v>-19.56478713505461</v>
+        <v>-22.92007802156369</v>
       </c>
       <c r="H3">
-        <v>66.40000000000001</v>
+        <v>74</v>
       </c>
       <c r="I3">
-        <v>554005.6872322974</v>
+        <v>632633.870385056</v>
       </c>
       <c r="J3">
-        <v>471.2091685878551</v>
+        <v>540.6463016074814</v>
       </c>
       <c r="K3">
         <v>4</v>
       </c>
       <c r="L3">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="M3">
-        <v>2076.7119140625</v>
+        <v>1188.962036132812</v>
       </c>
       <c r="N3">
-        <v>36.11266708374024</v>
+        <v>27.42567253112793</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -3420,43 +4900,43 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C4">
-        <v>309984.8243652344</v>
+        <v>690337.423852539</v>
       </c>
       <c r="D4">
-        <v>337.0226348876953</v>
+        <v>556.7126544952392</v>
       </c>
       <c r="E4">
-        <v>0.2517601405148805</v>
+        <v>0.4329763417034073</v>
       </c>
       <c r="F4">
-        <v>395.0462060762271</v>
+        <v>568.637509785135</v>
       </c>
       <c r="G4">
-        <v>-15.58170095636166</v>
+        <v>-34.97459254699569</v>
       </c>
       <c r="H4">
-        <v>70.40000000000001</v>
+        <v>57</v>
       </c>
       <c r="I4">
-        <v>414006.7287939356</v>
+        <v>967893.4156116918</v>
       </c>
       <c r="J4">
-        <v>380.928675562996</v>
+        <v>677.4253082353588</v>
       </c>
       <c r="K4">
         <v>4</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M4">
-        <v>1305.447998046875</v>
+        <v>1317.301879882812</v>
       </c>
       <c r="N4">
-        <v>28.98831939697266</v>
+        <v>28.53409767150879</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3464,43 +4944,43 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>421641.1524414063</v>
+        <v>429898.8243408203</v>
       </c>
       <c r="D5">
-        <v>416.7392852783203</v>
+        <v>442.1800941467285</v>
       </c>
       <c r="E5">
-        <v>0.320801191666912</v>
+        <v>0.3524207492937778</v>
       </c>
       <c r="F5">
-        <v>453.4374585891114</v>
+        <v>455.5079384746704</v>
       </c>
       <c r="G5">
-        <v>-21.06913288021386</v>
+        <v>-21.79086198448723</v>
       </c>
       <c r="H5">
-        <v>71.59999999999999</v>
+        <v>53</v>
       </c>
       <c r="I5">
-        <v>569385.7105534256</v>
+        <v>613583.1398872363</v>
       </c>
       <c r="J5">
-        <v>484.5752681222825</v>
+        <v>525.5067253009917</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>1004.91015625</v>
+        <v>1267.162719726562</v>
       </c>
       <c r="N5">
-        <v>23.89373016357422</v>
+        <v>28.16470718383789</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3508,43 +4988,43 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6">
-        <v>47202.42158203125</v>
+        <v>420492.3090820312</v>
       </c>
       <c r="D6">
-        <v>121.3063117980957</v>
+        <v>436.7585289001465</v>
       </c>
       <c r="E6">
-        <v>0.09840811116080225</v>
+        <v>0.3487671545362035</v>
       </c>
       <c r="F6">
-        <v>169.354707781898</v>
+        <v>449.6703937751237</v>
       </c>
       <c r="G6">
-        <v>-2.291292313458071</v>
+        <v>-21.42475709513905</v>
       </c>
       <c r="H6">
-        <v>45.6</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="I6">
-        <v>75158.1544654074</v>
+        <v>607760.931340507</v>
       </c>
       <c r="J6">
-        <v>84.2174526688315</v>
+        <v>520.1864904638157</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="L6">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="M6">
-        <v>2469.447265625</v>
+        <v>2047.919921875</v>
       </c>
       <c r="N6">
-        <v>39.10672378540039</v>
+        <v>36.81857681274414</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3552,43 +5032,43 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>111606.0735351562</v>
+        <v>445400.3373535156</v>
       </c>
       <c r="D7">
-        <v>160.8840866088867</v>
+        <v>455.4739189147949</v>
       </c>
       <c r="E7">
-        <v>0.1285515021342823</v>
+        <v>0.3620839259595939</v>
       </c>
       <c r="F7">
-        <v>227.6167182193516</v>
+        <v>467.4438836373675</v>
       </c>
       <c r="G7">
-        <v>-5.618793123453435</v>
+        <v>-22.99309371952074</v>
       </c>
       <c r="H7">
-        <v>45.4</v>
+        <v>81.8</v>
       </c>
       <c r="I7">
-        <v>217522.7940384388</v>
+        <v>624375.7941455935</v>
       </c>
       <c r="J7">
-        <v>165.1108328685306</v>
+        <v>529.9872311888599</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
       <c r="L7">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="M7">
-        <v>2467.89208984375</v>
+        <v>3542.773193359375</v>
       </c>
       <c r="N7">
-        <v>39.13005828857422</v>
+        <v>48.01456832885742</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -3596,43 +5076,43 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>18840.51684570312</v>
+        <v>415702.5359130859</v>
       </c>
       <c r="D8">
-        <v>104.6862510681152</v>
+        <v>433.9696880340576</v>
       </c>
       <c r="E8">
-        <v>0.0846393267637524</v>
+        <v>0.3471983392350693</v>
       </c>
       <c r="F8">
-        <v>123.0009946623156</v>
+        <v>447.1876819874566</v>
       </c>
       <c r="G8">
-        <v>-0.8629215605999297</v>
+        <v>-21.02737980525821</v>
       </c>
       <c r="H8">
-        <v>44.8</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="I8">
-        <v>15964.75975054288</v>
+        <v>604081.2188187633</v>
       </c>
       <c r="J8">
-        <v>52.6330494424809</v>
+        <v>517.4835424515205</v>
       </c>
       <c r="K8">
         <v>4</v>
       </c>
       <c r="L8">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="M8">
-        <v>2778.355712890625</v>
+        <v>989.9315185546876</v>
       </c>
       <c r="N8">
-        <v>42.75711441040039</v>
+        <v>24.32243919372558</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3640,43 +5120,43 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9">
-        <v>17933.59860839844</v>
+        <v>581970.1001098633</v>
       </c>
       <c r="D9">
-        <v>100.424861907959</v>
+        <v>600.2295677185059</v>
       </c>
       <c r="E9">
-        <v>0.08311536104963402</v>
+        <v>0.4645861871714847</v>
       </c>
       <c r="F9">
-        <v>119.9105187053638</v>
+        <v>612.0270443723581</v>
       </c>
       <c r="G9">
-        <v>-0.6175215167670768</v>
+        <v>-55.0306590068372</v>
       </c>
       <c r="H9">
-        <v>44.8</v>
+        <v>78.2</v>
       </c>
       <c r="I9">
-        <v>14256.3571621024</v>
+        <v>577887.7001877469</v>
       </c>
       <c r="J9">
-        <v>50.46428173417329</v>
+        <v>508.08155275865</v>
       </c>
       <c r="K9">
         <v>4</v>
       </c>
       <c r="L9">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="M9">
-        <v>1646.283081054688</v>
+        <v>957.2661743164062</v>
       </c>
       <c r="N9">
-        <v>32.65594100952148</v>
+        <v>23.3688850402832</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -3684,43 +5164,43 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C10">
-        <v>130182.355859375</v>
+        <v>281287.2107666016</v>
       </c>
       <c r="D10">
-        <v>172.2268836975098</v>
+        <v>295.5479820251465</v>
       </c>
       <c r="E10">
-        <v>0.1362066191476427</v>
+        <v>0.2526672730133154</v>
       </c>
       <c r="F10">
-        <v>238.9504131851478</v>
+        <v>311.4128526868736</v>
       </c>
       <c r="G10">
-        <v>-6.793107823238676</v>
+        <v>-14.03915410485203</v>
       </c>
       <c r="H10">
-        <v>43.2</v>
+        <v>61.4</v>
       </c>
       <c r="I10">
-        <v>260630.5502816604</v>
+        <v>600460.8957308951</v>
       </c>
       <c r="J10">
-        <v>192.9895361969216</v>
+        <v>480.5402950408774</v>
       </c>
       <c r="K10">
         <v>4</v>
       </c>
       <c r="L10">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="M10">
-        <v>4169.966796875</v>
+        <v>887.4073486328125</v>
       </c>
       <c r="N10">
-        <v>51.42121505737305</v>
+        <v>22.50413131713867</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -3728,31 +5208,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C11">
-        <v>246809.2547851563</v>
+        <v>282363.4541992188</v>
       </c>
       <c r="D11">
-        <v>266.9677154541016</v>
+        <v>301.1048736572266</v>
       </c>
       <c r="E11">
-        <v>0.222767368880031</v>
+        <v>0.2567642684661126</v>
       </c>
       <c r="F11">
-        <v>301.8580135277089</v>
+        <v>317.4013337656355</v>
       </c>
       <c r="G11">
-        <v>-12.51907580956288</v>
+        <v>-14.44087925937409</v>
       </c>
       <c r="H11">
-        <v>43.6</v>
+        <v>36</v>
       </c>
       <c r="I11">
-        <v>520620.2009749325</v>
+        <v>600163.8007379177</v>
       </c>
       <c r="J11">
-        <v>401.2618159472414</v>
+        <v>477.118585449059</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -3761,10 +5241,10 @@
         <v>27</v>
       </c>
       <c r="M11">
-        <v>2625.994140625</v>
+        <v>2417.11083984375</v>
       </c>
       <c r="N11">
-        <v>41.51750183105469</v>
+        <v>39.9549560546875</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -3772,43 +5252,43 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C12">
-        <v>17498.14970703125</v>
+        <v>282469.7546875</v>
       </c>
       <c r="D12">
-        <v>99.67825088500976</v>
+        <v>300.033521270752</v>
       </c>
       <c r="E12">
-        <v>0.08248791424981709</v>
+        <v>0.2565538891008787</v>
       </c>
       <c r="F12">
-        <v>119.4344247730213</v>
+        <v>317.4667545711179</v>
       </c>
       <c r="G12">
-        <v>-0.7198044682347777</v>
+        <v>-14.33808194474148</v>
       </c>
       <c r="H12">
-        <v>45.8</v>
+        <v>54.8</v>
       </c>
       <c r="I12">
-        <v>13787.67015495442</v>
+        <v>599815.5683751409</v>
       </c>
       <c r="J12">
-        <v>46.46869884430344</v>
+        <v>477.8013337080348</v>
       </c>
       <c r="K12">
         <v>4</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M12">
-        <v>2596.2138671875</v>
+        <v>2144.72412109375</v>
       </c>
       <c r="N12">
-        <v>41.06904220581055</v>
+        <v>36.51226425170898</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -3816,43 +5296,43 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C13">
-        <v>16628.84294433594</v>
+        <v>240985.4844726562</v>
       </c>
       <c r="D13">
-        <v>97.24133071899413</v>
+        <v>261.124380493164</v>
       </c>
       <c r="E13">
-        <v>0.08035129831182028</v>
+        <v>0.2172864390922837</v>
       </c>
       <c r="F13">
-        <v>116.7669093434155</v>
+        <v>299.7415700928944</v>
       </c>
       <c r="G13">
-        <v>-0.5425573014176612</v>
+        <v>-12.11884922298364</v>
       </c>
       <c r="H13">
-        <v>45.8</v>
+        <v>44</v>
       </c>
       <c r="I13">
-        <v>13083.18872938863</v>
+        <v>506711.8237420782</v>
       </c>
       <c r="J13">
-        <v>47.02640862083005</v>
+        <v>387.7334639901563</v>
       </c>
       <c r="K13">
         <v>4</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M13">
-        <v>1857.997436523437</v>
+        <v>2179.08642578125</v>
       </c>
       <c r="N13">
-        <v>34.0372428894043</v>
+        <v>37.76519775390625</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -3860,43 +5340,43 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C14">
-        <v>17874.70756835938</v>
+        <v>281447.9738037109</v>
       </c>
       <c r="D14">
-        <v>101.3168479919434</v>
+        <v>294.61123046875</v>
       </c>
       <c r="E14">
-        <v>0.08407860852518058</v>
+        <v>0.2531564715951338</v>
       </c>
       <c r="F14">
-        <v>121.5076758113571</v>
+        <v>311.7865023487419</v>
       </c>
       <c r="G14">
-        <v>-0.8044185733771698</v>
+        <v>-14.06556280511868</v>
       </c>
       <c r="H14">
-        <v>45.4</v>
+        <v>62</v>
       </c>
       <c r="I14">
-        <v>13356.3156546119</v>
+        <v>600372.0068541642</v>
       </c>
       <c r="J14">
-        <v>45.37959605254039</v>
+        <v>481.0647151311128</v>
       </c>
       <c r="K14">
         <v>4</v>
       </c>
       <c r="L14">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="M14">
-        <v>2750.854736328125</v>
+        <v>872.1038818359375</v>
       </c>
       <c r="N14">
-        <v>43.00136947631836</v>
+        <v>21.83354949951172</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -3904,43 +5384,43 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C15">
-        <v>17309.0966796875</v>
+        <v>281719.8590332031</v>
       </c>
       <c r="D15">
-        <v>99.65888366699218</v>
+        <v>295.5029945373535</v>
       </c>
       <c r="E15">
-        <v>0.08291185445240096</v>
+        <v>0.2532382431095202</v>
       </c>
       <c r="F15">
-        <v>118.4446996862811</v>
+        <v>313.4481101268698</v>
       </c>
       <c r="G15">
-        <v>-0.6244068895949388</v>
+        <v>-14.08817841855181</v>
       </c>
       <c r="H15">
-        <v>46.4</v>
+        <v>41.4</v>
       </c>
       <c r="I15">
-        <v>13809.75730634846</v>
+        <v>600515.58502338</v>
       </c>
       <c r="J15">
-        <v>48.63033534958917</v>
+        <v>480.5751925192415</v>
       </c>
       <c r="K15">
         <v>4</v>
       </c>
       <c r="L15">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="M15">
-        <v>2051.1845703125</v>
+        <v>921.409912109375</v>
       </c>
       <c r="N15">
-        <v>36.03989410400391</v>
+        <v>23.13956069946289</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -3948,43 +5428,43 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C16">
-        <v>18186.54780273437</v>
+        <v>283190.5722167969</v>
       </c>
       <c r="D16">
-        <v>102.2561447143555</v>
+        <v>299.6170753479004</v>
       </c>
       <c r="E16">
-        <v>0.08455213786268848</v>
+        <v>0.2557734162640911</v>
       </c>
       <c r="F16">
-        <v>122.7196047188543</v>
+        <v>317.0945707651275</v>
       </c>
       <c r="G16">
-        <v>-0.9416200330933536</v>
+        <v>-14.17584818363484</v>
       </c>
       <c r="H16">
-        <v>43.6</v>
+        <v>44.6</v>
       </c>
       <c r="I16">
-        <v>13697.03630805321</v>
+        <v>599820.0118167946</v>
       </c>
       <c r="J16">
-        <v>45.6953950419681</v>
+        <v>479.0025754474785</v>
       </c>
       <c r="K16">
         <v>4</v>
       </c>
       <c r="L16">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="M16">
-        <v>3312.825439453125</v>
+        <v>896.849853515625</v>
       </c>
       <c r="N16">
-        <v>45.48360443115234</v>
+        <v>22.6485710144043</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -3992,43 +5472,43 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C17">
-        <v>17305.3357421875</v>
+        <v>241032.9695800781</v>
       </c>
       <c r="D17">
-        <v>100.2679992675781</v>
+        <v>261.5955703735352</v>
       </c>
       <c r="E17">
-        <v>0.0834621354236819</v>
+        <v>0.2168588424233568</v>
       </c>
       <c r="F17">
-        <v>119.2331128663682</v>
+        <v>299.9933920661749</v>
       </c>
       <c r="G17">
-        <v>-0.6865496615227942</v>
+        <v>-12.14116797117067</v>
       </c>
       <c r="H17">
-        <v>44.2</v>
+        <v>42.8</v>
       </c>
       <c r="I17">
-        <v>13532.1334376976</v>
+        <v>506685.3992278328</v>
       </c>
       <c r="J17">
-        <v>48.02863083821813</v>
+        <v>387.113776486062</v>
       </c>
       <c r="K17">
         <v>4</v>
       </c>
       <c r="L17">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>2329.98046875</v>
+        <v>2388.959228515625</v>
       </c>
       <c r="N17">
-        <v>38.41191101074219</v>
+        <v>39.48907470703125</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -4036,31 +5516,31 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C18">
-        <v>188098.4690429688</v>
+        <v>240811.9713867187</v>
       </c>
       <c r="D18">
-        <v>216.6726196289063</v>
+        <v>261.6705993652344</v>
       </c>
       <c r="E18">
-        <v>0.1737535516920082</v>
+        <v>0.2168028790105617</v>
       </c>
       <c r="F18">
-        <v>274.3724539398993</v>
+        <v>299.5606938890154</v>
       </c>
       <c r="G18">
-        <v>-9.456339869305289</v>
+        <v>-12.1998105049058</v>
       </c>
       <c r="H18">
-        <v>44.2</v>
+        <v>42.6</v>
       </c>
       <c r="I18">
-        <v>387279.3718838411</v>
+        <v>506722.6312068299</v>
       </c>
       <c r="J18">
-        <v>285.4214994789709</v>
+        <v>387.0493131679724</v>
       </c>
       <c r="K18">
         <v>4</v>
@@ -4069,10 +5549,10 @@
         <v>26</v>
       </c>
       <c r="M18">
-        <v>2813.86328125</v>
+        <v>2434.24072265625</v>
       </c>
       <c r="N18">
-        <v>43.11941528320312</v>
+        <v>40.22628784179688</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -4080,43 +5560,43 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C19">
-        <v>16554.37016601563</v>
+        <v>282787.3256347656</v>
       </c>
       <c r="D19">
-        <v>97.22619018554687</v>
+        <v>301.9451049804687</v>
       </c>
       <c r="E19">
-        <v>0.0805489379555808</v>
+        <v>0.2582921730209171</v>
       </c>
       <c r="F19">
-        <v>116.614765522297</v>
+        <v>319.3680566658517</v>
       </c>
       <c r="G19">
-        <v>-0.6262101272837313</v>
+        <v>-14.60178562602793</v>
       </c>
       <c r="H19">
-        <v>43.2</v>
+        <v>38</v>
       </c>
       <c r="I19">
-        <v>13084.77940362192</v>
+        <v>600027.5107185695</v>
       </c>
       <c r="J19">
-        <v>46.21080464633214</v>
+        <v>476.605595631367</v>
       </c>
       <c r="K19">
         <v>4</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>2313.165771484375</v>
+        <v>3145.705810546875</v>
       </c>
       <c r="N19">
-        <v>38.63784790039063</v>
+        <v>44.84101867675781</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -4124,43 +5604,483 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="C20">
-        <v>278512.8047607422</v>
+        <v>283130.6591308594</v>
       </c>
       <c r="D20">
-        <v>314.910107421875</v>
+        <v>303.4238693237305</v>
       </c>
       <c r="E20">
-        <v>0.2332742300131548</v>
+        <v>0.2578308252169413</v>
       </c>
       <c r="F20">
-        <v>376.3183003137893</v>
+        <v>319.0972150739424</v>
       </c>
       <c r="G20">
-        <v>-13.9144606641385</v>
+        <v>-14.34315406278752</v>
       </c>
       <c r="H20">
-        <v>73.40000000000001</v>
+        <v>56.6</v>
       </c>
       <c r="I20">
-        <v>372507.0857634379</v>
+        <v>599459.3987464912</v>
       </c>
       <c r="J20">
-        <v>358.5167649346088</v>
+        <v>476.3608705592716</v>
       </c>
       <c r="K20">
         <v>4</v>
       </c>
       <c r="L20">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="M20">
-        <v>1259.363647460938</v>
+        <v>1684.415283203125</v>
       </c>
       <c r="N20">
-        <v>26.47322845458984</v>
+        <v>33.38700103759766</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>265417.2272949219</v>
+      </c>
+      <c r="D21">
+        <v>286.3255004882812</v>
+      </c>
+      <c r="E21">
+        <v>0.2417002176885617</v>
+      </c>
+      <c r="F21">
+        <v>312.5173453069389</v>
+      </c>
+      <c r="G21">
+        <v>-13.56172908952199</v>
+      </c>
+      <c r="H21">
+        <v>44.2</v>
+      </c>
+      <c r="I21">
+        <v>560043.3072781723</v>
+      </c>
+      <c r="J21">
+        <v>438.4012857779586</v>
+      </c>
+      <c r="K21">
+        <v>4</v>
+      </c>
+      <c r="L21">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>2849.918701171875</v>
+      </c>
+      <c r="N21">
+        <v>42.65061950683594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>282426.8038085938</v>
+      </c>
+      <c r="D22">
+        <v>300.0389686584473</v>
+      </c>
+      <c r="E22">
+        <v>0.2562246239998254</v>
+      </c>
+      <c r="F22">
+        <v>317.3700547536423</v>
+      </c>
+      <c r="G22">
+        <v>-14.36711352390028</v>
+      </c>
+      <c r="H22">
+        <v>53.2</v>
+      </c>
+      <c r="I22">
+        <v>599846.7509823636</v>
+      </c>
+      <c r="J22">
+        <v>477.7657729049382</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>27</v>
+      </c>
+      <c r="M22">
+        <v>2063.064453125</v>
+      </c>
+      <c r="N22">
+        <v>36.02706527709961</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>283271.441015625</v>
+      </c>
+      <c r="D23">
+        <v>300.4398071289062</v>
+      </c>
+      <c r="E23">
+        <v>0.2569236439108257</v>
+      </c>
+      <c r="F23">
+        <v>318.7608867779601</v>
+      </c>
+      <c r="G23">
+        <v>-14.27178463405754</v>
+      </c>
+      <c r="H23">
+        <v>41.6</v>
+      </c>
+      <c r="I23">
+        <v>599717.2070614689</v>
+      </c>
+      <c r="J23">
+        <v>478.1356184526147</v>
+      </c>
+      <c r="K23">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23">
+        <v>1068.029296875</v>
+      </c>
+      <c r="N23">
+        <v>24.87616729736328</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>428957.2560546875</v>
+      </c>
+      <c r="D24">
+        <v>440.6962993621826</v>
+      </c>
+      <c r="E24">
+        <v>0.3512122842045254</v>
+      </c>
+      <c r="F24">
+        <v>454.0992369594564</v>
+      </c>
+      <c r="G24">
+        <v>-21.68756459703359</v>
+      </c>
+      <c r="H24">
+        <v>56.4</v>
+      </c>
+      <c r="I24">
+        <v>613219.4408201773</v>
+      </c>
+      <c r="J24">
+        <v>526.2705489632888</v>
+      </c>
+      <c r="K24">
+        <v>4</v>
+      </c>
+      <c r="L24">
+        <v>81</v>
+      </c>
+      <c r="M24">
+        <v>1049.8203125</v>
+      </c>
+      <c r="N24">
+        <v>24.77370262145996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>720350.4338134766</v>
+      </c>
+      <c r="D25">
+        <v>663.8956848144531</v>
+      </c>
+      <c r="E25">
+        <v>0.5099047291491152</v>
+      </c>
+      <c r="F25">
+        <v>675.0621858679349</v>
+      </c>
+      <c r="G25">
+        <v>-84.01974895032727</v>
+      </c>
+      <c r="H25">
+        <v>45.2</v>
+      </c>
+      <c r="I25">
+        <v>720710.9312417844</v>
+      </c>
+      <c r="J25">
+        <v>576.2974149720816</v>
+      </c>
+      <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>68</v>
+      </c>
+      <c r="M25">
+        <v>1079.973754882812</v>
+      </c>
+      <c r="N25">
+        <v>25.31052398681641</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26">
+        <v>414594.5208251953</v>
+      </c>
+      <c r="D26">
+        <v>433.1107208251953</v>
+      </c>
+      <c r="E26">
+        <v>0.3457456006641577</v>
+      </c>
+      <c r="F26">
+        <v>445.6214293077031</v>
+      </c>
+      <c r="G26">
+        <v>-21.12570228355523</v>
+      </c>
+      <c r="H26">
+        <v>70.8</v>
+      </c>
+      <c r="I26">
+        <v>604182.2991707267</v>
+      </c>
+      <c r="J26">
+        <v>516.77246609485</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
+      <c r="L26">
+        <v>51</v>
+      </c>
+      <c r="M26">
+        <v>1610.034790039062</v>
+      </c>
+      <c r="N26">
+        <v>32.58957672119141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>457189.0026611328</v>
+      </c>
+      <c r="D27">
+        <v>469.984016418457</v>
+      </c>
+      <c r="E27">
+        <v>0.3720247963224274</v>
+      </c>
+      <c r="F27">
+        <v>486.9150864643944</v>
+      </c>
+      <c r="G27">
+        <v>-24.16229241193231</v>
+      </c>
+      <c r="H27">
+        <v>69.59999999999999</v>
+      </c>
+      <c r="I27">
+        <v>625659.5101098996</v>
+      </c>
+      <c r="J27">
+        <v>519.0125745691229</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="L27">
+        <v>51</v>
+      </c>
+      <c r="M27">
+        <v>1742.762329101562</v>
+      </c>
+      <c r="N27">
+        <v>33.7850341796875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>435968.3409179688</v>
+      </c>
+      <c r="D28">
+        <v>444.4046394348144</v>
+      </c>
+      <c r="E28">
+        <v>0.3542119204349997</v>
+      </c>
+      <c r="F28">
+        <v>457.1665980669553</v>
+      </c>
+      <c r="G28">
+        <v>-22.05763401026959</v>
+      </c>
+      <c r="H28">
+        <v>58</v>
+      </c>
+      <c r="I28">
+        <v>618356.3883614686</v>
+      </c>
+      <c r="J28">
+        <v>530.3658436465095</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>78</v>
+      </c>
+      <c r="M28">
+        <v>1026.681640625</v>
+      </c>
+      <c r="N28">
+        <v>24.83317184448243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>434080.1959472656</v>
+      </c>
+      <c r="D29">
+        <v>452.9351970672607</v>
+      </c>
+      <c r="E29">
+        <v>0.3617436132228173</v>
+      </c>
+      <c r="F29">
+        <v>466.0923919377514</v>
+      </c>
+      <c r="G29">
+        <v>-22.19000058474969</v>
+      </c>
+      <c r="H29">
+        <v>75.2</v>
+      </c>
+      <c r="I29">
+        <v>611223.8736908236</v>
+      </c>
+      <c r="J29">
+        <v>517.9536695533073</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>64</v>
+      </c>
+      <c r="M29">
+        <v>1142.924560546875</v>
+      </c>
+      <c r="N29">
+        <v>26.19949913024902</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <v>436303.6000732422</v>
+      </c>
+      <c r="D30">
+        <v>446.613850402832</v>
+      </c>
+      <c r="E30">
+        <v>0.3556940880868246</v>
+      </c>
+      <c r="F30">
+        <v>459.0319362567681</v>
+      </c>
+      <c r="G30">
+        <v>-22.24654243845158</v>
+      </c>
+      <c r="H30">
+        <v>75</v>
+      </c>
+      <c r="I30">
+        <v>618028.0255906337</v>
+      </c>
+      <c r="J30">
+        <v>527.8716380783974</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>56</v>
+      </c>
+      <c r="M30">
+        <v>1609.181030273438</v>
+      </c>
+      <c r="N30">
+        <v>32.52344512939453</v>
       </c>
     </row>
   </sheetData>

--- a/Eksperimen 6/ADMR/training_results_with_epoch.xlsx
+++ b/Eksperimen 6/ADMR/training_results_with_epoch.xlsx
@@ -1,16 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\Code\Eksperimen 6\ADMR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E509A2-0A3A-4578-A4D4-4F97D3192F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PerFold" sheetId="1" r:id="rId1"/>
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -158,8 +177,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,12 +195,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -211,24 +236,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -266,7 +300,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -300,6 +334,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -334,9 +369,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -509,14 +545,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I146"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I80" sqref="A80:I80"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="6.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -545,7 +591,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -562,19 +608,19 @@
         <v>879904.75</v>
       </c>
       <c r="F2">
-        <v>904.4273071289062</v>
+        <v>904.42730712890625</v>
       </c>
       <c r="G2">
-        <v>0.6212520295976385</v>
+        <v>0.62125202959763848</v>
       </c>
       <c r="H2">
-        <v>932.398645281944</v>
+        <v>932.39864528194403</v>
       </c>
       <c r="I2">
-        <v>-44.51151808108139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-44.511518081081391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -594,7 +640,7 @@
         <v>1151.699584960938</v>
       </c>
       <c r="G3">
-        <v>0.9995399199488648</v>
+        <v>0.99953991994886482</v>
       </c>
       <c r="H3">
         <v>1160.889120867877</v>
@@ -603,7 +649,7 @@
         <v>-68.87412729021267</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -620,19 +666,19 @@
         <v>34687.859375</v>
       </c>
       <c r="F4">
-        <v>165.8987274169922</v>
+        <v>165.89872741699219</v>
       </c>
       <c r="G4">
-        <v>0.1159119875079234</v>
+        <v>0.11591198750792341</v>
       </c>
       <c r="H4">
-        <v>180.7779937542386</v>
+        <v>180.77799375423859</v>
       </c>
       <c r="I4">
         <v>-6.087107191829193</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -652,16 +698,16 @@
         <v>33.7850341796875</v>
       </c>
       <c r="G5">
-        <v>0.0256635375762734</v>
+        <v>2.5663537576273401E-2</v>
       </c>
       <c r="H5">
-        <v>40.59198018226814</v>
+        <v>40.591980182268138</v>
       </c>
       <c r="I5">
-        <v>-0.7671252983791276</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>-0.76712529837912757</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -678,19 +724,19 @@
         <v>14896.5166015625</v>
       </c>
       <c r="F6">
-        <v>94.10942840576172</v>
+        <v>94.109428405761719</v>
       </c>
       <c r="G6">
-        <v>0.0977565069814369</v>
+        <v>9.7756506981436897E-2</v>
       </c>
       <c r="H6">
-        <v>119.9176922356446</v>
+        <v>119.91769223564459</v>
       </c>
       <c r="I6">
-        <v>-0.5715841981591908</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>-0.57158419815919081</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -710,16 +756,20 @@
         <v>929.58544921875</v>
       </c>
       <c r="G7">
-        <v>0.6403541358251723</v>
+        <v>0.64035413582517231</v>
       </c>
       <c r="H7">
-        <v>941.020512801635</v>
+        <v>941.02051280163505</v>
       </c>
       <c r="I7">
-        <v>-44.56769243135543</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>-44.567692431355432</v>
+      </c>
+      <c r="K7">
+        <f>MAX(I2:I146)</f>
+        <v>0.10317952574885771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -739,16 +789,16 @@
         <v>1151.703979492188</v>
       </c>
       <c r="G8">
-        <v>0.99954513889292</v>
+        <v>0.99954513889291996</v>
       </c>
       <c r="H8">
-        <v>1160.893718583087</v>
+        <v>1160.8937185830871</v>
       </c>
       <c r="I8">
-        <v>-68.87600651796362</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>-68.876006517963617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -765,19 +815,19 @@
         <v>7293.42626953125</v>
       </c>
       <c r="F9">
-        <v>71.39772796630859</v>
+        <v>71.397727966308594</v>
       </c>
       <c r="G9">
-        <v>0.0501076056708661</v>
+        <v>5.0107605670866098E-2</v>
       </c>
       <c r="H9">
-        <v>83.56663743393268</v>
+        <v>83.566637433932684</v>
       </c>
       <c r="I9">
-        <v>-0.4308562622341126</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>-0.43085626223411261</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -797,16 +847,16 @@
         <v>27.42567253112793</v>
       </c>
       <c r="G10">
-        <v>0.0208418022391899</v>
+        <v>2.08418022391899E-2</v>
       </c>
       <c r="H10">
-        <v>34.05900739966488</v>
+        <v>34.059007399664878</v>
       </c>
       <c r="I10">
-        <v>-0.2091571903731188</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>-0.20915719037311881</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -823,19 +873,19 @@
         <v>14366.8125</v>
       </c>
       <c r="F11">
-        <v>96.39735412597656</v>
+        <v>96.397354125976563</v>
       </c>
       <c r="G11">
-        <v>0.0966406230506025</v>
+        <v>9.6640623050602503E-2</v>
       </c>
       <c r="H11">
         <v>117.9546034696487</v>
       </c>
       <c r="I11">
-        <v>-0.5166777058921563</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>-0.51667770589215634</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -852,19 +902,19 @@
         <v>846020.0625</v>
       </c>
       <c r="F12">
-        <v>903.6458129882812</v>
+        <v>903.64581298828125</v>
       </c>
       <c r="G12">
-        <v>0.6216703560798514</v>
+        <v>0.62167035607985144</v>
       </c>
       <c r="H12">
-        <v>915.4656639395604</v>
+        <v>915.46566393956039</v>
       </c>
       <c r="I12">
-        <v>-42.48620661619482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>-42.486206616194821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -884,16 +934,16 @@
         <v>1151.6982421875</v>
       </c>
       <c r="G13">
-        <v>0.9995400268634806</v>
+        <v>0.99954002686348065</v>
       </c>
       <c r="H13">
-        <v>1160.887934414587</v>
+        <v>1160.8879344145871</v>
       </c>
       <c r="I13">
-        <v>-68.8748881589747</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>-68.874888158974699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -910,10 +960,10 @@
         <v>7108.88232421875</v>
       </c>
       <c r="F14">
-        <v>72.89147186279297</v>
+        <v>72.891471862792969</v>
       </c>
       <c r="G14">
-        <v>0.0517608314277006</v>
+        <v>5.1760831427700597E-2</v>
       </c>
       <c r="H14">
         <v>83.77216913186308</v>
@@ -922,7 +972,7 @@
         <v>-0.4812478358330301</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -939,19 +989,19 @@
         <v>3542.773193359375</v>
       </c>
       <c r="F15">
-        <v>48.01456832885742</v>
+        <v>48.014568328857422</v>
       </c>
       <c r="G15">
-        <v>0.0359870261600229</v>
+        <v>3.5987026160022903E-2</v>
       </c>
       <c r="H15">
-        <v>54.03562635773154</v>
+        <v>54.035626357731537</v>
       </c>
       <c r="I15">
-        <v>-2.423544441212453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>-2.4235444412124529</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -974,13 +1024,13 @@
         <v>0.1014613892669142</v>
       </c>
       <c r="H16">
-        <v>123.0580243430961</v>
+        <v>123.05802434309609</v>
       </c>
       <c r="I16">
-        <v>-0.6995815453886864</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>-0.69958154538868644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1000,16 +1050,16 @@
         <v>877.0704345703125</v>
       </c>
       <c r="G17">
-        <v>0.6019995672480234</v>
+        <v>0.60199956724802339</v>
       </c>
       <c r="H17">
-        <v>889.3528406419717</v>
+        <v>889.35284064197174</v>
       </c>
       <c r="I17">
-        <v>-40.57142417734647</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>-40.571424177346472</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1032,13 +1082,13 @@
         <v>0.9995450626693938</v>
       </c>
       <c r="H18">
-        <v>1160.893827295144</v>
+        <v>1160.8938272951441</v>
       </c>
       <c r="I18">
-        <v>-68.87600697760553</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>-68.876006977605527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1058,16 +1108,16 @@
         <v>71.25823974609375</v>
       </c>
       <c r="G19">
-        <v>0.0507686492174014</v>
+        <v>5.0768649217401401E-2</v>
       </c>
       <c r="H19">
         <v>82.80659136506749</v>
       </c>
       <c r="I19">
-        <v>-0.4485719122258743</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>-0.44857191222587428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1084,19 +1134,19 @@
         <v>1609.181030273438</v>
       </c>
       <c r="F20">
-        <v>32.52344512939453</v>
+        <v>32.523445129394531</v>
       </c>
       <c r="G20">
-        <v>0.024813402059425</v>
+        <v>2.4813402059425001E-2</v>
       </c>
       <c r="H20">
-        <v>39.03641504072145</v>
+        <v>39.036415040721451</v>
       </c>
       <c r="I20">
-        <v>-0.6497193114086398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>-0.64971931140863981</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1116,16 +1166,16 @@
         <v>100.5129089355469</v>
       </c>
       <c r="G21">
-        <v>0.1013437592398791</v>
+        <v>0.10134375923987909</v>
       </c>
       <c r="H21">
         <v>123.0700069409357</v>
       </c>
       <c r="I21">
-        <v>-0.6869898136713647</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>-0.68698981367136469</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1142,19 +1192,19 @@
         <v>751064.4375</v>
       </c>
       <c r="F22">
-        <v>848.7429809570312</v>
+        <v>848.74298095703125</v>
       </c>
       <c r="G22">
-        <v>0.5826893442391033</v>
+        <v>0.58268934423910335</v>
       </c>
       <c r="H22">
-        <v>861.3679092895155</v>
+        <v>861.36790928951552</v>
       </c>
       <c r="I22">
-        <v>-37.7980997377052</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>-37.798099737705201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1174,16 +1224,16 @@
         <v>1151.684204101562</v>
       </c>
       <c r="G23">
-        <v>0.9995283368112148</v>
+        <v>0.99952833681121478</v>
       </c>
       <c r="H23">
         <v>1160.873973557053</v>
       </c>
       <c r="I23">
-        <v>-68.87342285518834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>-68.873422855188338</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1200,19 +1250,19 @@
         <v>37551.6953125</v>
       </c>
       <c r="F24">
-        <v>165.0695343017578</v>
+        <v>165.06953430175781</v>
       </c>
       <c r="G24">
         <v>0.1165466192314074</v>
       </c>
       <c r="H24">
-        <v>191.1316209782528</v>
+        <v>191.13162097825281</v>
       </c>
       <c r="I24">
-        <v>-6.757948694988354</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>-6.7579486949883538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1226,22 +1276,22 @@
         <v>73</v>
       </c>
       <c r="E25">
-        <v>941.2077026367188</v>
+        <v>941.20770263671875</v>
       </c>
       <c r="F25">
-        <v>24.16853332519531</v>
+        <v>24.168533325195309</v>
       </c>
       <c r="G25">
-        <v>0.0184110725712925</v>
+        <v>1.84110725712925E-2</v>
       </c>
       <c r="H25">
         <v>30.41795475841861</v>
       </c>
       <c r="I25">
-        <v>0.0393050696659082</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>3.9305069665908202E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1261,16 +1311,16 @@
         <v>104.7834014892578</v>
       </c>
       <c r="G26">
-        <v>0.1078446987869466</v>
+        <v>0.10784469878694659</v>
       </c>
       <c r="H26">
         <v>127.182589720354</v>
       </c>
       <c r="I26">
-        <v>-0.7334576953408835</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>-0.73345769534088345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1287,19 +1337,19 @@
         <v>765530.6875</v>
       </c>
       <c r="F27">
-        <v>858.3088989257812</v>
+        <v>858.30889892578125</v>
       </c>
       <c r="G27">
-        <v>0.5899213952499142</v>
+        <v>0.58992139524991416</v>
       </c>
       <c r="H27">
-        <v>870.7308783457134</v>
+        <v>870.73087834571345</v>
       </c>
       <c r="I27">
-        <v>-38.1721981257078</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>-38.172198125707801</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1319,16 +1369,16 @@
         <v>1152.120361328125</v>
       </c>
       <c r="G28">
-        <v>0.9999134419004096</v>
+        <v>0.99991344190040965</v>
       </c>
       <c r="H28">
         <v>1161.306957753543</v>
       </c>
       <c r="I28">
-        <v>-68.92723302939646</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>-68.927233029396461</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1345,19 +1395,19 @@
         <v>9029.75390625</v>
       </c>
       <c r="F29">
-        <v>78.62372589111328</v>
+        <v>78.623725891113281</v>
       </c>
       <c r="G29">
-        <v>0.0548294340893723</v>
+        <v>5.4829434089372298E-2</v>
       </c>
       <c r="H29">
-        <v>91.3973007319662</v>
+        <v>91.397300731966197</v>
       </c>
       <c r="I29">
-        <v>-0.8340109291942404</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>-0.83401092919424036</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1374,19 +1424,19 @@
         <v>1049.8203125</v>
       </c>
       <c r="F30">
-        <v>24.77370262145996</v>
+        <v>24.773702621459961</v>
       </c>
       <c r="G30">
-        <v>0.0188723110087828</v>
+        <v>1.88723110087828E-2</v>
       </c>
       <c r="H30">
-        <v>32.33391559393923</v>
+        <v>32.333915593939231</v>
       </c>
       <c r="I30">
-        <v>-0.0810778953782884</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>-8.1077895378288398E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1403,19 +1453,19 @@
         <v>13494.6435546875</v>
       </c>
       <c r="F31">
-        <v>89.65480804443359</v>
+        <v>89.654808044433594</v>
       </c>
       <c r="G31">
-        <v>0.09252483877414799</v>
+        <v>9.2524838774147994E-2</v>
       </c>
       <c r="H31">
         <v>114.7271323721201</v>
       </c>
       <c r="I31">
-        <v>-0.4233030054911299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>-0.42330300549112992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -1435,16 +1485,16 @@
         <v>877.7149658203125</v>
       </c>
       <c r="G32">
-        <v>0.6031667894882362</v>
+        <v>0.60316678948823621</v>
       </c>
       <c r="H32">
-        <v>889.9124672555571</v>
+        <v>889.91246725555709</v>
       </c>
       <c r="I32">
-        <v>-40.22292751540451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>-40.222927515404507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -1464,16 +1514,16 @@
         <v>1152.142578125</v>
       </c>
       <c r="G33">
-        <v>0.9999334826889394</v>
+        <v>0.99993348268893945</v>
       </c>
       <c r="H33">
-        <v>1161.329055689784</v>
+        <v>1161.3290556897839</v>
       </c>
       <c r="I33">
-        <v>-68.92977956140591</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>-68.929779561405908</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -1490,19 +1540,19 @@
         <v>7796.28662109375</v>
       </c>
       <c r="F34">
-        <v>73.75961303710938</v>
+        <v>73.759613037109375</v>
       </c>
       <c r="G34">
-        <v>0.0520354835419035</v>
+        <v>5.2035483541903502E-2</v>
       </c>
       <c r="H34">
-        <v>84.73939837031713</v>
+        <v>84.739398370317133</v>
       </c>
       <c r="I34">
-        <v>-0.5796436497747967</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>-0.57964364977479665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>9</v>
       </c>
@@ -1519,19 +1569,19 @@
         <v>1026.681640625</v>
       </c>
       <c r="F35">
-        <v>24.83317184448243</v>
+        <v>24.833171844482429</v>
       </c>
       <c r="G35">
-        <v>0.0189724633003955</v>
+        <v>1.8972463300395499E-2</v>
       </c>
       <c r="H35">
         <v>31.91653044730009</v>
       </c>
       <c r="I35">
-        <v>-0.053306256847883</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>-5.3306256847883003E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1548,19 +1598,19 @@
         <v>14334.611328125</v>
       </c>
       <c r="F36">
-        <v>93.57286834716795</v>
+        <v>93.572868347167955</v>
       </c>
       <c r="G36">
-        <v>0.0969513831555239</v>
+        <v>9.6951383155523901E-2</v>
       </c>
       <c r="H36">
         <v>117.935538571818</v>
       </c>
       <c r="I36">
-        <v>-0.502513067914869</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>-0.50251306791486905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1577,19 +1627,19 @@
         <v>774718.25</v>
       </c>
       <c r="F37">
-        <v>862.2145385742188</v>
+        <v>862.21453857421875</v>
       </c>
       <c r="G37">
-        <v>0.5919536363196007</v>
+        <v>0.59195363631960074</v>
       </c>
       <c r="H37">
-        <v>874.6599371759414</v>
+        <v>874.65993717594142</v>
       </c>
       <c r="I37">
         <v>-38.95426691328975</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>9</v>
       </c>
@@ -1609,16 +1659,16 @@
         <v>1151.69384765625</v>
       </c>
       <c r="G38">
-        <v>0.999535774971066</v>
+        <v>0.99953577497106605</v>
       </c>
       <c r="H38">
-        <v>1160.883696110715</v>
+        <v>1160.8836961107149</v>
       </c>
       <c r="I38">
-        <v>-68.87520712482655</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>-68.875207124826545</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1635,19 +1685,19 @@
         <v>7340.19189453125</v>
       </c>
       <c r="F39">
-        <v>72.65438842773438</v>
+        <v>72.654388427734375</v>
       </c>
       <c r="G39">
-        <v>0.0516303153834829</v>
+        <v>5.1630315383482901E-2</v>
       </c>
       <c r="H39">
-        <v>84.15328875436909</v>
+        <v>84.153288754369086</v>
       </c>
       <c r="I39">
-        <v>-0.4640618682305996</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>-0.46406186823059958</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1667,16 +1717,16 @@
         <v>26.19949913024902</v>
       </c>
       <c r="G40">
-        <v>0.0200140296361504</v>
+        <v>2.0014029636150399E-2</v>
       </c>
       <c r="H40">
         <v>33.22661822579542</v>
       </c>
       <c r="I40">
-        <v>-0.1636484120255197</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>-0.16364841202551969</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1693,19 +1743,19 @@
         <v>32501.61328125</v>
       </c>
       <c r="F41">
-        <v>151.9137115478516</v>
+        <v>151.91371154785159</v>
       </c>
       <c r="G41">
-        <v>0.1455843098037864</v>
+        <v>0.14558430980378639</v>
       </c>
       <c r="H41">
-        <v>177.5384194219357</v>
+        <v>177.53841942193571</v>
       </c>
       <c r="I41">
-        <v>-2.492818605376037</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>-2.4928186053760371</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1725,7 +1775,7 @@
         <v>1429.268188476562</v>
       </c>
       <c r="G42">
-        <v>0.991684649961418</v>
+        <v>0.99168464996141803</v>
       </c>
       <c r="H42">
         <v>1436.609200513602</v>
@@ -1734,7 +1784,7 @@
         <v>-104.3187990232564</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1754,16 +1804,16 @@
         <v>1151.6845703125</v>
       </c>
       <c r="G43">
-        <v>0.9995277524818608</v>
+        <v>0.99952775248186077</v>
       </c>
       <c r="H43">
-        <v>1160.874394056863</v>
+        <v>1160.8743940568629</v>
       </c>
       <c r="I43">
-        <v>-68.87323551868889</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>-68.873235518688887</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1783,16 +1833,16 @@
         <v>79.4654541015625</v>
       </c>
       <c r="G44">
-        <v>0.0557196497778966</v>
+        <v>5.5719649777896597E-2</v>
       </c>
       <c r="H44">
-        <v>92.63624209193364</v>
+        <v>92.636242091933639</v>
       </c>
       <c r="I44">
-        <v>-0.8170862252537204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>-0.81708622525372043</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1809,19 +1859,19 @@
         <v>1317.301879882812</v>
       </c>
       <c r="F45">
-        <v>28.53409767150879</v>
+        <v>28.534097671508789</v>
       </c>
       <c r="G45">
-        <v>0.0216120845919357</v>
+        <v>2.1612084591935699E-2</v>
       </c>
       <c r="H45">
-        <v>35.6714849266982</v>
+        <v>35.671484926698199</v>
       </c>
       <c r="I45">
-        <v>-0.3576506614018173</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>-0.35765066140181728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1841,16 +1891,16 @@
         <v>94.6109619140625</v>
       </c>
       <c r="G46">
-        <v>0.09633757170392521</v>
+        <v>9.6337571703925207E-2</v>
       </c>
       <c r="H46">
-        <v>117.3962273365781</v>
+        <v>117.39622733657809</v>
       </c>
       <c r="I46">
-        <v>-0.5061913063776516</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>-0.50619130637765164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>9</v>
       </c>
@@ -1870,16 +1920,16 @@
         <v>833.8057861328125</v>
       </c>
       <c r="G47">
-        <v>0.5723073469194565</v>
+        <v>0.57230734691945651</v>
       </c>
       <c r="H47">
-        <v>846.6449828789059</v>
+        <v>846.64498287890592</v>
       </c>
       <c r="I47">
-        <v>-36.23391684337639</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>-36.233916843376392</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -1899,16 +1949,16 @@
         <v>1151.670288085938</v>
       </c>
       <c r="G48">
-        <v>0.9995141312305028</v>
+        <v>0.99951413123050281</v>
       </c>
       <c r="H48">
         <v>1160.86032095732</v>
       </c>
       <c r="I48">
-        <v>-68.87158557633425</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>-68.871585576334255</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>9</v>
       </c>
@@ -1925,19 +1975,19 @@
         <v>6910.53466796875</v>
       </c>
       <c r="F49">
-        <v>70.92422485351562</v>
+        <v>70.924224853515625</v>
       </c>
       <c r="G49">
-        <v>0.0506728222873465</v>
+        <v>5.06728222873465E-2</v>
       </c>
       <c r="H49">
-        <v>82.30058189412752</v>
+        <v>82.300581894127518</v>
       </c>
       <c r="I49">
         <v>-0.4373836611452418</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1954,19 +2004,19 @@
         <v>2047.919921875</v>
       </c>
       <c r="F50">
-        <v>36.81857681274414</v>
+        <v>36.818576812744141</v>
       </c>
       <c r="G50">
-        <v>0.0280752253966853</v>
+        <v>2.8075225396685301E-2</v>
       </c>
       <c r="H50">
-        <v>43.66115281163297</v>
+        <v>43.661152811632967</v>
       </c>
       <c r="I50">
         <v>-1.169189963749806</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>9</v>
       </c>
@@ -1983,19 +2033,19 @@
         <v>13416.4658203125</v>
       </c>
       <c r="F51">
-        <v>90.57376861572266</v>
+        <v>90.573768615722656</v>
       </c>
       <c r="G51">
-        <v>0.09326624684702629</v>
+        <v>9.3266246847026293E-2</v>
       </c>
       <c r="H51">
         <v>114.8849303336312</v>
       </c>
       <c r="I51">
-        <v>-0.4117094310895322</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>-0.41170943108953217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>9</v>
       </c>
@@ -2012,19 +2062,19 @@
         <v>698821.375</v>
       </c>
       <c r="F52">
-        <v>818.7391967773438</v>
+        <v>818.73919677734375</v>
       </c>
       <c r="G52">
-        <v>0.5621080833170501</v>
+        <v>0.56210808331705009</v>
       </c>
       <c r="H52">
-        <v>831.7752130503166</v>
+        <v>831.77521305031655</v>
       </c>
       <c r="I52">
-        <v>-34.87275251837902</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>-34.872752518379023</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -2044,16 +2094,16 @@
         <v>1151.665405273438</v>
       </c>
       <c r="G53">
-        <v>0.9995097622894188</v>
+        <v>0.99950976228941879</v>
       </c>
       <c r="H53">
-        <v>1160.855220779175</v>
+        <v>1160.8552207791749</v>
       </c>
       <c r="I53">
         <v>-68.87026840045246</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>9</v>
       </c>
@@ -2070,19 +2120,19 @@
         <v>8549.4189453125</v>
       </c>
       <c r="F54">
-        <v>77.24308776855469</v>
+        <v>77.243087768554688</v>
       </c>
       <c r="G54">
-        <v>0.0541099533222366</v>
+        <v>5.4109953322236601E-2</v>
       </c>
       <c r="H54">
-        <v>89.53637736485173</v>
+        <v>89.536377364851731</v>
       </c>
       <c r="I54">
-        <v>-0.7571317205293154</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>-0.75713172052931543</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -2096,22 +2146,22 @@
         <v>72</v>
       </c>
       <c r="E55">
-        <v>989.9315185546876</v>
+        <v>989.93151855468761</v>
       </c>
       <c r="F55">
-        <v>24.32243919372558</v>
+        <v>24.322439193725579</v>
       </c>
       <c r="G55">
-        <v>0.0186260014438578</v>
+        <v>1.8626001443857801E-2</v>
       </c>
       <c r="H55">
-        <v>31.32866914910254</v>
+        <v>31.328669149102542</v>
       </c>
       <c r="I55">
-        <v>0.0021408667576937</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>2.1408667576936998E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>9</v>
       </c>
@@ -2128,10 +2178,10 @@
         <v>15517.9541015625</v>
       </c>
       <c r="F56">
-        <v>97.87831115722656</v>
+        <v>97.878311157226563</v>
       </c>
       <c r="G56">
-        <v>0.1016378958027832</v>
+        <v>0.10163789580278321</v>
       </c>
       <c r="H56">
         <v>122.4429295938377</v>
@@ -2140,7 +2190,7 @@
         <v>-0.6388872536879725</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -2160,16 +2210,16 @@
         <v>819.9559326171875</v>
       </c>
       <c r="G57">
-        <v>0.5626400197406661</v>
+        <v>0.56264001974066613</v>
       </c>
       <c r="H57">
-        <v>833.0012296742057</v>
+        <v>833.00122967420566</v>
       </c>
       <c r="I57">
-        <v>-35.09291224344886</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>-35.092912243448858</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>9</v>
       </c>
@@ -2189,16 +2239,16 @@
         <v>1152.16650390625</v>
       </c>
       <c r="G58">
-        <v>0.9999555533807022</v>
+        <v>0.99995555338070219</v>
       </c>
       <c r="H58">
-        <v>1161.35286933805</v>
+        <v>1161.3528693380499</v>
       </c>
       <c r="I58">
-        <v>-68.93388434695808</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>-68.933884346958081</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2218,16 +2268,16 @@
         <v>1234.566162109375</v>
       </c>
       <c r="G59">
-        <v>0.8767295786745116</v>
+        <v>0.87672957867451162</v>
       </c>
       <c r="H59">
         <v>1236.590775597087</v>
       </c>
       <c r="I59">
-        <v>-315.6302306474797</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>-315.63023064747972</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>9</v>
       </c>
@@ -2247,7 +2297,7 @@
         <v>25.31052398681641</v>
       </c>
       <c r="G60">
-        <v>0.0193514497065441</v>
+        <v>1.9351449706544101E-2</v>
       </c>
       <c r="H60">
         <v>32.63877490783667</v>
@@ -2256,7 +2306,7 @@
         <v>-0.1057441808957116</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -2273,19 +2323,19 @@
         <v>12782.6953125</v>
       </c>
       <c r="F61">
-        <v>87.47930145263672</v>
+        <v>87.479301452636719</v>
       </c>
       <c r="G61">
-        <v>0.0908470442431524</v>
+        <v>9.0847044243152403E-2</v>
       </c>
       <c r="H61">
         <v>111.7272798224957</v>
       </c>
       <c r="I61">
-        <v>-0.3359733328539752</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>-0.33597333285397518</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>9</v>
       </c>
@@ -2305,16 +2355,16 @@
         <v>815.323486328125</v>
       </c>
       <c r="G62">
-        <v>0.5589706486881244</v>
+        <v>0.55897064868812441</v>
       </c>
       <c r="H62">
-        <v>828.5044608484478</v>
+        <v>828.50446084844782</v>
       </c>
       <c r="I62">
-        <v>-35.14988870430774</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>-35.149888704307742</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -2334,16 +2384,16 @@
         <v>1151.684936523438</v>
       </c>
       <c r="G63">
-        <v>0.9995281378017778</v>
+        <v>0.99952813780177785</v>
       </c>
       <c r="H63">
         <v>1160.874817909307</v>
       </c>
       <c r="I63">
-        <v>-68.87344013024966</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>-68.873440130249662</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -2360,19 +2410,19 @@
         <v>7533.779296875</v>
       </c>
       <c r="F64">
-        <v>73.58852386474609</v>
+        <v>73.588523864746094</v>
       </c>
       <c r="G64">
-        <v>0.0521707725047967</v>
+        <v>5.2170772504796702E-2</v>
       </c>
       <c r="H64">
-        <v>85.45894714269777</v>
+        <v>85.458947142697767</v>
       </c>
       <c r="I64">
-        <v>-0.5486210968199995</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>-0.54862109681999949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -2389,19 +2439,19 @@
         <v>1610.034790039062</v>
       </c>
       <c r="F65">
-        <v>32.58957672119141</v>
+        <v>32.589576721191413</v>
       </c>
       <c r="G65">
-        <v>0.0248523511040247</v>
+        <v>2.48523511040247E-2</v>
       </c>
       <c r="H65">
-        <v>39.08455177569024</v>
+        <v>39.084551775690237</v>
       </c>
       <c r="I65">
-        <v>-0.6372844397937226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>-0.63728443979372262</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>9</v>
       </c>
@@ -2418,19 +2468,19 @@
         <v>13305.4775390625</v>
       </c>
       <c r="F66">
-        <v>92.36708068847656</v>
+        <v>92.367080688476563</v>
       </c>
       <c r="G66">
-        <v>0.0932060932220648</v>
+        <v>9.3206093222064801E-2</v>
       </c>
       <c r="H66">
         <v>114.1843688623736</v>
       </c>
       <c r="I66">
-        <v>-0.4192770466050192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>-0.41927704660501919</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>9</v>
       </c>
@@ -2447,19 +2497,19 @@
         <v>769624.25</v>
       </c>
       <c r="F67">
-        <v>859.9478149414062</v>
+        <v>859.94781494140625</v>
       </c>
       <c r="G67">
-        <v>0.5906867174922223</v>
+        <v>0.59068671749222235</v>
       </c>
       <c r="H67">
-        <v>872.3842305995288</v>
+        <v>872.38423059952879</v>
       </c>
       <c r="I67">
-        <v>-38.4994649948145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>-38.499464994814502</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>9</v>
       </c>
@@ -2479,16 +2529,16 @@
         <v>1152.046630859375</v>
       </c>
       <c r="G68">
-        <v>0.9998504719314424</v>
+        <v>0.99985047193144239</v>
       </c>
       <c r="H68">
-        <v>1161.23447571286</v>
+        <v>1161.2344757128601</v>
       </c>
       <c r="I68">
         <v>-68.92048622099513</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>9</v>
       </c>
@@ -2505,19 +2555,19 @@
         <v>8597.6416015625</v>
       </c>
       <c r="F69">
-        <v>76.58948516845703</v>
+        <v>76.589485168457031</v>
       </c>
       <c r="G69">
-        <v>0.0533333032808659</v>
+        <v>5.3333303280865899E-2</v>
       </c>
       <c r="H69">
         <v>90.13989510363588</v>
       </c>
       <c r="I69">
-        <v>-0.7194677919015917</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>-0.71946779190159171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -2534,19 +2584,19 @@
         <v>1267.162719726562</v>
       </c>
       <c r="F70">
-        <v>28.16470718383789</v>
+        <v>28.164707183837891</v>
       </c>
       <c r="G70">
-        <v>0.0213554579048404</v>
+        <v>2.1355457904840398E-2</v>
       </c>
       <c r="H70">
-        <v>35.19258106144873</v>
+        <v>35.192581061448728</v>
       </c>
       <c r="I70">
-        <v>-0.2884605302701624</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>-0.28846053027016239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -2563,19 +2613,19 @@
         <v>14499.6923828125</v>
       </c>
       <c r="F71">
-        <v>94.15183258056641</v>
+        <v>94.151832580566406</v>
       </c>
       <c r="G71">
-        <v>0.0968777958595181</v>
+        <v>9.6877795859518098E-2</v>
       </c>
       <c r="H71">
         <v>118.5885098958782</v>
       </c>
       <c r="I71">
-        <v>-0.5264303844547812</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>-0.52643038445478119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>9</v>
       </c>
@@ -2592,19 +2642,19 @@
         <v>702239.0625</v>
       </c>
       <c r="F72">
-        <v>820.5365600585938</v>
+        <v>820.53656005859375</v>
       </c>
       <c r="G72">
-        <v>0.5633255784154348</v>
+        <v>0.56332557841543485</v>
       </c>
       <c r="H72">
-        <v>833.5458617104952</v>
+        <v>833.54586171049516</v>
       </c>
       <c r="I72">
-        <v>-34.95236849324503</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>-34.952368493245032</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>9</v>
       </c>
@@ -2627,13 +2677,13 @@
         <v>0.9995272453629872</v>
       </c>
       <c r="H73">
-        <v>1160.875481928559</v>
+        <v>1160.8754819285591</v>
       </c>
       <c r="I73">
-        <v>-68.87249077365705</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>-68.872490773657049</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -2650,19 +2700,19 @@
         <v>837100.75</v>
       </c>
       <c r="F74">
-        <v>907.8629150390624</v>
+        <v>907.86291503906239</v>
       </c>
       <c r="G74">
         <v>0.6429850016951183</v>
       </c>
       <c r="H74">
-        <v>914.1991130401524</v>
+        <v>914.19911304015238</v>
       </c>
       <c r="I74">
-        <v>-170.7727778295799</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>-170.77277782957989</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>9</v>
       </c>
@@ -2676,22 +2726,22 @@
         <v>90</v>
       </c>
       <c r="E75">
-        <v>957.2661743164062</v>
+        <v>957.26617431640625</v>
       </c>
       <c r="F75">
         <v>23.3688850402832</v>
       </c>
       <c r="G75">
-        <v>0.0178422397162025</v>
+        <v>1.7842239716202499E-2</v>
       </c>
       <c r="H75">
         <v>30.89282107404091</v>
       </c>
       <c r="I75">
-        <v>0.0189587305999572</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>1.8958730599957199E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -2708,19 +2758,19 @@
         <v>14871.421875</v>
       </c>
       <c r="F76">
-        <v>97.69393157958984</v>
+        <v>97.693931579589844</v>
       </c>
       <c r="G76">
-        <v>0.0992508706676808</v>
+        <v>9.9250870667680804E-2</v>
       </c>
       <c r="H76">
-        <v>120.6219441085429</v>
+        <v>120.62194410854291</v>
       </c>
       <c r="I76">
-        <v>-0.5746166683039547</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>-0.57461666830395475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -2737,19 +2787,19 @@
         <v>28184.26171875</v>
       </c>
       <c r="F77">
-        <v>134.3177032470703</v>
+        <v>134.31770324707031</v>
       </c>
       <c r="G77">
-        <v>0.0968933969933459</v>
+        <v>9.6893396993345898E-2</v>
       </c>
       <c r="H77">
-        <v>165.5986869428943</v>
+        <v>165.59868694289429</v>
       </c>
       <c r="I77">
-        <v>-0.3762210383474436</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>-0.37622103834744358</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -2769,16 +2819,16 @@
         <v>1151.940185546875</v>
       </c>
       <c r="G78">
-        <v>0.9997540733280804</v>
+        <v>0.99975407332808042</v>
       </c>
       <c r="H78">
         <v>1161.128144100968</v>
       </c>
       <c r="I78">
-        <v>-68.9054773888639</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>-68.905477388863901</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -2795,48 +2845,48 @@
         <v>6524.92919921875</v>
       </c>
       <c r="F79">
-        <v>65.43672180175781</v>
+        <v>65.436721801757813</v>
       </c>
       <c r="G79">
-        <v>0.0475984033896574</v>
+        <v>4.7598403389657401E-2</v>
       </c>
       <c r="H79">
-        <v>79.03862159112303</v>
+        <v>79.038621591123032</v>
       </c>
       <c r="I79">
-        <v>-0.4291334825101037</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
-      <c r="A80" t="s">
-        <v>9</v>
-      </c>
-      <c r="B80" t="s">
+        <v>-0.42913348251010369</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <v>4</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="2">
         <v>51</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="2">
         <v>872.1038818359375</v>
       </c>
-      <c r="F80">
-        <v>21.83354949951172</v>
-      </c>
-      <c r="G80">
-        <v>0.0168081055366274</v>
-      </c>
-      <c r="H80">
-        <v>29.47799294254048</v>
-      </c>
-      <c r="I80">
-        <v>0.1031795257488577</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+      <c r="F80" s="2">
+        <v>21.833549499511719</v>
+      </c>
+      <c r="G80" s="2">
+        <v>1.6808105536627399E-2</v>
+      </c>
+      <c r="H80" s="2">
+        <v>29.477992942540482</v>
+      </c>
+      <c r="I80" s="2">
+        <v>0.10317952574885771</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -2853,19 +2903,19 @@
         <v>16393.07421875</v>
       </c>
       <c r="F81">
-        <v>99.52799224853516</v>
+        <v>99.527992248535156</v>
       </c>
       <c r="G81">
         <v>0.1047283787279577</v>
       </c>
       <c r="H81">
-        <v>123.6890661661836</v>
+        <v>123.68906616618359</v>
       </c>
       <c r="I81">
-        <v>-0.7201616416208357</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>-0.72016164162083574</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -2882,19 +2932,19 @@
         <v>29724.041015625</v>
       </c>
       <c r="F82">
-        <v>137.9402313232422</v>
+        <v>137.94023132324219</v>
       </c>
       <c r="G82">
-        <v>0.09985869010536499</v>
+        <v>9.9858690105364994E-2</v>
       </c>
       <c r="H82">
-        <v>168.4150044924943</v>
+        <v>168.41500449249429</v>
       </c>
       <c r="I82">
-        <v>-0.5023868919604837</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>-0.50238689196048369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -2914,16 +2964,16 @@
         <v>1151.93310546875</v>
       </c>
       <c r="G83">
-        <v>0.9997463696993696</v>
+        <v>0.99974636969936959</v>
       </c>
       <c r="H83">
-        <v>1161.120870794818</v>
+        <v>1161.1208707948181</v>
       </c>
       <c r="I83">
-        <v>-68.902997887857</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>-68.902997887856998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -2940,19 +2990,19 @@
         <v>7120.78515625</v>
       </c>
       <c r="F84">
-        <v>71.21916198730469</v>
+        <v>71.219161987304688</v>
       </c>
       <c r="G84">
-        <v>0.0509434598157938</v>
+        <v>5.0943459815793797E-2</v>
       </c>
       <c r="H84">
-        <v>82.89550765513415</v>
+        <v>82.895507655134153</v>
       </c>
       <c r="I84">
-        <v>-0.4382987975742894</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>-0.43829879757428941</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -2969,19 +3019,19 @@
         <v>887.4073486328125</v>
       </c>
       <c r="F85">
-        <v>22.50413131713867</v>
+        <v>22.504131317138668</v>
       </c>
       <c r="G85">
-        <v>0.01717487021635</v>
+        <v>1.7174870216349999E-2</v>
       </c>
       <c r="H85">
-        <v>29.76446499258359</v>
+        <v>29.764464992583591</v>
       </c>
       <c r="I85">
-        <v>0.0958401249625645</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>9.5840124962564499E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -2998,19 +3048,19 @@
         <v>13451.1953125</v>
       </c>
       <c r="F86">
-        <v>94.14328002929688</v>
+        <v>94.143280029296875</v>
       </c>
       <c r="G86">
-        <v>0.0956129752296988</v>
+        <v>9.5612975229698804E-2</v>
       </c>
       <c r="H86">
         <v>114.8684154993381</v>
       </c>
       <c r="I86">
-        <v>-0.4479270718309242</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>-0.44792707183092417</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -3027,19 +3077,19 @@
         <v>32425.916015625</v>
       </c>
       <c r="F87">
-        <v>141.3389282226562</v>
+        <v>141.33892822265619</v>
       </c>
       <c r="G87">
         <v>0.1023934840889525</v>
       </c>
       <c r="H87">
-        <v>177.928603034223</v>
+        <v>177.92860303422299</v>
       </c>
       <c r="I87">
-        <v>-0.5792877347012785</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>-0.57928773470127848</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -3059,16 +3109,16 @@
         <v>1151.941528320312</v>
       </c>
       <c r="G88">
-        <v>0.9997549078085592</v>
+        <v>0.99975490780855925</v>
       </c>
       <c r="H88">
         <v>1161.129464682188</v>
       </c>
       <c r="I88">
-        <v>-68.90470420725866</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>-68.904704207258661</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -3085,19 +3135,19 @@
         <v>7476.30419921875</v>
       </c>
       <c r="F89">
-        <v>72.94799041748047</v>
+        <v>72.947990417480469</v>
       </c>
       <c r="G89">
-        <v>0.0523881992457286</v>
+        <v>5.2388199245728601E-2</v>
       </c>
       <c r="H89">
-        <v>85.23631828086879</v>
+        <v>85.236318280868787</v>
       </c>
       <c r="I89">
-        <v>-0.5869120373608733</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>-0.58691203736087327</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -3114,19 +3164,19 @@
         <v>2063.064453125</v>
       </c>
       <c r="F90">
-        <v>36.02706527709961</v>
+        <v>36.027065277099609</v>
       </c>
       <c r="G90">
-        <v>0.02745752937965</v>
+        <v>2.745752937965E-2</v>
       </c>
       <c r="H90">
-        <v>42.7798316854316</v>
+        <v>42.779831685431603</v>
       </c>
       <c r="I90">
-        <v>-1.159135398849288</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>-1.1591353988492881</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>9</v>
       </c>
@@ -3146,16 +3196,16 @@
         <v>97.9393310546875</v>
       </c>
       <c r="G91">
-        <v>0.0991289994762368</v>
+        <v>9.9128999476236795E-2</v>
       </c>
       <c r="H91">
         <v>119.7760560855004</v>
       </c>
       <c r="I91">
-        <v>-0.6055282413312791</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>-0.60552824133127914</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -3175,16 +3225,16 @@
         <v>134.9521789550781</v>
       </c>
       <c r="G92">
-        <v>0.09776823611328191</v>
+        <v>9.7768236113281906E-2</v>
       </c>
       <c r="H92">
-        <v>168.4362606964118</v>
+        <v>168.43626069641181</v>
       </c>
       <c r="I92">
-        <v>-0.392127939551926</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>-0.39212793955192599</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>9</v>
       </c>
@@ -3204,16 +3254,16 @@
         <v>1152.167358398438</v>
       </c>
       <c r="G93">
-        <v>0.9999546777950576</v>
+        <v>0.99995467779505764</v>
       </c>
       <c r="H93">
-        <v>1161.353417231854</v>
+        <v>1161.3534172318541</v>
       </c>
       <c r="I93">
-        <v>-68.93082889382956</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>-68.930828893829556</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>9</v>
       </c>
@@ -3230,19 +3280,19 @@
         <v>7834.34228515625</v>
       </c>
       <c r="F94">
-        <v>73.73485565185547</v>
+        <v>73.734855651855469</v>
       </c>
       <c r="G94">
-        <v>0.0526906721761891</v>
+        <v>5.2690672176189099E-2</v>
       </c>
       <c r="H94">
-        <v>87.45652225962546</v>
+        <v>87.456522259625459</v>
       </c>
       <c r="I94">
-        <v>-0.6321937421572358</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>-0.63219374215723578</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -3259,19 +3309,19 @@
         <v>921.409912109375</v>
       </c>
       <c r="F95">
-        <v>23.13956069946289</v>
+        <v>23.139560699462891</v>
       </c>
       <c r="G95">
-        <v>0.0176237688324876</v>
+        <v>1.7623768832487601E-2</v>
       </c>
       <c r="H95">
-        <v>30.33222738749416</v>
+        <v>30.332227387494161</v>
       </c>
       <c r="I95">
-        <v>0.0616987386862486</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>6.1698738686248603E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>9</v>
       </c>
@@ -3288,19 +3338,19 @@
         <v>14775.248046875</v>
       </c>
       <c r="F96">
-        <v>93.52101898193359</v>
+        <v>93.521018981933594</v>
       </c>
       <c r="G96">
-        <v>0.09815386063058471</v>
+        <v>9.8153860630584705E-2</v>
       </c>
       <c r="H96">
         <v>119.6621230589634</v>
       </c>
       <c r="I96">
-        <v>-0.5474402559065678</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>-0.54744025590656775</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>9</v>
       </c>
@@ -3323,13 +3373,13 @@
         <v>0.1079526671561928</v>
       </c>
       <c r="H97">
-        <v>187.7035746126755</v>
+        <v>187.70357461267551</v>
       </c>
       <c r="I97">
-        <v>-0.8941964171351227</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>-0.89419641713512266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>9</v>
       </c>
@@ -3349,16 +3399,16 @@
         <v>1152.226806640625</v>
       </c>
       <c r="G98">
-        <v>1.000011623450831</v>
+        <v>1.0000116234508309</v>
       </c>
       <c r="H98">
         <v>1161.411925888038</v>
       </c>
       <c r="I98">
-        <v>-68.94469634952129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>-68.944696349521294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -3375,19 +3425,19 @@
         <v>6837.73486328125</v>
       </c>
       <c r="F99">
-        <v>69.88927459716797</v>
+        <v>69.889274597167969</v>
       </c>
       <c r="G99">
-        <v>0.0500889534798119</v>
+        <v>5.0088953479811897E-2</v>
       </c>
       <c r="H99">
-        <v>82.11762599408416</v>
+        <v>82.117625994084165</v>
       </c>
       <c r="I99">
-        <v>-0.4123551944779194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>-0.41235519447791941</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>9</v>
       </c>
@@ -3407,16 +3457,16 @@
         <v>22.6485710144043</v>
       </c>
       <c r="G100">
-        <v>0.0171850607541261</v>
+        <v>1.71850607541261E-2</v>
       </c>
       <c r="H100">
         <v>29.88856465097232</v>
       </c>
       <c r="I100">
-        <v>0.0808283755672205</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>8.0828375567220501E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>9</v>
       </c>
@@ -3433,7 +3483,7 @@
         <v>16205.6591796875</v>
       </c>
       <c r="F101">
-        <v>99.12809753417967</v>
+        <v>99.128097534179673</v>
       </c>
       <c r="G101">
         <v>0.1036287764794938</v>
@@ -3442,10 +3492,10 @@
         <v>124.3511626798667</v>
       </c>
       <c r="I101">
-        <v>-0.7088213326070685</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>-0.70882133260706848</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>9</v>
       </c>
@@ -3462,19 +3512,19 @@
         <v>34305.125</v>
       </c>
       <c r="F102">
-        <v>151.7294158935547</v>
+        <v>151.72941589355469</v>
       </c>
       <c r="G102">
         <v>0.1054403824510443</v>
       </c>
       <c r="H102">
-        <v>182.282771468392</v>
+        <v>182.28277146839201</v>
       </c>
       <c r="I102">
-        <v>-0.8058172766560414</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>-0.80581727665604141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>9</v>
       </c>
@@ -3494,16 +3544,16 @@
         <v>1151.93310546875</v>
       </c>
       <c r="G103">
-        <v>0.9997494738207078</v>
+        <v>0.99974947382070778</v>
       </c>
       <c r="H103">
-        <v>1161.121174906401</v>
+        <v>1161.1211749064009</v>
       </c>
       <c r="I103">
-        <v>-68.90512469418697</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>-68.905124694186966</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>9</v>
       </c>
@@ -3523,16 +3573,16 @@
         <v>71.1937255859375</v>
       </c>
       <c r="G104">
-        <v>0.0507103908732245</v>
+        <v>5.0710390873224501E-2</v>
       </c>
       <c r="H104">
-        <v>82.19907157681767</v>
+        <v>82.199071576817673</v>
       </c>
       <c r="I104">
-        <v>-0.4031410630300368</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>-0.40314106303003677</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>9</v>
       </c>
@@ -3549,19 +3599,19 @@
         <v>1684.415283203125</v>
       </c>
       <c r="F105">
-        <v>33.38700103759766</v>
+        <v>33.387001037597663</v>
       </c>
       <c r="G105">
-        <v>0.0252432183752083</v>
+        <v>2.52432183752083E-2</v>
       </c>
       <c r="H105">
-        <v>39.94526280780482</v>
+        <v>39.945262807804824</v>
       </c>
       <c r="I105">
-        <v>-0.6742508036921712</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>-0.67425080369217116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -3584,13 +3634,13 @@
         <v>0.1080106605645219</v>
       </c>
       <c r="H106">
-        <v>129.9377946102967</v>
+        <v>129.93779461029669</v>
       </c>
       <c r="I106">
-        <v>-0.927436476372372</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>-0.92743647637237203</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>9</v>
       </c>
@@ -3607,19 +3657,19 @@
         <v>31649.0078125</v>
       </c>
       <c r="F107">
-        <v>140.5760955810547</v>
+        <v>140.57609558105469</v>
       </c>
       <c r="G107">
-        <v>0.1022886980121755</v>
+        <v>0.10228869801217549</v>
       </c>
       <c r="H107">
-        <v>174.7494802049679</v>
+        <v>174.74948020496791</v>
       </c>
       <c r="I107">
-        <v>-0.5733704839693572</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>-0.57337048396935719</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>9</v>
       </c>
@@ -3639,16 +3689,16 @@
         <v>1152.245361328125</v>
       </c>
       <c r="G108">
-        <v>1.000022368975268</v>
+        <v>1.0000223689752681</v>
       </c>
       <c r="H108">
-        <v>1161.430393500278</v>
+        <v>1161.4303935002779</v>
       </c>
       <c r="I108">
-        <v>-68.93955469406528</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>-68.939554694065279</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>9</v>
       </c>
@@ -3668,16 +3718,16 @@
         <v>75.51409912109375</v>
       </c>
       <c r="G109">
-        <v>0.0545302473135623</v>
+        <v>5.4530247313562298E-2</v>
       </c>
       <c r="H109">
-        <v>87.62605009732319</v>
+        <v>87.626050097323187</v>
       </c>
       <c r="I109">
-        <v>-0.672522214650965</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>-0.67252221465096496</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>9</v>
       </c>
@@ -3694,19 +3744,19 @@
         <v>3145.705810546875</v>
       </c>
       <c r="F110">
-        <v>44.84101867675781</v>
+        <v>44.841018676757813</v>
       </c>
       <c r="G110">
-        <v>0.034186971941835</v>
+        <v>3.4186971941835002E-2</v>
       </c>
       <c r="H110">
-        <v>51.5280868096884</v>
+        <v>51.528086809688403</v>
       </c>
       <c r="I110">
-        <v>-2.215627504829129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>-2.2156275048291292</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>9</v>
       </c>
@@ -3726,16 +3776,16 @@
         <v>96.5489501953125</v>
       </c>
       <c r="G111">
-        <v>0.1004325788617444</v>
+        <v>0.10043257886174441</v>
       </c>
       <c r="H111">
-        <v>121.5062727170013</v>
+        <v>121.50627271700129</v>
       </c>
       <c r="I111">
-        <v>-0.607853232624935</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>-0.60785323262493496</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>9</v>
       </c>
@@ -3755,16 +3805,16 @@
         <v>142.4305419921875</v>
       </c>
       <c r="G112">
-        <v>0.1032662558815512</v>
+        <v>0.10326625588155119</v>
       </c>
       <c r="H112">
         <v>176.4756028011297</v>
       </c>
       <c r="I112">
-        <v>-0.5557662372646225</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>-0.55576623726462249</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -3784,16 +3834,16 @@
         <v>1151.941528320312</v>
       </c>
       <c r="G113">
-        <v>0.999758226263961</v>
+        <v>0.99975822626396105</v>
       </c>
       <c r="H113">
-        <v>1161.129473910173</v>
+        <v>1161.1294739101729</v>
       </c>
       <c r="I113">
-        <v>-68.90540605117208</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>-68.905406051172079</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>9</v>
       </c>
@@ -3810,19 +3860,19 @@
         <v>7096.27392578125</v>
       </c>
       <c r="F114">
-        <v>71.23035430908203</v>
+        <v>71.230354309082031</v>
       </c>
       <c r="G114">
-        <v>0.0505906426497613</v>
+        <v>5.0590642649761298E-2</v>
       </c>
       <c r="H114">
-        <v>82.79664754815238</v>
+        <v>82.796647548152379</v>
       </c>
       <c r="I114">
-        <v>-0.447321737425752</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>-0.44732173742575199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>9</v>
       </c>
@@ -3839,19 +3889,19 @@
         <v>2144.72412109375</v>
       </c>
       <c r="F115">
-        <v>36.51226425170898</v>
+        <v>36.512264251708977</v>
       </c>
       <c r="G115">
-        <v>0.0276613352994964</v>
+        <v>2.7661335299496399E-2</v>
       </c>
       <c r="H115">
-        <v>43.52544766779545</v>
+        <v>43.525447667795447</v>
       </c>
       <c r="I115">
-        <v>-1.124832207434804</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>-1.1248322074348041</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>9</v>
       </c>
@@ -3868,19 +3918,19 @@
         <v>15789.427734375</v>
       </c>
       <c r="F116">
-        <v>98.05291748046876</v>
+        <v>98.052917480468764</v>
       </c>
       <c r="G116">
         <v>0.1014929854096238</v>
       </c>
       <c r="H116">
-        <v>123.4066009283385</v>
+        <v>123.40660092833851</v>
       </c>
       <c r="I116">
-        <v>-0.6570834904101641</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>-0.65708349041016412</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>9</v>
       </c>
@@ -3897,19 +3947,19 @@
         <v>31379.306640625</v>
       </c>
       <c r="F117">
-        <v>139.8035125732422</v>
+        <v>139.80351257324219</v>
       </c>
       <c r="G117">
-        <v>0.101510361237784</v>
+        <v>0.10151036123778399</v>
       </c>
       <c r="H117">
-        <v>173.6413411676469</v>
+        <v>173.64134116764691</v>
       </c>
       <c r="I117">
         <v>-0.5428849580995242</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>9</v>
       </c>
@@ -3929,16 +3979,16 @@
         <v>1152.172485351562</v>
       </c>
       <c r="G118">
-        <v>0.9999616986052842</v>
+        <v>0.99996169860528417</v>
       </c>
       <c r="H118">
         <v>1161.357889336623</v>
       </c>
       <c r="I118">
-        <v>-68.9344645861197</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>-68.934464586119702</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>9</v>
       </c>
@@ -3955,19 +4005,19 @@
         <v>8401.09375</v>
       </c>
       <c r="F119">
-        <v>77.33336639404297</v>
+        <v>77.333366394042969</v>
       </c>
       <c r="G119">
-        <v>0.055287237653016</v>
+        <v>5.5287237653015998E-2</v>
       </c>
       <c r="H119">
-        <v>89.35803709199806</v>
+        <v>89.358037091998057</v>
       </c>
       <c r="I119">
-        <v>-0.7599970823481095</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>-0.75999708234810948</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -3987,16 +4037,16 @@
         <v>39.9549560546875</v>
       </c>
       <c r="G120">
-        <v>0.0304725115619004</v>
+        <v>3.0472511561900398E-2</v>
       </c>
       <c r="H120">
-        <v>46.71518344001103</v>
+        <v>46.715183440011032</v>
       </c>
       <c r="I120">
-        <v>-1.478485013633379</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>-1.4784850136333789</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>9</v>
       </c>
@@ -4013,19 +4063,19 @@
         <v>13824.884765625</v>
       </c>
       <c r="F121">
-        <v>96.26004791259766</v>
+        <v>96.260047912597656</v>
       </c>
       <c r="G121">
-        <v>0.09658953327257851</v>
+        <v>9.6589533272578507E-2</v>
       </c>
       <c r="H121">
         <v>115.9342177918989</v>
       </c>
       <c r="I121">
-        <v>-0.4885646566697392</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>-0.48856465666973919</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>9</v>
       </c>
@@ -4045,16 +4095,16 @@
         <v>145.2256164550781</v>
       </c>
       <c r="G122">
-        <v>0.1047478220744884</v>
+        <v>0.10474782207448841</v>
       </c>
       <c r="H122">
-        <v>181.390460046465</v>
+        <v>181.39046004646499</v>
       </c>
       <c r="I122">
-        <v>-0.6921682775781922</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>-0.69216827757819221</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>9</v>
       </c>
@@ -4074,16 +4124,16 @@
         <v>1152.203002929688</v>
       </c>
       <c r="G123">
-        <v>0.9999915035670588</v>
+        <v>0.99999150356705879</v>
       </c>
       <c r="H123">
-        <v>1161.389147807584</v>
+        <v>1161.3891478075841</v>
       </c>
       <c r="I123">
-        <v>-68.94039211361802</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>-68.940392113618017</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>9</v>
       </c>
@@ -4103,16 +4153,16 @@
         <v>77.43646240234375</v>
       </c>
       <c r="G124">
-        <v>0.0552732154397744</v>
+        <v>5.5273215439774398E-2</v>
       </c>
       <c r="H124">
-        <v>90.28199921032768</v>
+        <v>90.281999210327683</v>
       </c>
       <c r="I124">
         <v>-0.7969457321703769</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>9</v>
       </c>
@@ -4129,19 +4179,19 @@
         <v>1068.029296875</v>
       </c>
       <c r="F125">
-        <v>24.87616729736328</v>
+        <v>24.876167297363281</v>
       </c>
       <c r="G125">
-        <v>0.0189032362818346</v>
+        <v>1.8903236281834601E-2</v>
       </c>
       <c r="H125">
-        <v>32.61282960836687</v>
+        <v>32.612829608366873</v>
       </c>
       <c r="I125">
-        <v>-0.1058812189731373</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>-0.10588121897313731</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>9</v>
       </c>
@@ -4158,7 +4208,7 @@
         <v>17220.123046875</v>
       </c>
       <c r="F126">
-        <v>102.4577865600586</v>
+        <v>102.45778656005859</v>
       </c>
       <c r="G126">
         <v>0.1057024421909723</v>
@@ -4167,10 +4217,10 @@
         <v>128.1299972170566</v>
       </c>
       <c r="I126">
-        <v>-0.823535827947983</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>-0.82353582794798297</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -4187,19 +4237,19 @@
         <v>31461.09375</v>
       </c>
       <c r="F127">
-        <v>139.6455535888672</v>
+        <v>139.64555358886719</v>
       </c>
       <c r="G127">
         <v>0.1008873053700764</v>
       </c>
       <c r="H127">
-        <v>174.2715452020549</v>
+        <v>174.27154520205491</v>
       </c>
       <c r="I127">
-        <v>-0.5426401268480368</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>-0.54264012684803675</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>9</v>
       </c>
@@ -4216,19 +4266,19 @@
         <v>1147204.75</v>
       </c>
       <c r="F128">
-        <v>950.8814086914062</v>
+        <v>950.88140869140625</v>
       </c>
       <c r="G128">
         <v>0.7970180041007443</v>
       </c>
       <c r="H128">
-        <v>1067.312761110605</v>
+        <v>1067.3127611106049</v>
       </c>
       <c r="I128">
         <v>-57.48319085210089</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>9</v>
       </c>
@@ -4245,19 +4295,19 @@
         <v>7586.0078125</v>
       </c>
       <c r="F129">
-        <v>72.87825012207031</v>
+        <v>72.878250122070313</v>
       </c>
       <c r="G129">
-        <v>0.0519652401733725</v>
+        <v>5.19652401733725E-2</v>
       </c>
       <c r="H129">
-        <v>85.72884810217997</v>
+        <v>85.728848102179967</v>
       </c>
       <c r="I129">
-        <v>-0.525579940283846</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>-0.52557994028384603</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>9</v>
       </c>
@@ -4277,16 +4327,16 @@
         <v>39.48907470703125</v>
       </c>
       <c r="G130">
-        <v>0.0299584727447361</v>
+        <v>2.9958472744736099E-2</v>
       </c>
       <c r="H130">
         <v>46.6570890185534</v>
       </c>
       <c r="I130">
-        <v>-1.399208614466576</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>-1.3992086144665761</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>9</v>
       </c>
@@ -4309,13 +4359,13 @@
         <v>0.1044651897278545</v>
       </c>
       <c r="H131">
-        <v>125.9967168974812</v>
+        <v>125.99671689748121</v>
       </c>
       <c r="I131">
-        <v>-0.7552203221540253</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>-0.75522032215402535</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>9</v>
       </c>
@@ -4341,10 +4391,10 @@
         <v>179.9343481054668</v>
       </c>
       <c r="I132">
-        <v>-0.627613918088773</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>-0.62761391808877298</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>9</v>
       </c>
@@ -4364,16 +4414,16 @@
         <v>1067.687866210938</v>
       </c>
       <c r="G133">
-        <v>0.9144696122044536</v>
+        <v>0.91446961220445355</v>
       </c>
       <c r="H133">
         <v>1122.205734619899</v>
       </c>
       <c r="I133">
-        <v>-63.99648155520786</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>-63.996481555207858</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -4390,19 +4440,19 @@
         <v>7589.54296875</v>
       </c>
       <c r="F134">
-        <v>73.32498931884766</v>
+        <v>73.324989318847656</v>
       </c>
       <c r="G134">
-        <v>0.0524862779612187</v>
+        <v>5.24862779612187E-2</v>
       </c>
       <c r="H134">
-        <v>85.71456100968928</v>
+        <v>85.714561009689277</v>
       </c>
       <c r="I134">
-        <v>-0.5763720498760196</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>-0.57637204987601964</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>9</v>
       </c>
@@ -4419,19 +4469,19 @@
         <v>2849.918701171875</v>
       </c>
       <c r="F135">
-        <v>42.65061950683594</v>
+        <v>42.650619506835938</v>
       </c>
       <c r="G135">
-        <v>0.0324575541606923</v>
+        <v>3.2457554160692299E-2</v>
       </c>
       <c r="H135">
-        <v>49.46567164387707</v>
+        <v>49.465671643877073</v>
       </c>
       <c r="I135">
-        <v>-1.858048958933232</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>-1.8580489589332321</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>9</v>
       </c>
@@ -4451,16 +4501,16 @@
         <v>104.005500793457</v>
       </c>
       <c r="G136">
-        <v>0.104567977302254</v>
+        <v>0.10456797730225401</v>
       </c>
       <c r="H136">
         <v>125.2664111557621</v>
       </c>
       <c r="I136">
-        <v>-0.7501289655040739</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>-0.75012896550407393</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>9</v>
       </c>
@@ -4477,19 +4527,19 @@
         <v>29823.259765625</v>
       </c>
       <c r="F137">
-        <v>137.0608367919922</v>
+        <v>137.06083679199219</v>
       </c>
       <c r="G137">
-        <v>0.0988608547391448</v>
+        <v>9.8860854739144799E-2</v>
       </c>
       <c r="H137">
         <v>170.874171841855</v>
       </c>
       <c r="I137">
-        <v>-0.485465805161126</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>-0.48546580516112597</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>9</v>
       </c>
@@ -4506,19 +4556,19 @@
         <v>1147213.25</v>
       </c>
       <c r="F138">
-        <v>951.3861083984376</v>
+        <v>951.38610839843761</v>
       </c>
       <c r="G138">
-        <v>0.7975060382908565</v>
+        <v>0.79750603829085653</v>
       </c>
       <c r="H138">
         <v>1067.318455599959</v>
       </c>
       <c r="I138">
-        <v>-57.48691575146486</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>-57.486915751464863</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>9</v>
       </c>
@@ -4535,19 +4585,19 @@
         <v>6750.88671875</v>
       </c>
       <c r="F139">
-        <v>69.24362945556641</v>
+        <v>69.243629455566406</v>
       </c>
       <c r="G139">
-        <v>0.0497021855592766</v>
+        <v>4.97021855592766E-2</v>
       </c>
       <c r="H139">
-        <v>81.01757804845364</v>
+        <v>81.017578048453643</v>
       </c>
       <c r="I139">
-        <v>-0.3850859226848024</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>-0.38508592268480241</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>9</v>
       </c>
@@ -4567,16 +4617,16 @@
         <v>37.76519775390625</v>
       </c>
       <c r="G140">
-        <v>0.0286179452666375</v>
+        <v>2.8617945266637499E-2</v>
       </c>
       <c r="H140">
-        <v>44.87857228778748</v>
+        <v>44.878572287787478</v>
       </c>
       <c r="I140">
-        <v>-1.185030573840573</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>-1.1850305738405731</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -4596,7 +4646,7 @@
         <v>110.166130065918</v>
       </c>
       <c r="G141">
-        <v>0.1117451716055032</v>
+        <v>0.11174517160550319</v>
       </c>
       <c r="H141">
         <v>134.6190726864165</v>
@@ -4605,7 +4655,7 @@
         <v>-1.05174806176683</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>9</v>
       </c>
@@ -4625,16 +4675,16 @@
         <v>137.5078125</v>
       </c>
       <c r="G142">
-        <v>0.0992413025318159</v>
+        <v>9.92413025318159E-2</v>
       </c>
       <c r="H142">
         <v>172.3836696259109</v>
       </c>
       <c r="I142">
-        <v>-0.4841574477293799</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>-0.48415744772937991</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>9</v>
       </c>
@@ -4651,19 +4701,19 @@
         <v>1147067.375</v>
       </c>
       <c r="F143">
-        <v>951.0097045898438</v>
+        <v>951.00970458984375</v>
       </c>
       <c r="G143">
-        <v>0.7971315583789789</v>
+        <v>0.79713155837897887</v>
       </c>
       <c r="H143">
-        <v>1067.249979661192</v>
+        <v>1067.2499796611919</v>
       </c>
       <c r="I143">
-        <v>-57.48209192178408</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>-57.482091921784082</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>9</v>
       </c>
@@ -4680,19 +4730,19 @@
         <v>7684.8798828125</v>
       </c>
       <c r="F144">
-        <v>73.82876586914062</v>
+        <v>73.828765869140625</v>
       </c>
       <c r="G144">
-        <v>0.0526067476523147</v>
+        <v>5.2606747652314698E-2</v>
       </c>
       <c r="H144">
-        <v>86.4840029449834</v>
+        <v>86.484002944983402</v>
       </c>
       <c r="I144">
-        <v>-0.5883213522749265</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>-0.58832135227492655</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>9</v>
       </c>
@@ -4709,19 +4759,19 @@
         <v>2434.24072265625</v>
       </c>
       <c r="F145">
-        <v>40.22628784179688</v>
+        <v>40.226287841796882</v>
       </c>
       <c r="G145">
-        <v>0.0307438588604525</v>
+        <v>3.07438588604525E-2</v>
       </c>
       <c r="H145">
-        <v>47.03366207906939</v>
+        <v>47.033662079069387</v>
       </c>
       <c r="I145">
         <v>-1.648945875507116</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>9</v>
       </c>
@@ -4747,7 +4797,7 @@
         <v>124.6521551339218</v>
       </c>
       <c r="I146">
-        <v>-0.7955359272335042</v>
+        <v>-0.79553592723350419</v>
       </c>
     </row>
   </sheetData>
@@ -4756,14 +4806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4807,7 +4857,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -4815,28 +4865,28 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>432161.9360717774</v>
+        <v>432161.93607177743</v>
       </c>
       <c r="D2">
-        <v>458.8897308349609</v>
+        <v>458.88973083496091</v>
       </c>
       <c r="E2">
-        <v>0.365004014327993</v>
+        <v>0.36500401432799301</v>
       </c>
       <c r="F2">
-        <v>474.1948096607188</v>
+        <v>474.19480966071882</v>
       </c>
       <c r="G2">
-        <v>-22.82472478271137</v>
+        <v>-22.824724782711371</v>
       </c>
       <c r="H2">
         <v>76.8</v>
       </c>
       <c r="I2">
-        <v>605619.7752810338</v>
+        <v>605619.77528103383</v>
       </c>
       <c r="J2">
-        <v>508.0978888849352</v>
+        <v>508.09788888493517</v>
       </c>
       <c r="K2">
         <v>4</v>
@@ -4845,13 +4895,13 @@
         <v>73</v>
       </c>
       <c r="M2">
-        <v>941.2077026367188</v>
+        <v>941.20770263671875</v>
       </c>
       <c r="N2">
-        <v>24.16853332519531</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>24.168533325195309</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -4859,16 +4909,16 @@
         <v>11</v>
       </c>
       <c r="C3">
-        <v>453890.9401611328</v>
+        <v>453890.94016113278</v>
       </c>
       <c r="D3">
-        <v>455.3020366668701</v>
+        <v>455.30203666687009</v>
       </c>
       <c r="E3">
-        <v>0.3614978611357501</v>
+        <v>0.36149786113575011</v>
       </c>
       <c r="F3">
-        <v>467.4988959375937</v>
+        <v>467.49889593759372</v>
       </c>
       <c r="G3">
         <v>-22.92007802156369</v>
@@ -4877,7 +4927,7 @@
         <v>74</v>
       </c>
       <c r="I3">
-        <v>632633.870385056</v>
+        <v>632633.87038505601</v>
       </c>
       <c r="J3">
         <v>540.6463016074814</v>
@@ -4895,7 +4945,7 @@
         <v>27.42567253112793</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -4903,28 +4953,28 @@
         <v>18</v>
       </c>
       <c r="C4">
-        <v>690337.423852539</v>
+        <v>690337.42385253904</v>
       </c>
       <c r="D4">
-        <v>556.7126544952392</v>
+        <v>556.71265449523924</v>
       </c>
       <c r="E4">
-        <v>0.4329763417034073</v>
+        <v>0.43297634170340732</v>
       </c>
       <c r="F4">
-        <v>568.637509785135</v>
+        <v>568.63750978513497</v>
       </c>
       <c r="G4">
-        <v>-34.97459254699569</v>
+        <v>-34.974592546995687</v>
       </c>
       <c r="H4">
         <v>57</v>
       </c>
       <c r="I4">
-        <v>967893.4156116918</v>
+        <v>967893.41561169177</v>
       </c>
       <c r="J4">
-        <v>677.4253082353588</v>
+        <v>677.42530823535878</v>
       </c>
       <c r="K4">
         <v>4</v>
@@ -4936,10 +4986,10 @@
         <v>1317.301879882812</v>
       </c>
       <c r="N4">
-        <v>28.53409767150879</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>28.534097671508789</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -4947,28 +4997,28 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>429898.8243408203</v>
+        <v>429898.82434082031</v>
       </c>
       <c r="D5">
-        <v>442.1800941467285</v>
+        <v>442.18009414672849</v>
       </c>
       <c r="E5">
-        <v>0.3524207492937778</v>
+        <v>0.35242074929377781</v>
       </c>
       <c r="F5">
-        <v>455.5079384746704</v>
+        <v>455.50793847467042</v>
       </c>
       <c r="G5">
-        <v>-21.79086198448723</v>
+        <v>-21.790861984487229</v>
       </c>
       <c r="H5">
         <v>53</v>
       </c>
       <c r="I5">
-        <v>613583.1398872363</v>
+        <v>613583.13988723629</v>
       </c>
       <c r="J5">
-        <v>525.5067253009917</v>
+        <v>525.50672530099166</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -4980,10 +5030,10 @@
         <v>1267.162719726562</v>
       </c>
       <c r="N5">
-        <v>28.16470718383789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>28.164707183837891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -4991,28 +5041,28 @@
         <v>19</v>
       </c>
       <c r="C6">
-        <v>420492.3090820312</v>
+        <v>420492.30908203119</v>
       </c>
       <c r="D6">
-        <v>436.7585289001465</v>
+        <v>436.75852890014647</v>
       </c>
       <c r="E6">
-        <v>0.3487671545362035</v>
+        <v>0.34876715453620349</v>
       </c>
       <c r="F6">
-        <v>449.6703937751237</v>
+        <v>449.67039377512373</v>
       </c>
       <c r="G6">
         <v>-21.42475709513905</v>
       </c>
       <c r="H6">
-        <v>72.59999999999999</v>
+        <v>72.599999999999994</v>
       </c>
       <c r="I6">
         <v>607760.931340507</v>
       </c>
       <c r="J6">
-        <v>520.1864904638157</v>
+        <v>520.18649046381574</v>
       </c>
       <c r="K6">
         <v>4</v>
@@ -5024,10 +5074,10 @@
         <v>2047.919921875</v>
       </c>
       <c r="N6">
-        <v>36.81857681274414</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>36.818576812744141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -5035,16 +5085,16 @@
         <v>12</v>
       </c>
       <c r="C7">
-        <v>445400.3373535156</v>
+        <v>445400.33735351561</v>
       </c>
       <c r="D7">
-        <v>455.4739189147949</v>
+        <v>455.47391891479492</v>
       </c>
       <c r="E7">
-        <v>0.3620839259595939</v>
+        <v>0.36208392595959388</v>
       </c>
       <c r="F7">
-        <v>467.4438836373675</v>
+        <v>467.44388363736749</v>
       </c>
       <c r="G7">
         <v>-22.99309371952074</v>
@@ -5053,10 +5103,10 @@
         <v>81.8</v>
       </c>
       <c r="I7">
-        <v>624375.7941455935</v>
+        <v>624375.79414559354</v>
       </c>
       <c r="J7">
-        <v>529.9872311888599</v>
+        <v>529.98723118885994</v>
       </c>
       <c r="K7">
         <v>4</v>
@@ -5068,10 +5118,10 @@
         <v>3542.773193359375</v>
       </c>
       <c r="N7">
-        <v>48.01456832885742</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>48.014568328857422</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -5079,28 +5129,28 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>415702.5359130859</v>
+        <v>415702.53591308591</v>
       </c>
       <c r="D8">
-        <v>433.9696880340576</v>
+        <v>433.96968803405758</v>
       </c>
       <c r="E8">
-        <v>0.3471983392350693</v>
+        <v>0.34719833923506932</v>
       </c>
       <c r="F8">
-        <v>447.1876819874566</v>
+        <v>447.18768198745659</v>
       </c>
       <c r="G8">
         <v>-21.02737980525821</v>
       </c>
       <c r="H8">
-        <v>74.40000000000001</v>
+        <v>74.400000000000006</v>
       </c>
       <c r="I8">
-        <v>604081.2188187633</v>
+        <v>604081.21881876327</v>
       </c>
       <c r="J8">
-        <v>517.4835424515205</v>
+        <v>517.48354245152052</v>
       </c>
       <c r="K8">
         <v>4</v>
@@ -5109,13 +5159,13 @@
         <v>72</v>
       </c>
       <c r="M8">
-        <v>989.9315185546876</v>
+        <v>989.93151855468761</v>
       </c>
       <c r="N8">
-        <v>24.32243919372558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>24.322439193725579</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -5123,7 +5173,7 @@
         <v>24</v>
       </c>
       <c r="C9">
-        <v>581970.1001098633</v>
+        <v>581970.10010986333</v>
       </c>
       <c r="D9">
         <v>600.2295677185059</v>
@@ -5132,10 +5182,10 @@
         <v>0.4645861871714847</v>
       </c>
       <c r="F9">
-        <v>612.0270443723581</v>
+        <v>612.02704437235809</v>
       </c>
       <c r="G9">
-        <v>-55.0306590068372</v>
+        <v>-55.030659006837197</v>
       </c>
       <c r="H9">
         <v>78.2</v>
@@ -5144,7 +5194,7 @@
         <v>577887.7001877469</v>
       </c>
       <c r="J9">
-        <v>508.08155275865</v>
+        <v>508.08155275864999</v>
       </c>
       <c r="K9">
         <v>4</v>
@@ -5153,13 +5203,13 @@
         <v>90</v>
       </c>
       <c r="M9">
-        <v>957.2661743164062</v>
+        <v>957.26617431640625</v>
       </c>
       <c r="N9">
         <v>23.3688850402832</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -5167,28 +5217,28 @@
         <v>26</v>
       </c>
       <c r="C10">
-        <v>281287.2107666016</v>
+        <v>281287.21076660161</v>
       </c>
       <c r="D10">
         <v>295.5479820251465</v>
       </c>
       <c r="E10">
-        <v>0.2526672730133154</v>
+        <v>0.25266727301331537</v>
       </c>
       <c r="F10">
-        <v>311.4128526868736</v>
+        <v>311.41285268687358</v>
       </c>
       <c r="G10">
-        <v>-14.03915410485203</v>
+        <v>-14.039154104852029</v>
       </c>
       <c r="H10">
         <v>61.4</v>
       </c>
       <c r="I10">
-        <v>600460.8957308951</v>
+        <v>600460.89573089511</v>
       </c>
       <c r="J10">
-        <v>480.5402950408774</v>
+        <v>480.54029504087742</v>
       </c>
       <c r="K10">
         <v>4</v>
@@ -5200,10 +5250,10 @@
         <v>887.4073486328125</v>
       </c>
       <c r="N10">
-        <v>22.50413131713867</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>22.504131317138668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -5211,28 +5261,28 @@
         <v>33</v>
       </c>
       <c r="C11">
-        <v>282363.4541992188</v>
+        <v>282363.45419921877</v>
       </c>
       <c r="D11">
-        <v>301.1048736572266</v>
+        <v>301.10487365722662</v>
       </c>
       <c r="E11">
-        <v>0.2567642684661126</v>
+        <v>0.25676426846611261</v>
       </c>
       <c r="F11">
-        <v>317.4013337656355</v>
+        <v>317.40133376563551</v>
       </c>
       <c r="G11">
-        <v>-14.44087925937409</v>
+        <v>-14.440879259374089</v>
       </c>
       <c r="H11">
         <v>36</v>
       </c>
       <c r="I11">
-        <v>600163.8007379177</v>
+        <v>600163.80073791766</v>
       </c>
       <c r="J11">
-        <v>477.118585449059</v>
+        <v>477.11858544905903</v>
       </c>
       <c r="K11">
         <v>4</v>
@@ -5247,7 +5297,7 @@
         <v>39.9549560546875</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5255,16 +5305,16 @@
         <v>32</v>
       </c>
       <c r="C12">
-        <v>282469.7546875</v>
+        <v>282469.75468750001</v>
       </c>
       <c r="D12">
-        <v>300.033521270752</v>
+        <v>300.03352127075198</v>
       </c>
       <c r="E12">
-        <v>0.2565538891008787</v>
+        <v>0.25655388910087867</v>
       </c>
       <c r="F12">
-        <v>317.4667545711179</v>
+        <v>317.46675457111792</v>
       </c>
       <c r="G12">
         <v>-14.33808194474148</v>
@@ -5273,7 +5323,7 @@
         <v>54.8</v>
       </c>
       <c r="I12">
-        <v>599815.5683751409</v>
+        <v>599815.56837514089</v>
       </c>
       <c r="J12">
         <v>477.8013337080348</v>
@@ -5288,10 +5338,10 @@
         <v>2144.72412109375</v>
       </c>
       <c r="N12">
-        <v>36.51226425170898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>36.512264251708977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -5299,16 +5349,16 @@
         <v>37</v>
       </c>
       <c r="C13">
-        <v>240985.4844726562</v>
+        <v>240985.48447265619</v>
       </c>
       <c r="D13">
-        <v>261.124380493164</v>
+        <v>261.12438049316398</v>
       </c>
       <c r="E13">
-        <v>0.2172864390922837</v>
+        <v>0.21728643909228371</v>
       </c>
       <c r="F13">
-        <v>299.7415700928944</v>
+        <v>299.74157009289439</v>
       </c>
       <c r="G13">
         <v>-12.11884922298364</v>
@@ -5317,10 +5367,10 @@
         <v>44</v>
       </c>
       <c r="I13">
-        <v>506711.8237420782</v>
+        <v>506711.82374207821</v>
       </c>
       <c r="J13">
-        <v>387.7334639901563</v>
+        <v>387.73346399015628</v>
       </c>
       <c r="K13">
         <v>4</v>
@@ -5335,7 +5385,7 @@
         <v>37.76519775390625</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -5343,28 +5393,28 @@
         <v>25</v>
       </c>
       <c r="C14">
-        <v>281447.9738037109</v>
+        <v>281447.97380371089</v>
       </c>
       <c r="D14">
-        <v>294.61123046875</v>
+        <v>294.61123046875002</v>
       </c>
       <c r="E14">
-        <v>0.2531564715951338</v>
+        <v>0.25315647159513383</v>
       </c>
       <c r="F14">
-        <v>311.7865023487419</v>
+        <v>311.78650234874192</v>
       </c>
       <c r="G14">
-        <v>-14.06556280511868</v>
+        <v>-14.065562805118679</v>
       </c>
       <c r="H14">
         <v>62</v>
       </c>
       <c r="I14">
-        <v>600372.0068541642</v>
+        <v>600372.00685416418</v>
       </c>
       <c r="J14">
-        <v>481.0647151311128</v>
+        <v>481.06471513111279</v>
       </c>
       <c r="K14">
         <v>4</v>
@@ -5376,10 +5426,10 @@
         <v>872.1038818359375</v>
       </c>
       <c r="N14">
-        <v>21.83354949951172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>21.833549499511719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -5390,16 +5440,16 @@
         <v>281719.8590332031</v>
       </c>
       <c r="D15">
-        <v>295.5029945373535</v>
+        <v>295.50299453735352</v>
       </c>
       <c r="E15">
         <v>0.2532382431095202</v>
       </c>
       <c r="F15">
-        <v>313.4481101268698</v>
+        <v>313.44811012686978</v>
       </c>
       <c r="G15">
-        <v>-14.08817841855181</v>
+        <v>-14.088178418551809</v>
       </c>
       <c r="H15">
         <v>41.4</v>
@@ -5408,7 +5458,7 @@
         <v>600515.58502338</v>
       </c>
       <c r="J15">
-        <v>480.5751925192415</v>
+        <v>480.57519251924151</v>
       </c>
       <c r="K15">
         <v>4</v>
@@ -5420,10 +5470,10 @@
         <v>921.409912109375</v>
       </c>
       <c r="N15">
-        <v>23.13956069946289</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>23.139560699462891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -5431,28 +5481,28 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>283190.5722167969</v>
+        <v>283190.57221679692</v>
       </c>
       <c r="D16">
-        <v>299.6170753479004</v>
+        <v>299.61707534790042</v>
       </c>
       <c r="E16">
-        <v>0.2557734162640911</v>
+        <v>0.25577341626409111</v>
       </c>
       <c r="F16">
-        <v>317.0945707651275</v>
+        <v>317.09457076512751</v>
       </c>
       <c r="G16">
-        <v>-14.17584818363484</v>
+        <v>-14.175848183634839</v>
       </c>
       <c r="H16">
         <v>44.6</v>
       </c>
       <c r="I16">
-        <v>599820.0118167946</v>
+        <v>599820.01181679463</v>
       </c>
       <c r="J16">
-        <v>479.0025754474785</v>
+        <v>479.00257544747848</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -5467,7 +5517,7 @@
         <v>22.6485710144043</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -5475,16 +5525,16 @@
         <v>35</v>
       </c>
       <c r="C17">
-        <v>241032.9695800781</v>
+        <v>241032.96958007809</v>
       </c>
       <c r="D17">
-        <v>261.5955703735352</v>
+        <v>261.59557037353522</v>
       </c>
       <c r="E17">
-        <v>0.2168588424233568</v>
+        <v>0.21685884242335679</v>
       </c>
       <c r="F17">
-        <v>299.9933920661749</v>
+        <v>299.99339206617492</v>
       </c>
       <c r="G17">
         <v>-12.14116797117067</v>
@@ -5493,10 +5543,10 @@
         <v>42.8</v>
       </c>
       <c r="I17">
-        <v>506685.3992278328</v>
+        <v>506685.39922783279</v>
       </c>
       <c r="J17">
-        <v>387.113776486062</v>
+        <v>387.11377648606202</v>
       </c>
       <c r="K17">
         <v>4</v>
@@ -5511,7 +5561,7 @@
         <v>39.48907470703125</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -5519,13 +5569,13 @@
         <v>38</v>
       </c>
       <c r="C18">
-        <v>240811.9713867187</v>
+        <v>240811.97138671871</v>
       </c>
       <c r="D18">
-        <v>261.6705993652344</v>
+        <v>261.67059936523441</v>
       </c>
       <c r="E18">
-        <v>0.2168028790105617</v>
+        <v>0.21680287901056169</v>
       </c>
       <c r="F18">
         <v>299.5606938890154</v>
@@ -5537,7 +5587,7 @@
         <v>42.6</v>
       </c>
       <c r="I18">
-        <v>506722.6312068299</v>
+        <v>506722.63120682992</v>
       </c>
       <c r="J18">
         <v>387.0493131679724</v>
@@ -5552,10 +5602,10 @@
         <v>2434.24072265625</v>
       </c>
       <c r="N18">
-        <v>40.22628784179688</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>40.226287841796882</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -5563,16 +5613,16 @@
         <v>31</v>
       </c>
       <c r="C19">
-        <v>282787.3256347656</v>
+        <v>282787.32563476561</v>
       </c>
       <c r="D19">
-        <v>301.9451049804687</v>
+        <v>301.94510498046873</v>
       </c>
       <c r="E19">
-        <v>0.2582921730209171</v>
+        <v>0.25829217302091712</v>
       </c>
       <c r="F19">
-        <v>319.3680566658517</v>
+        <v>319.36805666585173</v>
       </c>
       <c r="G19">
         <v>-14.60178562602793</v>
@@ -5581,10 +5631,10 @@
         <v>38</v>
       </c>
       <c r="I19">
-        <v>600027.5107185695</v>
+        <v>600027.51071856951</v>
       </c>
       <c r="J19">
-        <v>476.605595631367</v>
+        <v>476.60559563136701</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -5596,10 +5646,10 @@
         <v>3145.705810546875</v>
       </c>
       <c r="N19">
-        <v>44.84101867675781</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>44.841018676757813</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -5607,28 +5657,28 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>283130.6591308594</v>
+        <v>283130.65913085942</v>
       </c>
       <c r="D20">
-        <v>303.4238693237305</v>
+        <v>303.42386932373051</v>
       </c>
       <c r="E20">
-        <v>0.2578308252169413</v>
+        <v>0.25783082521694128</v>
       </c>
       <c r="F20">
-        <v>319.0972150739424</v>
+        <v>319.09721507394238</v>
       </c>
       <c r="G20">
-        <v>-14.34315406278752</v>
+        <v>-14.343154062787519</v>
       </c>
       <c r="H20">
         <v>56.6</v>
       </c>
       <c r="I20">
-        <v>599459.3987464912</v>
+        <v>599459.39874649118</v>
       </c>
       <c r="J20">
-        <v>476.3608705592716</v>
+        <v>476.36087055927158</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -5640,10 +5690,10 @@
         <v>1684.415283203125</v>
       </c>
       <c r="N20">
-        <v>33.38700103759766</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>33.387001037597663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -5651,16 +5701,16 @@
         <v>36</v>
       </c>
       <c r="C21">
-        <v>265417.2272949219</v>
+        <v>265417.22729492188</v>
       </c>
       <c r="D21">
-        <v>286.3255004882812</v>
+        <v>286.32550048828119</v>
       </c>
       <c r="E21">
         <v>0.2417002176885617</v>
       </c>
       <c r="F21">
-        <v>312.5173453069389</v>
+        <v>312.51734530693892</v>
       </c>
       <c r="G21">
         <v>-13.56172908952199</v>
@@ -5669,10 +5719,10 @@
         <v>44.2</v>
       </c>
       <c r="I21">
-        <v>560043.3072781723</v>
+        <v>560043.30727817235</v>
       </c>
       <c r="J21">
-        <v>438.4012857779586</v>
+        <v>438.40128577795861</v>
       </c>
       <c r="K21">
         <v>4</v>
@@ -5684,10 +5734,10 @@
         <v>2849.918701171875</v>
       </c>
       <c r="N21">
-        <v>42.65061950683594</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>42.650619506835938</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -5695,28 +5745,28 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>282426.8038085938</v>
+        <v>282426.80380859377</v>
       </c>
       <c r="D22">
-        <v>300.0389686584473</v>
+        <v>300.03896865844729</v>
       </c>
       <c r="E22">
-        <v>0.2562246239998254</v>
+        <v>0.25622462399982537</v>
       </c>
       <c r="F22">
-        <v>317.3700547536423</v>
+        <v>317.37005475364231</v>
       </c>
       <c r="G22">
-        <v>-14.36711352390028</v>
+        <v>-14.367113523900279</v>
       </c>
       <c r="H22">
         <v>53.2</v>
       </c>
       <c r="I22">
-        <v>599846.7509823636</v>
+        <v>599846.75098236359</v>
       </c>
       <c r="J22">
-        <v>477.7657729049382</v>
+        <v>477.76577290493822</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -5728,10 +5778,10 @@
         <v>2063.064453125</v>
       </c>
       <c r="N22">
-        <v>36.02706527709961</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>36.027065277099609</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -5739,28 +5789,28 @@
         <v>34</v>
       </c>
       <c r="C23">
-        <v>283271.441015625</v>
+        <v>283271.44101562502</v>
       </c>
       <c r="D23">
-        <v>300.4398071289062</v>
+        <v>300.43980712890618</v>
       </c>
       <c r="E23">
-        <v>0.2569236439108257</v>
+        <v>0.25692364391082573</v>
       </c>
       <c r="F23">
-        <v>318.7608867779601</v>
+        <v>318.76088677796008</v>
       </c>
       <c r="G23">
-        <v>-14.27178463405754</v>
+        <v>-14.271784634057539</v>
       </c>
       <c r="H23">
         <v>41.6</v>
       </c>
       <c r="I23">
-        <v>599717.2070614689</v>
+        <v>599717.20706146886</v>
       </c>
       <c r="J23">
-        <v>478.1356184526147</v>
+        <v>478.13561845261472</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -5772,10 +5822,10 @@
         <v>1068.029296875</v>
       </c>
       <c r="N23">
-        <v>24.87616729736328</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>24.876167297363281</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -5783,28 +5833,28 @@
         <v>15</v>
       </c>
       <c r="C24">
-        <v>428957.2560546875</v>
+        <v>428957.25605468749</v>
       </c>
       <c r="D24">
-        <v>440.6962993621826</v>
+        <v>440.69629936218257</v>
       </c>
       <c r="E24">
-        <v>0.3512122842045254</v>
+        <v>0.35121228420452538</v>
       </c>
       <c r="F24">
-        <v>454.0992369594564</v>
+        <v>454.09923695945639</v>
       </c>
       <c r="G24">
-        <v>-21.68756459703359</v>
+        <v>-21.687564597033589</v>
       </c>
       <c r="H24">
         <v>56.4</v>
       </c>
       <c r="I24">
-        <v>613219.4408201773</v>
+        <v>613219.44082017732</v>
       </c>
       <c r="J24">
-        <v>526.2705489632888</v>
+        <v>526.27054896328877</v>
       </c>
       <c r="K24">
         <v>4</v>
@@ -5816,10 +5866,10 @@
         <v>1049.8203125</v>
       </c>
       <c r="N24">
-        <v>24.77370262145996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>24.773702621459961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -5827,28 +5877,28 @@
         <v>21</v>
       </c>
       <c r="C25">
-        <v>720350.4338134766</v>
+        <v>720350.43381347659</v>
       </c>
       <c r="D25">
-        <v>663.8956848144531</v>
+        <v>663.89568481445315</v>
       </c>
       <c r="E25">
-        <v>0.5099047291491152</v>
+        <v>0.50990472914911522</v>
       </c>
       <c r="F25">
-        <v>675.0621858679349</v>
+        <v>675.06218586793489</v>
       </c>
       <c r="G25">
-        <v>-84.01974895032727</v>
+        <v>-84.019748950327269</v>
       </c>
       <c r="H25">
         <v>45.2</v>
       </c>
       <c r="I25">
-        <v>720710.9312417844</v>
+        <v>720710.93124178436</v>
       </c>
       <c r="J25">
-        <v>576.2974149720816</v>
+        <v>576.29741497208158</v>
       </c>
       <c r="K25">
         <v>4</v>
@@ -5863,7 +5913,7 @@
         <v>25.31052398681641</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -5877,22 +5927,22 @@
         <v>433.1107208251953</v>
       </c>
       <c r="E26">
-        <v>0.3457456006641577</v>
+        <v>0.34574560066415772</v>
       </c>
       <c r="F26">
-        <v>445.6214293077031</v>
+        <v>445.62142930770312</v>
       </c>
       <c r="G26">
-        <v>-21.12570228355523</v>
+        <v>-21.125702283555231</v>
       </c>
       <c r="H26">
         <v>70.8</v>
       </c>
       <c r="I26">
-        <v>604182.2991707267</v>
+        <v>604182.29917072668</v>
       </c>
       <c r="J26">
-        <v>516.77246609485</v>
+        <v>516.77246609484996</v>
       </c>
       <c r="K26">
         <v>4</v>
@@ -5904,10 +5954,10 @@
         <v>1610.034790039062</v>
       </c>
       <c r="N26">
-        <v>32.58957672119141</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
+        <v>32.589576721191413</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -5915,28 +5965,28 @@
         <v>10</v>
       </c>
       <c r="C27">
-        <v>457189.0026611328</v>
+        <v>457189.00266113278</v>
       </c>
       <c r="D27">
-        <v>469.984016418457</v>
+        <v>469.98401641845697</v>
       </c>
       <c r="E27">
-        <v>0.3720247963224274</v>
+        <v>0.37202479632242741</v>
       </c>
       <c r="F27">
-        <v>486.9150864643944</v>
+        <v>486.91508646439439</v>
       </c>
       <c r="G27">
-        <v>-24.16229241193231</v>
+        <v>-24.162292411932309</v>
       </c>
       <c r="H27">
-        <v>69.59999999999999</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="I27">
-        <v>625659.5101098996</v>
+        <v>625659.51010989957</v>
       </c>
       <c r="J27">
-        <v>519.0125745691229</v>
+        <v>519.01257456912288</v>
       </c>
       <c r="K27">
         <v>4</v>
@@ -5951,7 +6001,7 @@
         <v>33.7850341796875</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -5959,28 +6009,28 @@
         <v>16</v>
       </c>
       <c r="C28">
-        <v>435968.3409179688</v>
+        <v>435968.34091796877</v>
       </c>
       <c r="D28">
-        <v>444.4046394348144</v>
+        <v>444.40463943481438</v>
       </c>
       <c r="E28">
-        <v>0.3542119204349997</v>
+        <v>0.35421192043499972</v>
       </c>
       <c r="F28">
-        <v>457.1665980669553</v>
+        <v>457.16659806695532</v>
       </c>
       <c r="G28">
-        <v>-22.05763401026959</v>
+        <v>-22.057634010269592</v>
       </c>
       <c r="H28">
         <v>58</v>
       </c>
       <c r="I28">
-        <v>618356.3883614686</v>
+        <v>618356.38836146856</v>
       </c>
       <c r="J28">
-        <v>530.3658436465095</v>
+        <v>530.36584364650946</v>
       </c>
       <c r="K28">
         <v>4</v>
@@ -5992,10 +6042,10 @@
         <v>1026.681640625</v>
       </c>
       <c r="N28">
-        <v>24.83317184448243</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
+        <v>24.833171844482429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -6006,13 +6056,13 @@
         <v>434080.1959472656</v>
       </c>
       <c r="D29">
-        <v>452.9351970672607</v>
+        <v>452.93519706726067</v>
       </c>
       <c r="E29">
-        <v>0.3617436132228173</v>
+        <v>0.36174361322281728</v>
       </c>
       <c r="F29">
-        <v>466.0923919377514</v>
+        <v>466.09239193775142</v>
       </c>
       <c r="G29">
         <v>-22.19000058474969</v>
@@ -6021,10 +6071,10 @@
         <v>75.2</v>
       </c>
       <c r="I29">
-        <v>611223.8736908236</v>
+        <v>611223.87369082356</v>
       </c>
       <c r="J29">
-        <v>517.9536695533073</v>
+        <v>517.95366955330735</v>
       </c>
       <c r="K29">
         <v>4</v>
@@ -6039,7 +6089,7 @@
         <v>26.19949913024902</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -6047,28 +6097,28 @@
         <v>13</v>
       </c>
       <c r="C30">
-        <v>436303.6000732422</v>
+        <v>436303.60007324221</v>
       </c>
       <c r="D30">
-        <v>446.613850402832</v>
+        <v>446.61385040283199</v>
       </c>
       <c r="E30">
-        <v>0.3556940880868246</v>
+        <v>0.35569408808682462</v>
       </c>
       <c r="F30">
-        <v>459.0319362567681</v>
+        <v>459.03193625676812</v>
       </c>
       <c r="G30">
-        <v>-22.24654243845158</v>
+        <v>-22.246542438451581</v>
       </c>
       <c r="H30">
         <v>75</v>
       </c>
       <c r="I30">
-        <v>618028.0255906337</v>
+        <v>618028.02559063374</v>
       </c>
       <c r="J30">
-        <v>527.8716380783974</v>
+        <v>527.87163807839738</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -6080,7 +6130,7 @@
         <v>1609.181030273438</v>
       </c>
       <c r="N30">
-        <v>32.52344512939453</v>
+        <v>32.523445129394531</v>
       </c>
     </row>
   </sheetData>
